--- a/COVID-19.xlsx
+++ b/COVID-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothycomeau/Dropbox/Covid-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13A239E-6770-954B-9200-B39AEC1809EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED50FEF-084E-2044-BDBF-CF91AF65B72C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="4500" windowWidth="36260" windowHeight="17500" activeTab="4" xr2:uid="{A5CB126D-F2C1-CC4E-886A-16083F7D0908}"/>
+    <workbookView xWindow="2780" yWindow="3380" windowWidth="33240" windowHeight="14820" firstSheet="2" activeTab="4" xr2:uid="{A5CB126D-F2C1-CC4E-886A-16083F7D0908}"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="99">
   <si>
     <t>Recovered</t>
   </si>
@@ -350,7 +350,7 @@
     <t>20204-04-11</t>
   </si>
   <si>
-    <t>2020-04-014</t>
+    <t>2020-0415</t>
   </si>
 </sst>
 </file>
@@ -803,7 +803,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>World!$A$4:$A$85</c:f>
+              <c:f>World!$A$5:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="82"/>
@@ -1058,7 +1058,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>World!$B$4:$B$85</c:f>
+              <c:f>World!$B$5:$B$86</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="82"/>
@@ -1356,7 +1356,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>World!$A$4:$A$85</c:f>
+              <c:f>World!$A$5:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="82"/>
@@ -1611,7 +1611,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>World!$C$4:$C$85</c:f>
+              <c:f>World!$C$5:$C$86</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="82"/>
@@ -1909,7 +1909,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>World!$A$4:$A$85</c:f>
+              <c:f>World!$A$5:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="82"/>
@@ -2164,7 +2164,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>World!$D$4:$D$85</c:f>
+              <c:f>World!$D$5:$D$86</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="82"/>
@@ -2462,7 +2462,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>World!$A$4:$A$85</c:f>
+              <c:f>World!$A$5:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="82"/>
@@ -2717,7 +2717,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>World!$E$4:$E$85</c:f>
+              <c:f>World!$E$5:$E$86</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="82"/>
@@ -3566,12 +3566,88 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.32145524108835638"/>
+                  <c:y val="1.0770315319082839E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>y = 17.879x - 785077</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Nova Scotia'!$A$1:$A$31</c:f>
+              <c:f>'Nova Scotia'!$A$1:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>43905</c:v>
                 </c:pt>
@@ -3664,16 +3740,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Nova Scotia'!$B$1:$B$31</c:f>
+              <c:f>'Nova Scotia'!$B$1:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3763,6 +3842,9 @@
                 </c:pt>
                 <c:pt idx="30" formatCode="0">
                   <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0">
+                  <c:v>549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4523,6 +4605,20 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -5315,10 +5411,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>USA!$A$2:$A$59</c:f>
+              <c:f>USA!$A$2:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>43876</c:v>
                 </c:pt>
@@ -5492,16 +5588,25 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>USA!$B$2:$B$59</c:f>
+              <c:f>USA!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -5675,6 +5780,15 @@
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>560402</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>586748</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>613886</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>644089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16384,13 +16498,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>303894</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>135769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>518583</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>119440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17080,11 +17194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D771B011-31BF-EA4B-B726-64ED0FC20862}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17127,2521 +17241,2551 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B2" s="50">
-        <v>1973715</v>
+        <v>2056055</v>
       </c>
       <c r="C2" s="50">
-        <v>125910</v>
+        <v>134178</v>
       </c>
       <c r="D2" s="50">
-        <v>474261</v>
+        <v>511019</v>
       </c>
       <c r="E2" s="74">
         <f t="shared" ref="E2" si="0">B2-C2-D2</f>
-        <v>1373544</v>
+        <v>1410858</v>
       </c>
       <c r="F2" s="75">
         <f t="shared" ref="F2" si="1">SUM(E2/B2)</f>
-        <v>0.69591810367758267</v>
+        <v>0.68619662411754545</v>
       </c>
       <c r="G2" s="76">
         <f t="shared" ref="G2" si="2">C2/B2*100</f>
-        <v>6.3793404822884758</v>
+        <v>6.5259927385210998</v>
       </c>
       <c r="H2" s="77">
         <f t="shared" ref="H2" si="3">100-G2</f>
-        <v>93.62065951771153</v>
+        <v>93.474007261478903</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B3" s="50">
-        <v>1917320</v>
+        <v>1973715</v>
       </c>
       <c r="C3" s="50">
-        <v>119483</v>
+        <v>125910</v>
       </c>
       <c r="D3" s="50">
-        <v>448655</v>
+        <v>474261</v>
       </c>
       <c r="E3" s="74">
         <f t="shared" ref="E3" si="4">B3-C3-D3</f>
-        <v>1349182</v>
+        <v>1373544</v>
       </c>
       <c r="F3" s="75">
         <f t="shared" ref="F3" si="5">SUM(E3/B3)</f>
-        <v>0.70368117998038926</v>
+        <v>0.69591810367758267</v>
       </c>
       <c r="G3" s="76">
         <f t="shared" ref="G3" si="6">C3/B3*100</f>
-        <v>6.2317714309557095</v>
+        <v>6.3793404822884758</v>
       </c>
       <c r="H3" s="77">
         <f t="shared" ref="H3" si="7">100-G3</f>
-        <v>93.768228569044297</v>
+        <v>93.62065951771153</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B4" s="50">
-        <v>1846680</v>
+        <v>1917320</v>
       </c>
       <c r="C4" s="50">
-        <v>114090</v>
+        <v>119483</v>
       </c>
       <c r="D4" s="50">
-        <v>421722</v>
+        <v>448655</v>
       </c>
       <c r="E4" s="74">
         <f t="shared" ref="E4" si="8">B4-C4-D4</f>
-        <v>1310868</v>
+        <v>1349182</v>
       </c>
       <c r="F4" s="75">
         <f t="shared" ref="F4" si="9">SUM(E4/B4)</f>
-        <v>0.70985119241016315</v>
+        <v>0.70368117998038926</v>
       </c>
       <c r="G4" s="76">
         <f t="shared" ref="G4" si="10">C4/B4*100</f>
-        <v>6.1781142374423288</v>
+        <v>6.2317714309557095</v>
       </c>
       <c r="H4" s="77">
         <f t="shared" ref="H4" si="11">100-G4</f>
-        <v>93.82188576255767</v>
+        <v>93.768228569044297</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B5" s="50">
-        <v>1771514</v>
+        <v>1846680</v>
       </c>
       <c r="C5" s="50">
-        <v>108503</v>
+        <v>114090</v>
       </c>
       <c r="D5" s="50">
-        <v>402110</v>
+        <v>421722</v>
       </c>
       <c r="E5" s="74">
         <f t="shared" ref="E5" si="12">B5-C5-D5</f>
-        <v>1260901</v>
+        <v>1310868</v>
       </c>
       <c r="F5" s="75">
         <f t="shared" ref="F5" si="13">SUM(E5/B5)</f>
-        <v>0.71176462618980152</v>
+        <v>0.70985119241016315</v>
       </c>
       <c r="G5" s="76">
         <f t="shared" ref="G5" si="14">C5/B5*100</f>
-        <v>6.1248739778517134</v>
+        <v>6.1781142374423288</v>
       </c>
       <c r="H5" s="77">
         <f t="shared" ref="H5" si="15">100-G5</f>
-        <v>93.875126022148294</v>
+        <v>93.82188576255767</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B6" s="50">
-        <v>1691719</v>
+        <v>1771514</v>
       </c>
       <c r="C6" s="50">
-        <v>102525</v>
+        <v>108503</v>
       </c>
       <c r="D6" s="50">
-        <v>376096</v>
+        <v>402110</v>
       </c>
       <c r="E6" s="74">
         <f t="shared" ref="E6" si="16">B6-C6-D6</f>
-        <v>1213098</v>
+        <v>1260901</v>
       </c>
       <c r="F6" s="75">
         <f t="shared" ref="F6" si="17">SUM(E6/B6)</f>
-        <v>0.71708008244868093</v>
+        <v>0.71176462618980152</v>
       </c>
       <c r="G6" s="76">
         <f t="shared" ref="G6" si="18">C6/B6*100</f>
-        <v>6.0604036485964867</v>
+        <v>6.1248739778517134</v>
       </c>
       <c r="H6" s="77">
         <f t="shared" ref="H6" si="19">100-G6</f>
-        <v>93.939596351403509</v>
+        <v>93.875126022148294</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B7" s="50">
-        <v>1595350</v>
+        <v>1691719</v>
       </c>
       <c r="C7" s="50">
-        <v>95455</v>
+        <v>102525</v>
       </c>
       <c r="D7" s="50">
-        <v>353975</v>
+        <v>376096</v>
       </c>
       <c r="E7" s="74">
         <f t="shared" ref="E7" si="20">B7-C7-D7</f>
-        <v>1145920</v>
+        <v>1213098</v>
       </c>
       <c r="F7" s="75">
         <f t="shared" ref="F7" si="21">SUM(E7/B7)</f>
-        <v>0.7182875231140502</v>
+        <v>0.71708008244868093</v>
       </c>
       <c r="G7" s="76">
         <f t="shared" ref="G7" si="22">C7/B7*100</f>
-        <v>5.9833265427649103</v>
+        <v>6.0604036485964867</v>
       </c>
       <c r="H7" s="77">
         <f t="shared" ref="H7" si="23">100-G7</f>
-        <v>94.016673457235086</v>
+        <v>93.939596351403509</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B8" s="50">
-        <v>1511104</v>
+        <v>1595350</v>
       </c>
       <c r="C8" s="50">
-        <v>88338</v>
+        <v>95455</v>
       </c>
       <c r="D8" s="50">
-        <v>328661</v>
+        <v>353975</v>
       </c>
       <c r="E8" s="74">
         <f t="shared" ref="E8" si="24">B8-C8-D8</f>
-        <v>1094105</v>
+        <v>1145920</v>
       </c>
       <c r="F8" s="75">
         <f t="shared" ref="F8" si="25">SUM(E8/B8)</f>
-        <v>0.72404348079285075</v>
+        <v>0.7182875231140502</v>
       </c>
       <c r="G8" s="76">
         <f t="shared" ref="G8" si="26">C8/B8*100</f>
-        <v>5.8459245690567956</v>
+        <v>5.9833265427649103</v>
       </c>
       <c r="H8" s="77">
         <f t="shared" ref="H8" si="27">100-G8</f>
-        <v>94.154075430943209</v>
+        <v>94.016673457235086</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B9" s="50">
-        <v>1426096</v>
+        <v>1511104</v>
       </c>
       <c r="C9" s="50">
-        <v>81865</v>
+        <v>88338</v>
       </c>
       <c r="D9" s="50">
-        <v>300054</v>
+        <v>328661</v>
       </c>
       <c r="E9" s="74">
         <f t="shared" ref="E9" si="28">B9-C9-D9</f>
-        <v>1044177</v>
+        <v>1094105</v>
       </c>
       <c r="F9" s="75">
         <f t="shared" ref="F9" si="29">SUM(E9/B9)</f>
-        <v>0.73219264341250523</v>
+        <v>0.72404348079285075</v>
       </c>
       <c r="G9" s="76">
         <f t="shared" ref="G9" si="30">C9/B9*100</f>
-        <v>5.7404971334328128</v>
+        <v>5.8459245690567956</v>
       </c>
       <c r="H9" s="77">
         <f t="shared" ref="H9" si="31">100-G9</f>
-        <v>94.259502866567189</v>
+        <v>94.154075430943209</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B10" s="50">
-        <v>1345048</v>
+        <v>1426096</v>
       </c>
       <c r="C10" s="50">
-        <v>74565</v>
+        <v>81865</v>
       </c>
       <c r="D10" s="50">
-        <v>276515</v>
+        <v>300054</v>
       </c>
       <c r="E10" s="74">
         <f t="shared" ref="E10" si="32">B10-C10-D10</f>
-        <v>993968</v>
+        <v>1044177</v>
       </c>
       <c r="F10" s="75">
         <f t="shared" ref="F10" si="33">SUM(E10/B10)</f>
-        <v>0.73898329278955099</v>
+        <v>0.73219264341250523</v>
       </c>
       <c r="G10" s="76">
         <f t="shared" ref="G10" si="34">C10/B10*100</f>
-        <v>5.5436683300521619</v>
+        <v>5.7404971334328128</v>
       </c>
       <c r="H10" s="77">
         <f t="shared" ref="H10" si="35">100-G10</f>
-        <v>94.456331669947843</v>
+        <v>94.259502866567189</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B11" s="50">
-        <v>1272115</v>
+        <v>1345048</v>
       </c>
       <c r="C11" s="50">
-        <v>69374</v>
+        <v>74565</v>
       </c>
       <c r="D11" s="50">
-        <v>260012</v>
+        <v>276515</v>
       </c>
       <c r="E11" s="74">
         <f t="shared" ref="E11" si="36">B11-C11-D11</f>
-        <v>942729</v>
+        <v>993968</v>
       </c>
       <c r="F11" s="75">
         <f t="shared" ref="F11" si="37">SUM(E11/B11)</f>
-        <v>0.74107215149573746</v>
+        <v>0.73898329278955099</v>
       </c>
       <c r="G11" s="76">
         <f t="shared" ref="G11" si="38">C11/B11*100</f>
-        <v>5.4534377788171673</v>
+        <v>5.5436683300521619</v>
       </c>
       <c r="H11" s="77">
         <f t="shared" ref="H11" si="39">100-G11</f>
-        <v>94.546562221182839</v>
+        <v>94.456331669947843</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B12" s="50">
-        <v>1197405</v>
+        <v>1272115</v>
       </c>
       <c r="C12" s="50">
-        <v>64606</v>
+        <v>69374</v>
       </c>
       <c r="D12" s="50">
-        <v>246152</v>
+        <v>260012</v>
       </c>
       <c r="E12" s="74">
         <f t="shared" ref="E12" si="40">B12-C12-D12</f>
-        <v>886647</v>
+        <v>942729</v>
       </c>
       <c r="F12" s="75">
         <f t="shared" ref="F12" si="41">SUM(E12/B12)</f>
-        <v>0.74047377453743723</v>
+        <v>0.74107215149573746</v>
       </c>
       <c r="G12" s="76">
         <f t="shared" ref="G12" si="42">C12/B12*100</f>
-        <v>5.3955011044717534</v>
+        <v>5.4534377788171673</v>
       </c>
       <c r="H12" s="77">
         <f t="shared" ref="H12" si="43">100-G12</f>
-        <v>94.604498895528252</v>
+        <v>94.546562221182839</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B13" s="50">
-        <v>1095917</v>
+        <v>1197405</v>
       </c>
       <c r="C13" s="50">
-        <v>58787</v>
+        <v>64606</v>
       </c>
       <c r="D13" s="50">
-        <v>225796</v>
+        <v>246152</v>
       </c>
       <c r="E13" s="74">
         <f t="shared" ref="E13" si="44">B13-C13-D13</f>
-        <v>811334</v>
+        <v>886647</v>
       </c>
       <c r="F13" s="75">
         <f t="shared" ref="F13" si="45">SUM(E13/B13)</f>
-        <v>0.74032431288135869</v>
+        <v>0.74047377453743723</v>
       </c>
       <c r="G13" s="76">
         <f t="shared" ref="G13" si="46">C13/B13*100</f>
-        <v>5.3641836014953688</v>
+        <v>5.3955011044717534</v>
       </c>
       <c r="H13" s="77">
         <f t="shared" ref="H13" si="47">100-G13</f>
-        <v>94.63581639850463</v>
+        <v>94.604498895528252</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B14" s="50">
-        <v>1013157</v>
+        <v>1095917</v>
       </c>
       <c r="C14" s="50">
-        <v>52983</v>
+        <v>58787</v>
       </c>
       <c r="D14" s="50">
-        <v>210263</v>
+        <v>225796</v>
       </c>
       <c r="E14" s="74">
         <f t="shared" ref="E14" si="48">B14-C14-D14</f>
-        <v>749911</v>
+        <v>811334</v>
       </c>
       <c r="F14" s="75">
         <f t="shared" ref="F14" si="49">SUM(E14/B14)</f>
-        <v>0.74017254976277125</v>
+        <v>0.74032431288135869</v>
       </c>
       <c r="G14" s="76">
         <f t="shared" ref="G14" si="50">C14/B14*100</f>
-        <v>5.2294955273466996</v>
+        <v>5.3641836014953688</v>
       </c>
       <c r="H14" s="77">
         <f t="shared" ref="H14" si="51">100-G14</f>
-        <v>94.7705044726533</v>
+        <v>94.63581639850463</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="72">
-        <v>43922</v>
-      </c>
-      <c r="B15" s="73">
-        <v>932605</v>
-      </c>
-      <c r="C15" s="73">
-        <v>46809</v>
-      </c>
-      <c r="D15" s="73">
-        <v>193177</v>
+      <c r="A15" s="10">
+        <v>43923</v>
+      </c>
+      <c r="B15" s="50">
+        <v>1013157</v>
+      </c>
+      <c r="C15" s="50">
+        <v>52983</v>
+      </c>
+      <c r="D15" s="50">
+        <v>210263</v>
       </c>
       <c r="E15" s="74">
         <f t="shared" ref="E15" si="52">B15-C15-D15</f>
-        <v>692619</v>
+        <v>749911</v>
       </c>
       <c r="F15" s="75">
         <f t="shared" ref="F15" si="53">SUM(E15/B15)</f>
-        <v>0.74267133459503221</v>
+        <v>0.74017254976277125</v>
       </c>
       <c r="G15" s="76">
         <f t="shared" ref="G15" si="54">C15/B15*100</f>
-        <v>5.0191667426187934</v>
+        <v>5.2294955273466996</v>
       </c>
       <c r="H15" s="77">
         <f t="shared" ref="H15" si="55">100-G15</f>
+        <v>94.7705044726533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="72">
+        <v>43922</v>
+      </c>
+      <c r="B16" s="73">
+        <v>932605</v>
+      </c>
+      <c r="C16" s="73">
+        <v>46809</v>
+      </c>
+      <c r="D16" s="73">
+        <v>193177</v>
+      </c>
+      <c r="E16" s="74">
+        <f t="shared" ref="E16" si="56">B16-C16-D16</f>
+        <v>692619</v>
+      </c>
+      <c r="F16" s="75">
+        <f t="shared" ref="F16" si="57">SUM(E16/B16)</f>
+        <v>0.74267133459503221</v>
+      </c>
+      <c r="G16" s="76">
+        <f t="shared" ref="G16" si="58">C16/B16*100</f>
+        <v>5.0191667426187934</v>
+      </c>
+      <c r="H16" s="77">
+        <f t="shared" ref="H16" si="59">100-G16</f>
         <v>94.980833257381207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>43921</v>
-      </c>
-      <c r="B16" s="50">
-        <v>857487</v>
-      </c>
-      <c r="C16" s="50">
-        <v>42107</v>
-      </c>
-      <c r="D16" s="50">
-        <v>178034</v>
-      </c>
-      <c r="E16" s="51">
-        <f t="shared" ref="E16" si="56">B16-C16-D16</f>
-        <v>637346</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" ref="F16" si="57">SUM(E16/B16)</f>
-        <v>0.74327190966160417</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" ref="G16" si="58">C16/B16*100</f>
-        <v>4.910511762860545</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" ref="H16" si="59">100-G16</f>
-        <v>95.089488237139449</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B17" s="50">
-        <v>782365</v>
+        <v>857487</v>
       </c>
       <c r="C17" s="50">
-        <v>37582</v>
+        <v>42107</v>
       </c>
       <c r="D17" s="50">
-        <v>164566</v>
+        <v>178034</v>
       </c>
       <c r="E17" s="51">
         <f t="shared" ref="E17" si="60">B17-C17-D17</f>
-        <v>580217</v>
+        <v>637346</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" ref="F17" si="61">SUM(E17/B17)</f>
-        <v>0.7416193209052041</v>
+        <v>0.74327190966160417</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" ref="G17" si="62">C17/B17*100</f>
-        <v>4.8036402446428452</v>
+        <v>4.910511762860545</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" ref="H17" si="63">100-G17</f>
-        <v>95.19635975535715</v>
+        <v>95.089488237139449</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B18" s="50">
-        <v>720117</v>
+        <v>782365</v>
       </c>
       <c r="C18" s="50">
-        <v>33925</v>
+        <v>37582</v>
       </c>
       <c r="D18" s="50">
-        <v>149082</v>
+        <v>164566</v>
       </c>
       <c r="E18" s="51">
         <f t="shared" ref="E18" si="64">B18-C18-D18</f>
-        <v>537110</v>
+        <v>580217</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18" si="65">SUM(E18/B18)</f>
-        <v>0.74586490806355077</v>
+        <v>0.7416193209052041</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" ref="G18" si="66">C18/B18*100</f>
-        <v>4.7110400115536777</v>
+        <v>4.8036402446428452</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" ref="H18" si="67">100-G18</f>
-        <v>95.288959988446322</v>
+        <v>95.19635975535715</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B19" s="50">
-        <v>660706</v>
+        <v>720117</v>
       </c>
       <c r="C19" s="50">
-        <v>30652</v>
+        <v>33925</v>
       </c>
       <c r="D19" s="50">
-        <v>139415</v>
+        <v>149082</v>
       </c>
       <c r="E19" s="51">
         <f t="shared" ref="E19" si="68">B19-C19-D19</f>
-        <v>490639</v>
+        <v>537110</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ref="F19" si="69">SUM(E19/B19)</f>
-        <v>0.74259806933795058</v>
+        <v>0.74586490806355077</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" ref="G19" si="70">C19/B19*100</f>
-        <v>4.6392798006980414</v>
+        <v>4.7110400115536777</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" ref="H19" si="71">100-G19</f>
-        <v>95.360720199301966</v>
+        <v>95.288959988446322</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B20" s="50">
-        <v>593291</v>
+        <v>660706</v>
       </c>
       <c r="C20" s="50">
-        <v>27198</v>
+        <v>30652</v>
       </c>
       <c r="D20" s="50">
-        <v>130915</v>
+        <v>139415</v>
       </c>
       <c r="E20" s="51">
         <f t="shared" ref="E20" si="72">B20-C20-D20</f>
-        <v>435178</v>
+        <v>490639</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20" si="73">SUM(E20/B20)</f>
-        <v>0.7334984012904292</v>
+        <v>0.74259806933795058</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" ref="G20" si="74">C20/B20*100</f>
-        <v>4.5842596634703714</v>
+        <v>4.6392798006980414</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" ref="H20" si="75">100-G20</f>
-        <v>95.415740336529623</v>
+        <v>95.360720199301966</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B21" s="50">
-        <v>529591</v>
+        <v>593291</v>
       </c>
       <c r="C21" s="50">
-        <v>23970</v>
+        <v>27198</v>
       </c>
       <c r="D21" s="50">
-        <v>122150</v>
+        <v>130915</v>
       </c>
       <c r="E21" s="51">
         <f t="shared" ref="E21" si="76">B21-C21-D21</f>
-        <v>383471</v>
+        <v>435178</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21" si="77">SUM(E21/B21)</f>
-        <v>0.72408896676869505</v>
+        <v>0.7334984012904292</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" ref="G21" si="78">C21/B21*100</f>
-        <v>4.5261343187478635</v>
+        <v>4.5842596634703714</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" ref="H21" si="79">100-G21</f>
-        <v>95.473865681252136</v>
+        <v>95.415740336529623</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B22" s="50">
-        <v>467594</v>
+        <v>529591</v>
       </c>
       <c r="C22" s="50">
-        <v>21181</v>
+        <v>23970</v>
       </c>
       <c r="D22" s="50">
-        <v>113770</v>
+        <v>122150</v>
       </c>
       <c r="E22" s="51">
         <f t="shared" ref="E22" si="80">B22-C22-D22</f>
-        <v>332643</v>
+        <v>383471</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ref="F22" si="81">SUM(E22/B22)</f>
-        <v>0.71139278947120788</v>
+        <v>0.72408896676869505</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" ref="G22" si="82">C22/B22*100</f>
-        <v>4.5297843855994735</v>
+        <v>4.5261343187478635</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" ref="H22" si="83">100-G22</f>
-        <v>95.47021561440053</v>
+        <v>95.473865681252136</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B23" s="50">
-        <v>417966</v>
+        <v>467594</v>
       </c>
       <c r="C23" s="50">
-        <v>18615</v>
+        <v>21181</v>
       </c>
       <c r="D23" s="50">
-        <v>107705</v>
+        <v>113770</v>
       </c>
       <c r="E23" s="51">
         <f t="shared" ref="E23" si="84">B23-C23-D23</f>
-        <v>291646</v>
+        <v>332643</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ref="F23" si="85">SUM(E23/B23)</f>
-        <v>0.69777446012355071</v>
+        <v>0.71139278947120788</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" ref="G23" si="86">C23/B23*100</f>
-        <v>4.4537115459152172</v>
+        <v>4.5297843855994735</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" ref="H23" si="87">100-G23</f>
-        <v>95.546288454084788</v>
+        <v>95.47021561440053</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B24" s="50">
-        <v>336004</v>
+        <v>417966</v>
       </c>
       <c r="C24" s="50">
-        <v>14643</v>
+        <v>18615</v>
       </c>
       <c r="D24" s="50">
-        <v>98334</v>
+        <v>107705</v>
       </c>
       <c r="E24" s="51">
         <f t="shared" ref="E24" si="88">B24-C24-D24</f>
-        <v>223027</v>
+        <v>291646</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" ref="F24" si="89">SUM(E24/B24)</f>
-        <v>0.66376293139367393</v>
+        <v>0.69777446012355071</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" ref="G24" si="90">C24/B24*100</f>
-        <v>4.3579838335257914</v>
+        <v>4.4537115459152172</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" ref="H24" si="91">100-G24</f>
-        <v>95.642016166474207</v>
+        <v>95.546288454084788</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B25" s="50">
-        <v>335957</v>
+        <v>336004</v>
       </c>
       <c r="C25" s="50">
-        <v>14634</v>
+        <v>14643</v>
       </c>
       <c r="D25" s="50">
-        <v>97882</v>
+        <v>98334</v>
       </c>
       <c r="E25" s="51">
         <f t="shared" ref="E25" si="92">B25-C25-D25</f>
-        <v>223441</v>
+        <v>223027</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25" si="93">SUM(E25/B25)</f>
-        <v>0.6650880916307742</v>
+        <v>0.66376293139367393</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25" si="94">C25/B25*100</f>
-        <v>4.3559145962132062</v>
+        <v>4.3579838335257914</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" ref="H25" si="95">100-G25</f>
-        <v>95.644085403786789</v>
+        <v>95.642016166474207</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B26" s="50">
-        <v>304528</v>
+        <v>335957</v>
       </c>
       <c r="C26" s="50">
-        <v>12973</v>
+        <v>14634</v>
       </c>
       <c r="D26" s="50">
-        <v>91676</v>
+        <v>97882</v>
       </c>
       <c r="E26" s="51">
         <f t="shared" ref="E26" si="96">B26-C26-D26</f>
-        <v>199879</v>
+        <v>223441</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" ref="F26" si="97">SUM(E26/B26)</f>
-        <v>0.65635672253454524</v>
+        <v>0.6650880916307742</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" ref="G26" si="98">C26/B26*100</f>
-        <v>4.2600352020175487</v>
+        <v>4.3559145962132062</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" ref="H26" si="99">100-G26</f>
-        <v>95.739964797982452</v>
+        <v>95.644085403786789</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B27" s="50">
-        <v>272167</v>
+        <v>304528</v>
       </c>
       <c r="C27" s="50">
-        <v>11299</v>
+        <v>12973</v>
       </c>
       <c r="D27" s="50">
-        <v>87403</v>
+        <v>91676</v>
       </c>
       <c r="E27" s="51">
         <f t="shared" ref="E27" si="100">B27-C27-D27</f>
-        <v>173465</v>
+        <v>199879</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" ref="F27" si="101">SUM(E27/B27)</f>
-        <v>0.63734765787182135</v>
+        <v>0.65635672253454524</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" ref="G27" si="102">C27/B27*100</f>
-        <v>4.1514952216837457</v>
+        <v>4.2600352020175487</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" ref="H27" si="103">100-G27</f>
-        <v>95.848504778316254</v>
+        <v>95.739964797982452</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B28" s="50">
-        <v>242713</v>
+        <v>272167</v>
       </c>
       <c r="C28" s="50">
-        <v>9867</v>
+        <v>11299</v>
       </c>
       <c r="D28" s="50">
-        <v>84962</v>
+        <v>87403</v>
       </c>
       <c r="E28" s="51">
         <f t="shared" ref="E28" si="104">B28-C28-D28</f>
-        <v>147884</v>
+        <v>173465</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" ref="F28" si="105">SUM(E28/B28)</f>
-        <v>0.60929575259668822</v>
+        <v>0.63734765787182135</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" ref="G28" si="106">C28/B28*100</f>
-        <v>4.0652952252248538</v>
+        <v>4.1514952216837457</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" ref="H28" si="107">100-G28</f>
-        <v>95.934704774775142</v>
+        <v>95.848504778316254</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B29" s="50">
-        <v>214915</v>
+        <v>242713</v>
       </c>
       <c r="C29" s="50">
-        <v>8733</v>
+        <v>9867</v>
       </c>
       <c r="D29" s="50">
-        <v>83313</v>
+        <v>84962</v>
       </c>
       <c r="E29" s="51">
         <f t="shared" ref="E29" si="108">B29-C29-D29</f>
-        <v>122869</v>
+        <v>147884</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" ref="F29" si="109">SUM(E29/B29)</f>
-        <v>0.57170974571342159</v>
+        <v>0.60929575259668822</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" ref="G29" si="110">C29/B29*100</f>
-        <v>4.0634669520508107</v>
+        <v>4.0652952252248538</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" ref="H29" si="111">100-G29</f>
-        <v>95.936533047949183</v>
+        <v>95.934704774775142</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B30" s="50">
-        <v>197168</v>
+        <v>214915</v>
       </c>
       <c r="C30" s="50">
-        <v>7905</v>
+        <v>8733</v>
       </c>
       <c r="D30" s="50">
-        <v>80840</v>
+        <v>83313</v>
       </c>
       <c r="E30" s="51">
         <f t="shared" ref="E30" si="112">B30-C30-D30</f>
-        <v>108423</v>
+        <v>122869</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" ref="F30" si="113">SUM(E30/B30)</f>
-        <v>0.54990160675160271</v>
+        <v>0.57170974571342159</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" ref="G30" si="114">C30/B30*100</f>
-        <v>4.0092712813438283</v>
+        <v>4.0634669520508107</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" ref="H30" si="115">100-G30</f>
-        <v>95.990728718656172</v>
+        <v>95.936533047949183</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B31" s="50">
-        <v>181546</v>
+        <v>197168</v>
       </c>
       <c r="C31" s="50">
-        <v>7126</v>
+        <v>7905</v>
       </c>
       <c r="D31" s="50">
-        <v>78088</v>
+        <v>80840</v>
       </c>
       <c r="E31" s="51">
-        <f t="shared" ref="E31:E44" si="116">B31-C31-D31</f>
-        <v>96332</v>
+        <f t="shared" ref="E31" si="116">B31-C31-D31</f>
+        <v>108423</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" ref="F31" si="117">SUM(E31/B31)</f>
-        <v>0.53062033864695446</v>
+        <v>0.54990160675160271</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" ref="G31" si="118">C31/B31*100</f>
-        <v>3.925175988454717</v>
+        <v>4.0092712813438283</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" ref="H31:H51" si="119">100-G31</f>
-        <v>96.074824011545289</v>
+        <f t="shared" ref="H31" si="119">100-G31</f>
+        <v>95.990728718656172</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B32" s="50">
-        <v>162719</v>
+        <v>181546</v>
       </c>
       <c r="C32" s="50">
-        <v>6066</v>
+        <v>7126</v>
       </c>
       <c r="D32" s="50">
-        <v>75620</v>
+        <v>78088</v>
       </c>
       <c r="E32" s="51">
-        <f t="shared" si="116"/>
-        <v>81033</v>
+        <f t="shared" ref="E32:E45" si="120">B32-C32-D32</f>
+        <v>96332</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" ref="F32" si="120">SUM(E32/B32)</f>
-        <v>0.49799347341121813</v>
+        <f t="shared" ref="F32" si="121">SUM(E32/B32)</f>
+        <v>0.53062033864695446</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" ref="G32" si="121">C32/B32*100</f>
-        <v>3.7278990160952317</v>
+        <f t="shared" ref="G32" si="122">C32/B32*100</f>
+        <v>3.925175988454717</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="119"/>
-        <v>96.272100983904764</v>
+        <f t="shared" ref="H32:H52" si="123">100-G32</f>
+        <v>96.074824011545289</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B33" s="50">
-        <v>156099</v>
+        <v>162719</v>
       </c>
       <c r="C33" s="50">
-        <v>5819</v>
+        <v>6066</v>
       </c>
       <c r="D33" s="50">
-        <v>72624</v>
+        <v>75620</v>
       </c>
       <c r="E33" s="51">
-        <f t="shared" si="116"/>
-        <v>77656</v>
+        <f t="shared" si="120"/>
+        <v>81033</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" ref="F33" si="122">SUM(E33/B33)</f>
-        <v>0.49747916386395813</v>
+        <f t="shared" ref="F33" si="124">SUM(E33/B33)</f>
+        <v>0.49799347341121813</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" ref="G33" si="123">C33/B33*100</f>
-        <v>3.7277625096893638</v>
+        <f t="shared" ref="G33" si="125">C33/B33*100</f>
+        <v>3.7278990160952317</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="119"/>
-        <v>96.27223749031063</v>
+        <f t="shared" si="123"/>
+        <v>96.272100983904764</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B34" s="50">
-        <v>144514</v>
+        <v>156099</v>
       </c>
       <c r="C34" s="50">
-        <v>5397</v>
+        <v>5819</v>
       </c>
       <c r="D34" s="50">
-        <v>70217</v>
+        <v>72624</v>
       </c>
       <c r="E34" s="51">
-        <f t="shared" si="116"/>
-        <v>68900</v>
+        <f t="shared" si="120"/>
+        <v>77656</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" ref="F34" si="124">SUM(E34/B34)</f>
-        <v>0.47677041670703185</v>
+        <f t="shared" ref="F34" si="126">SUM(E34/B34)</f>
+        <v>0.49747916386395813</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" ref="G34" si="125">C34/B34*100</f>
-        <v>3.7345862684584197</v>
+        <f t="shared" ref="G34" si="127">C34/B34*100</f>
+        <v>3.7277625096893638</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="119"/>
-        <v>96.265413731541585</v>
+        <f t="shared" si="123"/>
+        <v>96.27223749031063</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B35" s="50">
-        <v>128343</v>
+        <v>144514</v>
       </c>
       <c r="C35" s="50">
-        <v>4720</v>
+        <v>5397</v>
       </c>
       <c r="D35" s="50">
-        <v>68324</v>
+        <v>70217</v>
       </c>
       <c r="E35" s="51">
-        <f t="shared" si="116"/>
-        <v>55299</v>
+        <f t="shared" si="120"/>
+        <v>68900</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" ref="F35" si="126">SUM(E35/B35)</f>
-        <v>0.43086884364554356</v>
+        <f t="shared" ref="F35" si="128">SUM(E35/B35)</f>
+        <v>0.47677041670703185</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" ref="G35" si="127">C35/B35*100</f>
-        <v>3.6776450605019364</v>
+        <f t="shared" ref="G35" si="129">C35/B35*100</f>
+        <v>3.7345862684584197</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="119"/>
-        <v>96.322354939498069</v>
+        <f t="shared" si="123"/>
+        <v>96.265413731541585</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B36" s="50">
-        <v>125865</v>
+        <v>128343</v>
       </c>
       <c r="C36" s="50">
-        <v>4615</v>
+        <v>4720</v>
       </c>
       <c r="D36" s="50">
-        <v>67003</v>
+        <v>68324</v>
       </c>
       <c r="E36" s="51">
-        <f t="shared" si="116"/>
-        <v>54247</v>
+        <f t="shared" si="120"/>
+        <v>55299</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" ref="F36" si="128">SUM(E36/B36)</f>
-        <v>0.43099352480832637</v>
+        <f t="shared" ref="F36" si="130">SUM(E36/B36)</f>
+        <v>0.43086884364554356</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" ref="G36" si="129">C36/B36*100</f>
-        <v>3.6666269415643744</v>
+        <f t="shared" ref="G36" si="131">C36/B36*100</f>
+        <v>3.6776450605019364</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="119"/>
-        <v>96.333373058435626</v>
+        <f t="shared" si="123"/>
+        <v>96.322354939498069</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B37" s="50">
-        <v>118582</v>
+        <v>125865</v>
       </c>
       <c r="C37" s="50">
-        <v>4262</v>
+        <v>4615</v>
       </c>
       <c r="D37" s="50">
-        <v>64404</v>
+        <v>67003</v>
       </c>
       <c r="E37" s="51">
-        <f t="shared" si="116"/>
-        <v>49916</v>
+        <f t="shared" si="120"/>
+        <v>54247</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" ref="F37" si="130">SUM(E37/B37)</f>
-        <v>0.42094078359278814</v>
+        <f t="shared" ref="F37" si="132">SUM(E37/B37)</f>
+        <v>0.43099352480832637</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" ref="G37" si="131">C37/B37*100</f>
-        <v>3.5941373901603955</v>
+        <f t="shared" ref="G37" si="133">C37/B37*100</f>
+        <v>3.6666269415643744</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="119"/>
-        <v>96.405862609839602</v>
+        <f t="shared" si="123"/>
+        <v>96.333373058435626</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B38" s="50">
-        <v>113582</v>
+        <v>118582</v>
       </c>
       <c r="C38" s="50">
-        <v>3996</v>
+        <v>4262</v>
       </c>
       <c r="D38" s="50">
-        <v>62512</v>
+        <v>64404</v>
       </c>
       <c r="E38" s="51">
-        <f t="shared" si="116"/>
-        <v>47074</v>
+        <f t="shared" si="120"/>
+        <v>49916</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" ref="F38" si="132">SUM(E38/B38)</f>
-        <v>0.4144494726277051</v>
+        <f t="shared" ref="F38" si="134">SUM(E38/B38)</f>
+        <v>0.42094078359278814</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" ref="G38" si="133">C38/B38*100</f>
-        <v>3.518163089221884</v>
+        <f t="shared" ref="G38" si="135">C38/B38*100</f>
+        <v>3.5941373901603955</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="119"/>
-        <v>96.481836910778114</v>
+        <f t="shared" si="123"/>
+        <v>96.405862609839602</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B39" s="50">
-        <v>109835</v>
+        <v>113582</v>
       </c>
       <c r="C39" s="50">
-        <v>3803</v>
+        <v>3996</v>
       </c>
       <c r="D39" s="50">
-        <v>60695</v>
+        <v>62512</v>
       </c>
       <c r="E39" s="51">
-        <f t="shared" si="116"/>
-        <v>45337</v>
+        <f t="shared" si="120"/>
+        <v>47074</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" ref="F39:F40" si="134">SUM(E39/B39)</f>
-        <v>0.41277370601356578</v>
+        <f t="shared" ref="F39" si="136">SUM(E39/B39)</f>
+        <v>0.4144494726277051</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" ref="G39" si="135">C39/B39*100</f>
-        <v>3.4624664269130969</v>
+        <f t="shared" ref="G39" si="137">C39/B39*100</f>
+        <v>3.518163089221884</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="119"/>
-        <v>96.537533573086904</v>
+        <f t="shared" si="123"/>
+        <v>96.481836910778114</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B40" s="50">
-        <v>105836</v>
+        <v>109835</v>
       </c>
       <c r="C40" s="50">
-        <v>3558</v>
+        <v>3803</v>
       </c>
       <c r="D40" s="50">
-        <v>58359</v>
+        <v>60695</v>
       </c>
       <c r="E40" s="51">
-        <f t="shared" si="116"/>
-        <v>43919</v>
+        <f t="shared" si="120"/>
+        <v>45337</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="134"/>
-        <v>0.41497222117237992</v>
+        <f t="shared" ref="F40:F41" si="138">SUM(E40/B40)</f>
+        <v>0.41277370601356578</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" ref="G40" si="136">C40/B40*100</f>
-        <v>3.3618050568804563</v>
+        <f t="shared" ref="G40" si="139">C40/B40*100</f>
+        <v>3.4624664269130969</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="119"/>
-        <v>96.638194943119544</v>
+        <f t="shared" si="123"/>
+        <v>96.537533573086904</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B41" s="50">
-        <v>101800</v>
+        <v>105836</v>
       </c>
       <c r="C41" s="50">
-        <v>3460</v>
+        <v>3558</v>
       </c>
       <c r="D41" s="50">
-        <v>55866</v>
+        <v>58359</v>
       </c>
       <c r="E41" s="51">
-        <f t="shared" si="116"/>
-        <v>42474</v>
+        <f t="shared" si="120"/>
+        <v>43919</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" ref="F41" si="137">SUM(E41/B41)</f>
-        <v>0.41722986247544203</v>
+        <f t="shared" si="138"/>
+        <v>0.41497222117237992</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" ref="G41" si="138">C41/B41*100</f>
-        <v>3.398821218074656</v>
+        <f t="shared" ref="G41" si="140">C41/B41*100</f>
+        <v>3.3618050568804563</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="119"/>
-        <v>96.601178781925341</v>
+        <f t="shared" si="123"/>
+        <v>96.638194943119544</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
+        <v>43896</v>
+      </c>
+      <c r="B42" s="50">
+        <v>101800</v>
+      </c>
+      <c r="C42" s="50">
+        <v>3460</v>
+      </c>
+      <c r="D42" s="50">
+        <v>55866</v>
+      </c>
+      <c r="E42" s="51">
+        <f t="shared" si="120"/>
+        <v>42474</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" ref="F42" si="141">SUM(E42/B42)</f>
+        <v>0.41722986247544203</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" ref="G42" si="142">C42/B42*100</f>
+        <v>3.398821218074656</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="123"/>
+        <v>96.601178781925341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
         <v>43895</v>
       </c>
-      <c r="B42" s="50">
+      <c r="B43" s="50">
         <v>97886</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C43" s="50">
         <v>3348</v>
       </c>
-      <c r="D42" s="50">
+      <c r="D43" s="50">
         <v>53797</v>
       </c>
-      <c r="E42" s="51">
-        <f t="shared" si="116"/>
+      <c r="E43" s="51">
+        <f t="shared" si="120"/>
         <v>40741</v>
       </c>
-      <c r="F42" s="8">
-        <f t="shared" ref="F42" si="139">SUM(E42/B42)</f>
+      <c r="F43" s="8">
+        <f t="shared" ref="F43" si="143">SUM(E43/B43)</f>
         <v>0.41620865087959463</v>
       </c>
-      <c r="G42" s="6">
-        <f t="shared" ref="G42" si="140">C42/B42*100</f>
+      <c r="G43" s="6">
+        <f t="shared" ref="G43" si="144">C43/B43*100</f>
         <v>3.4203052530494658</v>
       </c>
-      <c r="H42" s="4">
-        <f t="shared" si="119"/>
+      <c r="H43" s="4">
+        <f t="shared" si="123"/>
         <v>96.579694746950537</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
-        <v>43894</v>
-      </c>
-      <c r="B43" s="51">
-        <v>95124</v>
-      </c>
-      <c r="C43" s="51">
-        <v>3254</v>
-      </c>
-      <c r="D43" s="51">
-        <v>51171</v>
-      </c>
-      <c r="E43" s="51">
-        <f t="shared" si="116"/>
-        <v>40699</v>
-      </c>
-      <c r="F43" s="8">
-        <f t="shared" ref="F43:F85" si="141">SUM(E43/B43)</f>
-        <v>0.42785206677599763</v>
-      </c>
-      <c r="G43" s="6">
-        <f t="shared" ref="G43:G85" si="142">C43/B43*100</f>
-        <v>3.4207981161431396</v>
-      </c>
-      <c r="H43" s="4">
-        <f t="shared" si="119"/>
-        <v>96.579201883856854</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B44" s="51">
-        <v>92844</v>
+        <v>95124</v>
       </c>
       <c r="C44" s="51">
-        <v>3160</v>
+        <v>3254</v>
       </c>
       <c r="D44" s="51">
-        <v>48229</v>
+        <v>51171</v>
       </c>
       <c r="E44" s="51">
-        <f t="shared" si="116"/>
-        <v>41455</v>
+        <f t="shared" si="120"/>
+        <v>40699</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="141"/>
-        <v>0.44650165869630781</v>
+        <f t="shared" ref="F44:F86" si="145">SUM(E44/B44)</f>
+        <v>0.42785206677599763</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="142"/>
-        <v>3.4035586575330665</v>
+        <f t="shared" ref="G44:G86" si="146">C44/B44*100</f>
+        <v>3.4207981161431396</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="119"/>
-        <v>96.596441342466932</v>
+        <f t="shared" si="123"/>
+        <v>96.579201883856854</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B45" s="51">
-        <v>90309</v>
+        <v>92844</v>
       </c>
       <c r="C45" s="51">
-        <v>3085</v>
+        <v>3160</v>
       </c>
       <c r="D45" s="51">
-        <v>45602</v>
+        <v>48229</v>
       </c>
       <c r="E45" s="51">
-        <f t="shared" ref="E45:E84" si="143">B45-C45-D45</f>
-        <v>41622</v>
-      </c>
-      <c r="F45" s="7">
-        <f t="shared" si="141"/>
-        <v>0.46088429724612162</v>
+        <f t="shared" si="120"/>
+        <v>41455</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="145"/>
+        <v>0.44650165869630781</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="142"/>
-        <v>3.4160493417045918</v>
+        <f t="shared" si="146"/>
+        <v>3.4035586575330665</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="119"/>
-        <v>96.583950658295407</v>
+        <f t="shared" si="123"/>
+        <v>96.596441342466932</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B46" s="51">
-        <v>88371</v>
+        <v>90309</v>
       </c>
       <c r="C46" s="51">
-        <v>2996</v>
+        <v>3085</v>
       </c>
       <c r="D46" s="51">
-        <v>42716</v>
+        <v>45602</v>
       </c>
       <c r="E46" s="51">
-        <f t="shared" si="143"/>
-        <v>42659</v>
+        <f t="shared" ref="E46:E85" si="147">B46-C46-D46</f>
+        <v>41622</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" si="141"/>
-        <v>0.48272623371920653</v>
-      </c>
-      <c r="G46" s="4">
-        <f t="shared" si="142"/>
-        <v>3.3902524583856697</v>
+        <f t="shared" si="145"/>
+        <v>0.46088429724612162</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="146"/>
+        <v>3.4160493417045918</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="119"/>
-        <v>96.609747541614325</v>
+        <f t="shared" si="123"/>
+        <v>96.583950658295407</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B47" s="51">
-        <v>86013</v>
+        <v>88371</v>
       </c>
       <c r="C47" s="51">
-        <v>2941</v>
+        <v>2996</v>
       </c>
       <c r="D47" s="51">
         <v>42716</v>
       </c>
       <c r="E47" s="51">
-        <f t="shared" si="143"/>
-        <v>40356</v>
+        <f t="shared" si="147"/>
+        <v>42659</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="141"/>
-        <v>0.46918489065606361</v>
+        <f t="shared" si="145"/>
+        <v>0.48272623371920653</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="142"/>
-        <v>3.4192505784009395</v>
+        <f t="shared" si="146"/>
+        <v>3.3902524583856697</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="119"/>
-        <v>96.580749421599066</v>
+        <f t="shared" si="123"/>
+        <v>96.609747541614325</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B48" s="51">
-        <v>84124</v>
+        <v>86013</v>
       </c>
       <c r="C48" s="51">
-        <v>3872</v>
+        <v>2941</v>
       </c>
       <c r="D48" s="51">
-        <v>36711</v>
+        <v>42716</v>
       </c>
       <c r="E48" s="51">
-        <f t="shared" si="143"/>
-        <v>43541</v>
+        <f t="shared" si="147"/>
+        <v>40356</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="141"/>
-        <v>0.51758118967238842</v>
+        <f t="shared" si="145"/>
+        <v>0.46918489065606361</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="142"/>
-        <v>4.6027293043602295</v>
+        <f t="shared" si="146"/>
+        <v>3.4192505784009395</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="119"/>
-        <v>95.397270695639776</v>
+        <f t="shared" si="123"/>
+        <v>96.580749421599066</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="B49" s="51">
-        <v>82756</v>
+        <v>84124</v>
       </c>
       <c r="C49" s="51">
-        <v>2814</v>
+        <v>3872</v>
       </c>
       <c r="D49" s="51">
-        <v>33277</v>
+        <v>36711</v>
       </c>
       <c r="E49" s="51">
-        <f t="shared" si="143"/>
-        <v>46665</v>
+        <f t="shared" si="147"/>
+        <v>43541</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="141"/>
-        <v>0.56388660640920296</v>
+        <f t="shared" si="145"/>
+        <v>0.51758118967238842</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="142"/>
-        <v>3.4003576779931364</v>
+        <f t="shared" si="146"/>
+        <v>4.6027293043602295</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="119"/>
-        <v>96.599642322006858</v>
+        <f t="shared" si="123"/>
+        <v>95.397270695639776</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="B50" s="51">
-        <v>81397</v>
+        <v>82756</v>
       </c>
       <c r="C50" s="51">
-        <v>2770</v>
+        <v>2814</v>
       </c>
       <c r="D50" s="51">
-        <v>30384</v>
+        <v>33277</v>
       </c>
       <c r="E50" s="51">
-        <f t="shared" si="143"/>
-        <v>48243</v>
+        <f t="shared" si="147"/>
+        <v>46665</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="141"/>
-        <v>0.59268769119255005</v>
+        <f t="shared" si="145"/>
+        <v>0.56388660640920296</v>
       </c>
       <c r="G50" s="4">
-        <f t="shared" si="142"/>
-        <v>3.4030738233595836</v>
+        <f t="shared" si="146"/>
+        <v>3.4003576779931364</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="119"/>
-        <v>96.596926176640423</v>
+        <f t="shared" si="123"/>
+        <v>96.599642322006858</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B51" s="51">
-        <v>80415</v>
+        <v>81397</v>
       </c>
       <c r="C51" s="51">
-        <v>2708</v>
+        <v>2770</v>
       </c>
       <c r="D51" s="51">
-        <v>27905</v>
+        <v>30384</v>
       </c>
       <c r="E51" s="51">
-        <f t="shared" si="143"/>
-        <v>49802</v>
+        <f t="shared" si="147"/>
+        <v>48243</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="141"/>
-        <v>0.61931231735372749</v>
+        <f t="shared" si="145"/>
+        <v>0.59268769119255005</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="142"/>
-        <v>3.3675309332835912</v>
+        <f t="shared" si="146"/>
+        <v>3.4030738233595836</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="119"/>
-        <v>96.632469066716411</v>
+        <f t="shared" si="123"/>
+        <v>96.596926176640423</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="B52" s="51">
-        <v>79570</v>
+        <v>80415</v>
       </c>
       <c r="C52" s="51">
-        <v>2629</v>
+        <v>2708</v>
       </c>
       <c r="D52" s="51">
-        <v>25227</v>
+        <v>27905</v>
       </c>
       <c r="E52" s="51">
-        <f t="shared" si="143"/>
-        <v>51714</v>
+        <f t="shared" si="147"/>
+        <v>49802</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="141"/>
-        <v>0.64991831092120145</v>
+        <f t="shared" si="145"/>
+        <v>0.61931231735372749</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" si="142"/>
-        <v>3.3040090486364209</v>
+        <f t="shared" si="146"/>
+        <v>3.3675309332835912</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" ref="H52:H85" si="144">100-G52</f>
-        <v>96.695990951363584</v>
+        <f t="shared" si="123"/>
+        <v>96.632469066716411</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
-        <v>43884</v>
+        <v>43885</v>
       </c>
       <c r="B53" s="51">
-        <v>78985</v>
+        <v>79570</v>
       </c>
       <c r="C53" s="51">
-        <v>2469</v>
+        <v>2629</v>
       </c>
       <c r="D53" s="51">
-        <v>23394</v>
+        <v>25227</v>
       </c>
       <c r="E53" s="51">
-        <f t="shared" si="143"/>
-        <v>53122</v>
+        <f t="shared" si="147"/>
+        <v>51714</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" si="141"/>
-        <v>0.67255808064822431</v>
+        <f t="shared" si="145"/>
+        <v>0.64991831092120145</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="142"/>
-        <v>3.1259099829081469</v>
+        <f t="shared" si="146"/>
+        <v>3.3040090486364209</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="144"/>
-        <v>96.874090017091859</v>
+        <f t="shared" ref="H53:H86" si="148">100-G53</f>
+        <v>96.695990951363584</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
-        <v>43883</v>
+        <v>43884</v>
       </c>
       <c r="B54" s="51">
-        <v>78599</v>
+        <v>78985</v>
       </c>
       <c r="C54" s="51">
-        <v>2458</v>
+        <v>2469</v>
       </c>
       <c r="D54" s="51">
-        <v>22886</v>
+        <v>23394</v>
       </c>
       <c r="E54" s="51">
-        <f t="shared" si="143"/>
-        <v>53255</v>
+        <f t="shared" si="147"/>
+        <v>53122</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="141"/>
-        <v>0.67755314953116452</v>
+        <f t="shared" si="145"/>
+        <v>0.67255808064822431</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="142"/>
-        <v>3.1272662502067456</v>
+        <f t="shared" si="146"/>
+        <v>3.1259099829081469</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="144"/>
-        <v>96.872733749793255</v>
+        <f t="shared" si="148"/>
+        <v>96.874090017091859</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B55" s="51">
-        <v>76843</v>
+        <v>78599</v>
       </c>
       <c r="C55" s="51">
-        <v>2251</v>
+        <v>2458</v>
       </c>
       <c r="D55" s="51">
-        <v>18890</v>
+        <v>22886</v>
       </c>
       <c r="E55" s="51">
-        <f t="shared" si="143"/>
-        <v>55702</v>
+        <f t="shared" si="147"/>
+        <v>53255</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="141"/>
-        <v>0.72488060070533422</v>
+        <f t="shared" si="145"/>
+        <v>0.67755314953116452</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="142"/>
-        <v>2.9293494527803441</v>
+        <f t="shared" si="146"/>
+        <v>3.1272662502067456</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="144"/>
-        <v>97.070650547219657</v>
+        <f t="shared" si="148"/>
+        <v>96.872733749793255</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B56" s="51">
-        <v>76199</v>
+        <v>76843</v>
       </c>
       <c r="C56" s="51">
-        <v>2247</v>
+        <v>2251</v>
       </c>
       <c r="D56" s="51">
-        <v>18177</v>
+        <v>18890</v>
       </c>
       <c r="E56" s="51">
-        <f t="shared" si="143"/>
-        <v>55775</v>
+        <f t="shared" si="147"/>
+        <v>55702</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" si="141"/>
-        <v>0.73196498641714458</v>
+        <f t="shared" si="145"/>
+        <v>0.72488060070533422</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="142"/>
-        <v>2.9488575965563855</v>
+        <f t="shared" si="146"/>
+        <v>2.9293494527803441</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="144"/>
-        <v>97.05114240344362</v>
+        <f t="shared" si="148"/>
+        <v>97.070650547219657</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B57" s="51">
-        <v>75641</v>
+        <v>76199</v>
       </c>
       <c r="C57" s="51">
-        <v>2122</v>
+        <v>2247</v>
       </c>
       <c r="D57" s="51">
-        <v>16121</v>
+        <v>18177</v>
       </c>
       <c r="E57" s="51">
-        <f t="shared" si="143"/>
-        <v>57398</v>
+        <f t="shared" si="147"/>
+        <v>55775</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" si="141"/>
-        <v>0.75882127417670309</v>
+        <f t="shared" si="145"/>
+        <v>0.73196498641714458</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="142"/>
-        <v>2.8053568831718247</v>
+        <f t="shared" si="146"/>
+        <v>2.9488575965563855</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="144"/>
-        <v>97.194643116828175</v>
+        <f t="shared" si="148"/>
+        <v>97.05114240344362</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="B58" s="51">
-        <v>75138</v>
+        <v>75641</v>
       </c>
       <c r="C58" s="51">
-        <v>2007</v>
+        <v>2122</v>
       </c>
       <c r="D58" s="51">
-        <v>14352</v>
+        <v>16121</v>
       </c>
       <c r="E58" s="51">
-        <f t="shared" si="143"/>
-        <v>58779</v>
+        <f t="shared" si="147"/>
+        <v>57398</v>
       </c>
       <c r="F58" s="7">
-        <f t="shared" si="141"/>
-        <v>0.78228060368921182</v>
+        <f t="shared" si="145"/>
+        <v>0.75882127417670309</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="142"/>
-        <v>2.6710852032260637</v>
+        <f t="shared" si="146"/>
+        <v>2.8053568831718247</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="144"/>
-        <v>97.32891479677393</v>
+        <f t="shared" si="148"/>
+        <v>97.194643116828175</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="B59" s="51">
-        <v>73260</v>
+        <v>75138</v>
       </c>
       <c r="C59" s="51">
-        <v>1868</v>
+        <v>2007</v>
       </c>
       <c r="D59" s="51">
-        <v>12583</v>
+        <v>14352</v>
       </c>
       <c r="E59" s="51">
-        <f t="shared" si="143"/>
-        <v>58809</v>
+        <f t="shared" si="147"/>
+        <v>58779</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="141"/>
-        <v>0.80274365274365278</v>
+        <f t="shared" si="145"/>
+        <v>0.78228060368921182</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" si="142"/>
-        <v>2.54982254982255</v>
+        <f t="shared" si="146"/>
+        <v>2.6710852032260637</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="144"/>
-        <v>97.450177450177449</v>
+        <f t="shared" si="148"/>
+        <v>97.32891479677393</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
-        <v>43877</v>
+        <v>43878</v>
       </c>
       <c r="B60" s="51">
-        <v>71226</v>
+        <v>73260</v>
       </c>
       <c r="C60" s="51">
-        <v>1770</v>
+        <v>1868</v>
       </c>
       <c r="D60" s="51">
-        <v>10865</v>
+        <v>12583</v>
       </c>
       <c r="E60" s="51">
-        <f t="shared" si="143"/>
-        <v>58591</v>
+        <f t="shared" si="147"/>
+        <v>58809</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" si="141"/>
-        <v>0.82260691320585178</v>
+        <f t="shared" si="145"/>
+        <v>0.80274365274365278</v>
       </c>
       <c r="G60" s="4">
-        <f t="shared" si="142"/>
-        <v>2.4850475949793616</v>
+        <f t="shared" si="146"/>
+        <v>2.54982254982255</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="144"/>
-        <v>97.514952405020637</v>
+        <f t="shared" si="148"/>
+        <v>97.450177450177449</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="B61" s="51">
-        <v>69032</v>
+        <v>71226</v>
       </c>
       <c r="C61" s="51">
-        <v>1666</v>
+        <v>1770</v>
       </c>
       <c r="D61" s="51">
-        <v>9395</v>
+        <v>10865</v>
       </c>
       <c r="E61" s="51">
-        <f t="shared" si="143"/>
-        <v>57971</v>
+        <f t="shared" si="147"/>
+        <v>58591</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" si="141"/>
-        <v>0.83976996175686636</v>
+        <f t="shared" si="145"/>
+        <v>0.82260691320585178</v>
       </c>
       <c r="G61" s="4">
-        <f t="shared" si="142"/>
-        <v>2.4133735079383474</v>
+        <f t="shared" si="146"/>
+        <v>2.4850475949793616</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="144"/>
-        <v>97.586626492061654</v>
+        <f t="shared" si="148"/>
+        <v>97.514952405020637</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B62" s="51">
-        <v>66887</v>
+        <v>69032</v>
       </c>
       <c r="C62" s="51">
-        <v>1523</v>
+        <v>1666</v>
       </c>
       <c r="D62" s="51">
-        <v>8058</v>
+        <v>9395</v>
       </c>
       <c r="E62" s="51">
-        <f t="shared" si="143"/>
-        <v>57306</v>
+        <f t="shared" si="147"/>
+        <v>57971</v>
       </c>
       <c r="F62" s="7">
-        <f t="shared" si="141"/>
-        <v>0.85675841344356896</v>
+        <f t="shared" si="145"/>
+        <v>0.83976996175686636</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" si="142"/>
-        <v>2.2769745989504688</v>
+        <f t="shared" si="146"/>
+        <v>2.4133735079383474</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="144"/>
-        <v>97.723025401049526</v>
+        <f t="shared" si="148"/>
+        <v>97.586626492061654</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="B63" s="51">
-        <v>60370</v>
+        <v>66887</v>
       </c>
       <c r="C63" s="51">
-        <v>1371</v>
+        <v>1523</v>
       </c>
       <c r="D63" s="51">
-        <v>6295</v>
+        <v>8058</v>
       </c>
       <c r="E63" s="51">
-        <f t="shared" si="143"/>
-        <v>52704</v>
+        <f t="shared" si="147"/>
+        <v>57306</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" si="141"/>
-        <v>0.87301639887361271</v>
+        <f t="shared" si="145"/>
+        <v>0.85675841344356896</v>
       </c>
       <c r="G63" s="4">
-        <f t="shared" si="142"/>
-        <v>2.2709955275799238</v>
+        <f t="shared" si="146"/>
+        <v>2.2769745989504688</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="144"/>
-        <v>97.729004472420073</v>
+        <f t="shared" si="148"/>
+        <v>97.723025401049526</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B64" s="51">
-        <v>45222</v>
+        <v>60370</v>
       </c>
       <c r="C64" s="51">
-        <v>1118</v>
+        <v>1371</v>
       </c>
       <c r="D64" s="51">
-        <v>5150</v>
+        <v>6295</v>
       </c>
       <c r="E64" s="51">
-        <f t="shared" si="143"/>
-        <v>38954</v>
+        <f t="shared" si="147"/>
+        <v>52704</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" si="141"/>
-        <v>0.86139489628941668</v>
+        <f t="shared" si="145"/>
+        <v>0.87301639887361271</v>
       </c>
       <c r="G64" s="4">
-        <f t="shared" si="142"/>
-        <v>2.4722480208747957</v>
+        <f t="shared" si="146"/>
+        <v>2.2709955275799238</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="144"/>
-        <v>97.527751979125199</v>
+        <f t="shared" si="148"/>
+        <v>97.729004472420073</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B65" s="51">
-        <v>44803</v>
+        <v>45222</v>
       </c>
       <c r="C65" s="51">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="D65" s="51">
-        <v>4683</v>
+        <v>5150</v>
       </c>
       <c r="E65" s="51">
-        <f t="shared" si="143"/>
-        <v>39007</v>
+        <f t="shared" si="147"/>
+        <v>38954</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" si="141"/>
-        <v>0.87063366292435773</v>
+        <f t="shared" si="145"/>
+        <v>0.86139489628941668</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" si="142"/>
-        <v>2.4842086467424056</v>
+        <f t="shared" si="146"/>
+        <v>2.4722480208747957</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="144"/>
-        <v>97.515791353257598</v>
+        <f t="shared" si="148"/>
+        <v>97.527751979125199</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="B66" s="51">
-        <v>42763</v>
+        <v>44803</v>
       </c>
       <c r="C66" s="51">
-        <v>1013</v>
+        <v>1113</v>
       </c>
       <c r="D66" s="51">
-        <v>3946</v>
+        <v>4683</v>
       </c>
       <c r="E66" s="51">
-        <f t="shared" si="143"/>
-        <v>37804</v>
+        <f t="shared" si="147"/>
+        <v>39007</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" si="141"/>
-        <v>0.88403526413020606</v>
+        <f t="shared" si="145"/>
+        <v>0.87063366292435773</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" si="142"/>
-        <v>2.368870285059514</v>
+        <f t="shared" si="146"/>
+        <v>2.4842086467424056</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="144"/>
-        <v>97.631129714940485</v>
+        <f t="shared" si="148"/>
+        <v>97.515791353257598</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
-        <v>43870</v>
+        <v>43871</v>
       </c>
       <c r="B67" s="51">
-        <v>40151</v>
+        <v>42763</v>
       </c>
       <c r="C67" s="51">
-        <v>906</v>
+        <v>1013</v>
       </c>
       <c r="D67" s="51">
-        <v>3244</v>
+        <v>3946</v>
       </c>
       <c r="E67" s="51">
-        <f t="shared" ref="E67" si="145">B67-C67-D67</f>
-        <v>36001</v>
+        <f t="shared" si="147"/>
+        <v>37804</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" si="141"/>
-        <v>0.89664018330801221</v>
+        <f t="shared" si="145"/>
+        <v>0.88403526413020606</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" si="142"/>
-        <v>2.2564817812756841</v>
+        <f t="shared" si="146"/>
+        <v>2.368870285059514</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="144"/>
-        <v>97.743518218724319</v>
+        <f t="shared" si="148"/>
+        <v>97.631129714940485</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
-        <v>43869</v>
+        <v>43870</v>
       </c>
       <c r="B68" s="51">
-        <v>37121</v>
+        <v>40151</v>
       </c>
       <c r="C68" s="51">
-        <v>806</v>
+        <v>906</v>
       </c>
       <c r="D68" s="51">
-        <v>2616</v>
+        <v>3244</v>
       </c>
       <c r="E68" s="51">
-        <f t="shared" si="143"/>
-        <v>33699</v>
+        <f t="shared" ref="E68" si="149">B68-C68-D68</f>
+        <v>36001</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" si="141"/>
-        <v>0.9078149834325584</v>
+        <f t="shared" si="145"/>
+        <v>0.89664018330801221</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" si="142"/>
-        <v>2.1712777134236685</v>
+        <f t="shared" si="146"/>
+        <v>2.2564817812756841</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="144"/>
-        <v>97.828722286576337</v>
+        <f t="shared" si="148"/>
+        <v>97.743518218724319</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
-        <v>43868</v>
+        <v>43869</v>
       </c>
       <c r="B69" s="51">
-        <v>34392</v>
+        <v>37121</v>
       </c>
       <c r="C69" s="51">
-        <v>719</v>
+        <v>806</v>
       </c>
       <c r="D69" s="51">
-        <v>2011</v>
+        <v>2616</v>
       </c>
       <c r="E69" s="51">
-        <f t="shared" si="143"/>
-        <v>31662</v>
+        <f t="shared" si="147"/>
+        <v>33699</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" si="141"/>
-        <v>0.92062107466852761</v>
+        <f t="shared" si="145"/>
+        <v>0.9078149834325584</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="142"/>
-        <v>2.0906024656896953</v>
+        <f t="shared" si="146"/>
+        <v>2.1712777134236685</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="144"/>
-        <v>97.909397534310301</v>
+        <f t="shared" si="148"/>
+        <v>97.828722286576337</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="B70" s="51">
-        <v>30818</v>
+        <v>34392</v>
       </c>
       <c r="C70" s="51">
-        <v>634</v>
+        <v>719</v>
       </c>
       <c r="D70" s="51">
-        <v>1487</v>
+        <v>2011</v>
       </c>
       <c r="E70" s="51">
-        <f t="shared" ref="E70" si="146">B70-C70-D70</f>
-        <v>28697</v>
+        <f t="shared" si="147"/>
+        <v>31662</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" si="141"/>
-        <v>0.93117658511259649</v>
+        <f t="shared" si="145"/>
+        <v>0.92062107466852761</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="142"/>
-        <v>2.0572392757479392</v>
+        <f t="shared" si="146"/>
+        <v>2.0906024656896953</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="144"/>
-        <v>97.942760724252054</v>
+        <f t="shared" si="148"/>
+        <v>97.909397534310301</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B71" s="51">
-        <v>27636</v>
+        <v>30818</v>
       </c>
       <c r="C71" s="51">
-        <v>564</v>
+        <v>634</v>
       </c>
       <c r="D71" s="51">
-        <v>1124</v>
+        <v>1487</v>
       </c>
       <c r="E71" s="51">
-        <f t="shared" si="143"/>
-        <v>25948</v>
+        <f t="shared" ref="E71" si="150">B71-C71-D71</f>
+        <v>28697</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" si="141"/>
-        <v>0.93892024895064408</v>
+        <f t="shared" si="145"/>
+        <v>0.93117658511259649</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="142"/>
-        <v>2.0408163265306123</v>
+        <f t="shared" si="146"/>
+        <v>2.0572392757479392</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="144"/>
-        <v>97.959183673469383</v>
+        <f t="shared" si="148"/>
+        <v>97.942760724252054</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B72" s="51">
-        <v>23892</v>
+        <v>27636</v>
       </c>
       <c r="C72" s="51">
-        <v>492</v>
+        <v>564</v>
       </c>
       <c r="D72" s="51">
-        <v>852</v>
+        <v>1124</v>
       </c>
       <c r="E72" s="51">
-        <f t="shared" si="143"/>
-        <v>22548</v>
+        <f t="shared" si="147"/>
+        <v>25948</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" si="141"/>
-        <v>0.94374686087393267</v>
+        <f t="shared" si="145"/>
+        <v>0.93892024895064408</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" si="142"/>
-        <v>2.0592667001506779</v>
+        <f t="shared" si="146"/>
+        <v>2.0408163265306123</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="144"/>
-        <v>97.940733299849327</v>
+        <f t="shared" si="148"/>
+        <v>97.959183673469383</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
-        <v>43864</v>
+        <v>43865</v>
       </c>
       <c r="B73" s="51">
-        <v>19881</v>
+        <v>23892</v>
       </c>
       <c r="C73" s="51">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="D73" s="51">
-        <v>623</v>
+        <v>852</v>
       </c>
       <c r="E73" s="51">
-        <f t="shared" si="143"/>
-        <v>18832</v>
+        <f t="shared" si="147"/>
+        <v>22548</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" si="141"/>
-        <v>0.94723605452442028</v>
+        <f t="shared" si="145"/>
+        <v>0.94374686087393267</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="142"/>
-        <v>2.142749358684171</v>
+        <f t="shared" si="146"/>
+        <v>2.0592667001506779</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="144"/>
-        <v>97.857250641315829</v>
+        <f t="shared" si="148"/>
+        <v>97.940733299849327</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
-        <v>43863</v>
+        <v>43864</v>
       </c>
       <c r="B74" s="51">
-        <v>16787</v>
+        <v>19881</v>
       </c>
       <c r="C74" s="51">
-        <v>362</v>
+        <v>426</v>
       </c>
       <c r="D74" s="51">
-        <v>472</v>
+        <v>623</v>
       </c>
       <c r="E74" s="51">
-        <f t="shared" ref="E74" si="147">B74-C74-D74</f>
-        <v>15953</v>
+        <f t="shared" si="147"/>
+        <v>18832</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" si="141"/>
-        <v>0.9503186989932686</v>
+        <f t="shared" si="145"/>
+        <v>0.94723605452442028</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" si="142"/>
-        <v>2.1564305712753917</v>
+        <f t="shared" si="146"/>
+        <v>2.142749358684171</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="144"/>
-        <v>97.843569428724606</v>
+        <f t="shared" si="148"/>
+        <v>97.857250641315829</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
-        <v>43862</v>
+        <v>43863</v>
       </c>
       <c r="B75" s="51">
-        <v>12038</v>
+        <v>16787</v>
       </c>
       <c r="C75" s="51">
-        <v>259</v>
+        <v>362</v>
       </c>
       <c r="D75" s="51">
-        <v>284</v>
+        <v>472</v>
       </c>
       <c r="E75" s="51">
-        <f t="shared" si="143"/>
-        <v>11495</v>
+        <f t="shared" ref="E75" si="151">B75-C75-D75</f>
+        <v>15953</v>
       </c>
       <c r="F75" s="7">
-        <f t="shared" si="141"/>
-        <v>0.95489283934208335</v>
+        <f t="shared" si="145"/>
+        <v>0.9503186989932686</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" si="142"/>
-        <v>2.1515201860774216</v>
+        <f t="shared" si="146"/>
+        <v>2.1564305712753917</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="144"/>
-        <v>97.84847981392258</v>
+        <f t="shared" si="148"/>
+        <v>97.843569428724606</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="B76" s="51">
-        <v>9925</v>
+        <v>12038</v>
       </c>
       <c r="C76" s="51">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="D76" s="51">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="E76" s="51">
-        <f t="shared" si="143"/>
-        <v>9490</v>
+        <f t="shared" si="147"/>
+        <v>11495</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" si="141"/>
-        <v>0.95617128463476075</v>
+        <f t="shared" si="145"/>
+        <v>0.95489283934208335</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="142"/>
-        <v>2.1460957178841311</v>
+        <f t="shared" si="146"/>
+        <v>2.1515201860774216</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="144"/>
-        <v>97.853904282115863</v>
+        <f t="shared" si="148"/>
+        <v>97.84847981392258</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="B77" s="51">
-        <v>8235</v>
+        <v>9925</v>
       </c>
       <c r="C77" s="51">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="D77" s="51">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="E77" s="51">
-        <f t="shared" si="143"/>
-        <v>7921</v>
+        <f t="shared" si="147"/>
+        <v>9490</v>
       </c>
       <c r="F77" s="7">
-        <f t="shared" si="141"/>
-        <v>0.96187006678809961</v>
+        <f t="shared" si="145"/>
+        <v>0.95617128463476075</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="142"/>
-        <v>2.0765027322404372</v>
+        <f t="shared" si="146"/>
+        <v>2.1460957178841311</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="144"/>
-        <v>97.923497267759558</v>
+        <f t="shared" si="148"/>
+        <v>97.853904282115863</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="B78" s="51">
-        <v>6165</v>
+        <v>8235</v>
       </c>
       <c r="C78" s="51">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="D78" s="51">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E78" s="51">
-        <f t="shared" si="143"/>
-        <v>5906</v>
+        <f t="shared" si="147"/>
+        <v>7921</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" si="141"/>
-        <v>0.9579886455798865</v>
+        <f t="shared" si="145"/>
+        <v>0.96187006678809961</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" si="142"/>
-        <v>2.1573398215733985</v>
+        <f t="shared" si="146"/>
+        <v>2.0765027322404372</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="144"/>
-        <v>97.842660178426598</v>
+        <f t="shared" si="148"/>
+        <v>97.923497267759558</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B79" s="51">
-        <v>4690</v>
+        <v>6165</v>
       </c>
       <c r="C79" s="51">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="D79" s="51">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="E79" s="51">
-        <f t="shared" si="143"/>
-        <v>4505</v>
+        <f t="shared" si="147"/>
+        <v>5906</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" si="141"/>
-        <v>0.96055437100213215</v>
+        <f t="shared" si="145"/>
+        <v>0.9579886455798865</v>
       </c>
       <c r="G79" s="4">
-        <f t="shared" si="142"/>
-        <v>2.2601279317697229</v>
+        <f t="shared" si="146"/>
+        <v>2.1573398215733985</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="144"/>
-        <v>97.739872068230284</v>
+        <f t="shared" si="148"/>
+        <v>97.842660178426598</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
-        <v>43857</v>
+        <v>43858</v>
       </c>
       <c r="B80" s="51">
-        <v>2927</v>
+        <v>4690</v>
       </c>
       <c r="C80" s="51">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D80" s="51">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E80" s="51">
-        <f t="shared" si="143"/>
-        <v>2784</v>
+        <f t="shared" si="147"/>
+        <v>4505</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" si="141"/>
-        <v>0.95114451656986676</v>
+        <f t="shared" si="145"/>
+        <v>0.96055437100213215</v>
       </c>
       <c r="G80" s="4">
-        <f t="shared" si="142"/>
-        <v>2.8015032456440041</v>
+        <f t="shared" si="146"/>
+        <v>2.2601279317697229</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="144"/>
-        <v>97.198496754356</v>
+        <f t="shared" si="148"/>
+        <v>97.739872068230284</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
-        <v>43856</v>
+        <v>43857</v>
       </c>
       <c r="B81" s="51">
-        <v>2118</v>
+        <v>2927</v>
       </c>
       <c r="C81" s="51">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D81" s="51">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E81" s="51">
-        <f t="shared" ref="E81" si="148">B81-C81-D81</f>
-        <v>2010</v>
+        <f t="shared" si="147"/>
+        <v>2784</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" si="141"/>
-        <v>0.94900849858356939</v>
+        <f t="shared" si="145"/>
+        <v>0.95114451656986676</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="142"/>
-        <v>2.644003777148253</v>
+        <f t="shared" si="146"/>
+        <v>2.8015032456440041</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="144"/>
-        <v>97.355996222851743</v>
+        <f t="shared" si="148"/>
+        <v>97.198496754356</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
-        <v>43855</v>
+        <v>43856</v>
       </c>
       <c r="B82" s="51">
-        <v>1438</v>
+        <v>2118</v>
       </c>
       <c r="C82" s="51">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D82" s="51">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E82" s="51">
-        <f t="shared" si="143"/>
-        <v>1357</v>
+        <f t="shared" ref="E82" si="152">B82-C82-D82</f>
+        <v>2010</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" si="141"/>
-        <v>0.94367176634214189</v>
+        <f t="shared" si="145"/>
+        <v>0.94900849858356939</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="142"/>
-        <v>2.9207232267037551</v>
+        <f t="shared" si="146"/>
+        <v>2.644003777148253</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="144"/>
-        <v>97.079276773296243</v>
+        <f t="shared" si="148"/>
+        <v>97.355996222851743</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
-        <v>43854</v>
+        <v>43855</v>
       </c>
       <c r="B83" s="51">
-        <v>939</v>
+        <v>1438</v>
       </c>
       <c r="C83" s="51">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D83" s="51">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E83" s="51">
-        <f t="shared" si="143"/>
-        <v>879</v>
+        <f t="shared" si="147"/>
+        <v>1357</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" si="141"/>
-        <v>0.93610223642172519</v>
+        <f t="shared" si="145"/>
+        <v>0.94367176634214189</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="142"/>
-        <v>2.7689030883919061</v>
+        <f t="shared" si="146"/>
+        <v>2.9207232267037551</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="144"/>
-        <v>97.231096911608091</v>
+        <f t="shared" si="148"/>
+        <v>97.079276773296243</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
-        <v>43853</v>
+        <v>43854</v>
       </c>
       <c r="B84" s="51">
-        <v>653</v>
+        <v>939</v>
       </c>
       <c r="C84" s="51">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D84" s="51">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E84" s="51">
-        <f t="shared" si="143"/>
-        <v>605</v>
+        <f t="shared" si="147"/>
+        <v>879</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" si="141"/>
-        <v>0.9264931087289433</v>
+        <f t="shared" si="145"/>
+        <v>0.93610223642172519</v>
       </c>
       <c r="G84" s="4">
-        <f t="shared" si="142"/>
-        <v>2.7565084226646248</v>
+        <f t="shared" si="146"/>
+        <v>2.7689030883919061</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" si="144"/>
-        <v>97.243491577335377</v>
+        <f t="shared" si="148"/>
+        <v>97.231096911608091</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
+        <v>43853</v>
+      </c>
+      <c r="B85" s="51">
+        <v>653</v>
+      </c>
+      <c r="C85" s="51">
+        <v>18</v>
+      </c>
+      <c r="D85" s="51">
+        <v>30</v>
+      </c>
+      <c r="E85" s="51">
+        <f t="shared" si="147"/>
+        <v>605</v>
+      </c>
+      <c r="F85" s="7">
+        <f t="shared" si="145"/>
+        <v>0.9264931087289433</v>
+      </c>
+      <c r="G85" s="4">
+        <f t="shared" si="146"/>
+        <v>2.7565084226646248</v>
+      </c>
+      <c r="H85" s="4">
+        <f t="shared" si="148"/>
+        <v>97.243491577335377</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
         <v>43852</v>
       </c>
-      <c r="B85" s="51">
+      <c r="B86" s="51">
         <v>555</v>
       </c>
-      <c r="C85" s="51">
+      <c r="C86" s="51">
         <v>17</v>
       </c>
-      <c r="D85" s="51">
+      <c r="D86" s="51">
         <v>28</v>
       </c>
-      <c r="E85" s="51">
-        <f t="shared" ref="E85" si="149">B85-C85-D85</f>
+      <c r="E86" s="51">
+        <f t="shared" ref="E86" si="153">B86-C86-D86</f>
         <v>510</v>
       </c>
-      <c r="F85" s="7">
-        <f t="shared" si="141"/>
+      <c r="F86" s="7">
+        <f t="shared" si="145"/>
         <v>0.91891891891891897</v>
       </c>
-      <c r="G85" s="4">
-        <f t="shared" si="142"/>
+      <c r="G86" s="4">
+        <f t="shared" si="146"/>
         <v>3.0630630630630629</v>
       </c>
-      <c r="H85" s="4">
-        <f t="shared" si="144"/>
+      <c r="H86" s="4">
+        <f t="shared" si="148"/>
         <v>96.936936936936931</v>
       </c>
     </row>
@@ -19656,8 +19800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15537FA-A914-8447-94D5-3E0CD69DDCA2}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19680,7 +19824,7 @@
         <v>74</v>
       </c>
       <c r="E1" s="16">
-        <f t="shared" ref="E1:E38" si="0">B1*EXP(C1)</f>
+        <f t="shared" ref="E1:E39" si="0">B1*EXP(C1)</f>
         <v>29.045856068207076</v>
       </c>
       <c r="L1" s="11">
@@ -20005,7 +20149,7 @@
         <v>18</v>
       </c>
       <c r="O11" s="43">
-        <f t="shared" si="2"/>
+        <f>N11/N10</f>
         <v>0.69230769230769229</v>
       </c>
     </row>
@@ -20475,8 +20619,8 @@
         <v>2793.0378429634588</v>
       </c>
       <c r="F26" s="67">
-        <f>AVERAGE(C25:C33)</f>
-        <v>0.11827</v>
+        <f>AVERAGE(C35:C38)</f>
+        <v>6.0775000000000003E-2</v>
       </c>
       <c r="L26" s="11">
         <v>43922</v>
@@ -20884,10 +21028,16 @@
       <c r="B39" s="20">
         <v>7953</v>
       </c>
+      <c r="C39" s="67">
+        <v>6.0299999999999999E-2</v>
+      </c>
       <c r="D39" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="16"/>
+      <c r="E39" s="16">
+        <f t="shared" si="0"/>
+        <v>8447.3198705450232</v>
+      </c>
       <c r="L39" s="11">
         <v>43935</v>
       </c>
@@ -20899,19 +21049,31 @@
         <v>483</v>
       </c>
       <c r="O39" s="43">
-        <f t="shared" si="20"/>
+        <f>N39/N38</f>
         <v>1.1472684085510689</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
+      <c r="A40" s="11">
+        <v>43936</v>
+      </c>
       <c r="B40" s="20"/>
       <c r="D40"/>
       <c r="E40" s="16"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="43"/>
+      <c r="L40" s="11">
+        <v>43936</v>
+      </c>
+      <c r="M40" s="20">
+        <v>8447</v>
+      </c>
+      <c r="N40" s="45">
+        <f t="shared" ref="N40" si="21">M40-M39</f>
+        <v>494</v>
+      </c>
+      <c r="O40" s="43">
+        <f>N40/N39</f>
+        <v>1.0227743271221532</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
@@ -20982,7 +21144,7 @@
         <v>74</v>
       </c>
       <c r="E47" s="16">
-        <f t="shared" ref="E47:E53" si="21">B47*EXP(C47)</f>
+        <f t="shared" ref="E47:E53" si="22">B47*EXP(C47)</f>
         <v>7916.0710179558482</v>
       </c>
       <c r="N47" t="s">
@@ -21007,7 +21169,7 @@
         <v>74</v>
       </c>
       <c r="E48" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7931.9190026938368</v>
       </c>
     </row>
@@ -21025,7 +21187,7 @@
         <v>74</v>
       </c>
       <c r="E49" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8011.636113968998</v>
       </c>
     </row>
@@ -21043,7 +21205,7 @@
         <v>74</v>
       </c>
       <c r="E50" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8092.1543955319412</v>
       </c>
     </row>
@@ -21061,7 +21223,7 @@
         <v>74</v>
       </c>
       <c r="E51" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7931.9190026938368</v>
       </c>
     </row>
@@ -21079,7 +21241,7 @@
         <v>74</v>
       </c>
       <c r="E52" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8255.6267580250878</v>
       </c>
     </row>
@@ -21097,7 +21259,7 @@
         <v>74</v>
       </c>
       <c r="E53" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8338.5971863277682</v>
       </c>
     </row>
@@ -21110,7 +21272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5521322C-CF67-F44B-9E4B-7D676E5E6DF4}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
@@ -21580,8 +21742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF3CE39-DCAD-574C-8164-23D6F0161C9A}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22220,9 +22382,8 @@
       <c r="A32" s="11">
         <v>43936</v>
       </c>
-      <c r="B32" s="44">
-        <f>B31*EXP(0.1599)</f>
-        <v>606.64445282416011</v>
+      <c r="B32" s="29">
+        <v>549</v>
       </c>
       <c r="C32" s="34">
         <v>448393</v>
@@ -22255,7 +22416,7 @@
       </c>
       <c r="B33" s="44">
         <f t="shared" ref="B33:B68" si="0">B32*EXP(0.1599)</f>
-        <v>711.83267338940925</v>
+        <v>644.19304564886636</v>
       </c>
       <c r="C33" s="34">
         <v>677541</v>
@@ -22288,7 +22449,7 @@
       </c>
       <c r="B34" s="44">
         <f t="shared" si="0"/>
-        <v>835.25985038815713</v>
+        <v>755.89194911177117</v>
       </c>
       <c r="C34" s="34">
         <v>1023794</v>
@@ -22321,7 +22482,7 @@
       </c>
       <c r="B35" s="44">
         <f t="shared" si="0"/>
-        <v>980.08850078281125</v>
+        <v>886.95871927098312</v>
       </c>
       <c r="C35" s="34">
         <v>1546996</v>
@@ -22354,7 +22515,7 @@
       </c>
       <c r="B36" s="44">
         <f t="shared" si="0"/>
-        <v>1150.0295015022048</v>
+        <v>1040.7516188196585</v>
       </c>
       <c r="I36" s="34">
         <v>51000</v>
@@ -22369,7 +22530,7 @@
       </c>
       <c r="B37" s="44">
         <f t="shared" si="0"/>
-        <v>1349.4371715095679</v>
+        <v>1221.2112114597883</v>
       </c>
       <c r="I37" s="34">
         <v>77063</v>
@@ -22384,7 +22545,7 @@
       </c>
       <c r="B38" s="44">
         <f t="shared" si="0"/>
-        <v>1583.420840485501</v>
+        <v>1432.9613291271817</v>
       </c>
       <c r="I38" s="34">
         <v>116445</v>
@@ -22399,7 +22560,7 @@
       </c>
       <c r="B39" s="44">
         <f t="shared" si="0"/>
-        <v>1857.975762798256</v>
+        <v>1681.4275462795749</v>
       </c>
       <c r="I39" s="34">
         <v>175953</v>
@@ -22414,7 +22575,7 @@
       </c>
       <c r="B40" s="44">
         <f t="shared" si="0"/>
-        <v>2180.1367311088966</v>
+        <v>1972.9761968592704</v>
       </c>
       <c r="I40" s="34">
         <v>265873</v>
@@ -22429,7 +22590,7 @@
       </c>
       <c r="B41" s="44">
         <f t="shared" si="0"/>
-        <v>2558.1583255810629</v>
+        <v>2315.0774958970687</v>
       </c>
       <c r="I41" s="34">
         <v>401745</v>
@@ -22444,7 +22605,7 @@
       </c>
       <c r="B42" s="44">
         <f t="shared" si="0"/>
-        <v>3001.7264171367378</v>
+        <v>2716.4969453462359</v>
       </c>
       <c r="I42" s="34">
         <v>607054</v>
@@ -22459,7 +22620,7 @@
       </c>
       <c r="B43" s="44">
         <f t="shared" si="0"/>
-        <v>3522.2063440072393</v>
+        <v>3187.5199284488772</v>
       </c>
       <c r="I43" s="34">
         <v>917284</v>
@@ -22474,7 +22635,7 @@
       </c>
       <c r="B44" s="44">
         <f t="shared" si="0"/>
-        <v>4132.9341204914062</v>
+        <v>3740.2152473113638</v>
       </c>
       <c r="I44" s="34">
         <v>1386056</v>
@@ -22489,7 +22650,7 @@
       </c>
       <c r="B45" s="44">
         <f t="shared" si="0"/>
-        <v>4849.5581394270994</v>
+        <v>4388.744356189135</v>
       </c>
       <c r="I45" s="34">
         <v>2094389</v>
@@ -22504,7 +22665,7 @@
       </c>
       <c r="B46" s="44">
         <f t="shared" si="0"/>
-        <v>5690.4401236590029</v>
+        <v>5149.7242138210413</v>
       </c>
       <c r="I46" s="34">
         <v>3164712</v>
@@ -22519,7 +22680,7 @@
       </c>
       <c r="B47" s="44">
         <f t="shared" si="0"/>
-        <v>6677.1255998950901</v>
+        <v>6042.653052009272</v>
       </c>
       <c r="I47" s="34">
         <v>4782015</v>
@@ -22534,7 +22695,7 @@
       </c>
       <c r="B48" s="44">
         <f t="shared" si="0"/>
-        <v>7834.8959496838461</v>
+        <v>7090.4099697145175</v>
       </c>
       <c r="I48" s="34">
         <v>7225830</v>
@@ -22549,7 +22710,7 @@
       </c>
       <c r="B49" s="44">
         <f t="shared" si="0"/>
-        <v>9193.4161824568364</v>
+        <v>8319.8411535327523</v>
       </c>
       <c r="I49" s="34">
         <v>10918538</v>
@@ -22564,7 +22725,7 @@
       </c>
       <c r="B50" s="44">
         <f t="shared" si="0"/>
-        <v>10787.495028223029</v>
+        <v>9762.4477450073609</v>
       </c>
       <c r="I50" s="34">
         <v>16498378</v>
@@ -22579,7 +22740,7 @@
       </c>
       <c r="B51" s="44">
         <f t="shared" si="0"/>
-        <v>12657.976825415293</v>
+        <v>11455.192979679779</v>
       </c>
       <c r="I51" s="34">
         <v>24929755</v>
@@ -22594,7 +22755,7 @@
       </c>
       <c r="B52" s="44">
         <f t="shared" si="0"/>
-        <v>14852.788056315201</v>
+        <v>13441.449278825918</v>
       </c>
       <c r="I52" s="34">
         <v>37669926</v>
@@ -22609,7 +22770,7 @@
       </c>
       <c r="B53" s="44">
         <f t="shared" si="0"/>
-        <v>17428.16534494498</v>
+        <v>15772.109560767989</v>
       </c>
       <c r="I53" s="34">
         <v>56920870</v>
@@ -22624,7 +22785,7 @@
       </c>
       <c r="B54" s="44">
         <f t="shared" si="0"/>
-        <v>20450.096381843592</v>
+        <v>18506.891246372921</v>
       </c>
       <c r="I54" s="34">
         <v>86009869</v>
@@ -22639,7 +22800,7 @@
       </c>
       <c r="B55" s="44">
         <f t="shared" si="0"/>
-        <v>23996.0106958701</v>
+        <v>21715.866370661777</v>
       </c>
       <c r="I55" s="34">
         <v>129964593</v>
@@ -22654,7 +22815,7 @@
       </c>
       <c r="B56" s="44">
         <f t="shared" si="0"/>
-        <v>28156.763594891316</v>
+        <v>25481.257005865944</v>
       </c>
       <c r="I56" s="34">
         <v>196382061</v>
@@ -22669,7 +22830,7 @@
       </c>
       <c r="B57" s="44">
         <f t="shared" si="0"/>
-        <v>33038.964108940178</v>
+        <v>29899.541999217294</v>
       </c>
       <c r="I57" s="34">
         <v>296741696</v>
@@ -22684,7 +22845,7 @@
       </c>
       <c r="B58" s="44">
         <f t="shared" si="0"/>
-        <v>38767.706583646184</v>
+        <v>35083.929005431659</v>
       </c>
       <c r="I58" s="34">
         <v>448389400</v>
@@ -22699,7 +22860,7 @@
       </c>
       <c r="B59" s="44">
         <f t="shared" si="0"/>
-        <v>45489.775914281679</v>
+        <v>41167.255153620441</v>
       </c>
       <c r="I59" s="34">
         <v>677535569</v>
@@ -22714,7 +22875,7 @@
       </c>
       <c r="B60" s="44">
         <f t="shared" si="0"/>
-        <v>53377.408546640356</v>
+        <v>48305.390671065099</v>
       </c>
       <c r="I60" s="34">
         <v>1023785234</v>
@@ -22729,7 +22890,7 @@
       </c>
       <c r="B61" s="44">
         <f t="shared" si="0"/>
-        <v>62632.705611118537</v>
+        <v>56681.232673318322</v>
       </c>
       <c r="I61" s="34">
         <v>1546983293</v>
@@ -22744,7 +22905,7 @@
       </c>
       <c r="B62" s="44">
         <f t="shared" si="0"/>
-        <v>73492.811265674478</v>
+        <v>66509.391451652031</v>
       </c>
       <c r="I62" s="34">
         <v>2337557947</v>
@@ -22759,7 +22920,7 @@
       </c>
       <c r="B63" s="44">
         <f t="shared" si="0"/>
-        <v>86235.98892993106</v>
+        <v>78041.689332408729</v>
       </c>
       <c r="I63" s="34">
         <v>3532150075</v>
@@ -22774,7 +22935,7 @@
       </c>
       <c r="B64" s="44">
         <f t="shared" si="0"/>
-        <v>101188.75109893299</v>
+        <v>91573.613002963612</v>
       </c>
       <c r="I64" s="34">
         <v>5337229895</v>
@@ -22789,7 +22950,7 @@
       </c>
       <c r="B65" s="44">
         <f t="shared" si="0"/>
-        <v>118734.22542044938</v>
+        <v>107451.88462923453</v>
       </c>
       <c r="I65" s="34">
         <v>8064782736</v>
@@ -22804,7 +22965,7 @@
       </c>
       <c r="B66" s="44">
         <f t="shared" si="0"/>
-        <v>139321.9713959168</v>
+        <v>126083.34575595117</v>
       </c>
       <c r="I66" s="34">
         <v>12186231783</v>
@@ -22819,7 +22980,7 @@
       </c>
       <c r="B67" s="44">
         <f t="shared" si="0"/>
-        <v>163479.49923377027</v>
+        <v>147945.38161771448</v>
       </c>
       <c r="I67" s="34">
         <v>18413917638</v>
@@ -22834,7 +22995,7 @@
       </c>
       <c r="B68" s="44">
         <f t="shared" si="0"/>
-        <v>191825.78599736607</v>
+        <v>173598.15295810436</v>
       </c>
       <c r="I68" s="34">
         <v>27824217430</v>
@@ -22851,10 +23012,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A86A38-08EC-FA44-A810-5EDDE230B175}">
-  <dimension ref="A1:BE27"/>
+  <dimension ref="A1:BE28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AH27" sqref="AH27:AU27"/>
+    <sheetView topLeftCell="Z4" workbookViewId="0">
+      <selection activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22962,7 +23123,7 @@
       <c r="AG1" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="37" t="s">
         <v>69</v>
       </c>
       <c r="AI1" s="1" t="s">
@@ -23716,7 +23877,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="19:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="19:48" x14ac:dyDescent="0.2">
       <c r="S17" s="40" t="s">
         <v>38</v>
       </c>
@@ -23760,7 +23921,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="19:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="19:48" x14ac:dyDescent="0.2">
       <c r="T18" s="40" t="s">
         <v>38</v>
       </c>
@@ -23804,7 +23965,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="19:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="19:48" x14ac:dyDescent="0.2">
       <c r="U19" s="40" t="s">
         <v>38</v>
       </c>
@@ -23848,7 +24009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="19:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="19:48" x14ac:dyDescent="0.2">
       <c r="W20" s="40" t="s">
         <v>38</v>
       </c>
@@ -23892,7 +24053,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="19:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="19:48" x14ac:dyDescent="0.2">
       <c r="X21" s="40" t="s">
         <v>38</v>
       </c>
@@ -23936,7 +24097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="19:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="19:48" x14ac:dyDescent="0.2">
       <c r="Y22" s="40" t="s">
         <v>38</v>
       </c>
@@ -23980,7 +24141,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="19:47" x14ac:dyDescent="0.2">
+    <row r="23" spans="19:48" x14ac:dyDescent="0.2">
       <c r="Z23" s="40" t="s">
         <v>38</v>
       </c>
@@ -24024,7 +24185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="19:47" x14ac:dyDescent="0.2">
+    <row r="24" spans="19:48" x14ac:dyDescent="0.2">
       <c r="AB24" s="40" t="s">
         <v>38</v>
       </c>
@@ -24068,7 +24229,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="19:47" x14ac:dyDescent="0.2">
+    <row r="25" spans="19:48" x14ac:dyDescent="0.2">
       <c r="AD25" s="40" t="s">
         <v>38</v>
       </c>
@@ -24112,7 +24273,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="19:47" x14ac:dyDescent="0.2">
+    <row r="26" spans="19:48" x14ac:dyDescent="0.2">
       <c r="AE26" s="40" t="s">
         <v>38</v>
       </c>
@@ -24156,7 +24317,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="19:47" x14ac:dyDescent="0.2">
+    <row r="27" spans="19:48" x14ac:dyDescent="0.2">
       <c r="AH27" s="40" t="s">
         <v>38</v>
       </c>
@@ -24197,6 +24358,50 @@
         <v>50</v>
       </c>
       <c r="AU27" s="57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="19:48" x14ac:dyDescent="0.2">
+      <c r="AI28" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ28" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK28" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL28" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM28" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN28" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO28" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP28" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ28" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR28" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS28" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT28" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU28" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV28" s="57" t="s">
         <v>51</v>
       </c>
     </row>
@@ -24208,10 +24413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC23CCE7-DF39-5E4F-AD3D-9B12D237CD1E}">
-  <dimension ref="A1:AG125"/>
+  <dimension ref="A1:AH125"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AB54" sqref="AB54"/>
+    <sheetView topLeftCell="B37" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24225,7 +24430,7 @@
     <col min="10" max="10" width="13.83203125" hidden="1" customWidth="1"/>
     <col min="11" max="19" width="12.6640625" hidden="1" customWidth="1"/>
     <col min="20" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="33" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="34" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -24409,7 +24614,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>43903</v>
       </c>
@@ -24420,7 +24625,7 @@
         <v>51767</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>43904</v>
       </c>
@@ -24430,8 +24635,9 @@
       <c r="C18" s="14">
         <v>61518</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AF18" s="42"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>43905</v>
       </c>
@@ -24442,7 +24648,7 @@
         <v>72469</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>43906</v>
       </c>
@@ -24456,7 +24662,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>43907</v>
       </c>
@@ -24473,7 +24679,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>43908</v>
       </c>
@@ -24493,7 +24699,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>43909</v>
       </c>
@@ -24516,7 +24722,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>43910</v>
       </c>
@@ -24542,7 +24748,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>43911</v>
       </c>
@@ -24571,7 +24777,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>43912</v>
       </c>
@@ -24603,7 +24809,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>43913</v>
       </c>
@@ -24638,7 +24844,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>43914</v>
       </c>
@@ -24676,7 +24882,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>43915</v>
       </c>
@@ -24717,7 +24923,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>43916</v>
       </c>
@@ -24761,7 +24967,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>43917</v>
       </c>
@@ -24809,7 +25015,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>43918</v>
       </c>
@@ -26084,7 +26290,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>43935</v>
       </c>
@@ -26186,7 +26392,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>43936</v>
       </c>
@@ -26194,9 +26400,8 @@
         <f t="shared" si="0"/>
         <v>24694292.188565403</v>
       </c>
-      <c r="C50" s="15">
-        <f>C49*EXP(0.1305)</f>
-        <v>2006670.0516085224</v>
+      <c r="C50" s="19">
+        <v>1831171</v>
       </c>
       <c r="D50" s="15">
         <f t="shared" ref="D50:S50" si="1">D49*EXP(0.1305)</f>
@@ -26304,8 +26509,11 @@
       <c r="AG50" s="14">
         <v>2006670</v>
       </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>43937</v>
       </c>
@@ -26315,7 +26523,7 @@
       </c>
       <c r="C51" s="15">
         <f t="shared" ref="C51:C81" si="2">C50*EXP(0.1305)</f>
-        <v>2286395.7228488554</v>
+        <v>2086432.4649928312</v>
       </c>
       <c r="D51" s="24">
         <v>14145759</v>
@@ -26407,8 +26615,11 @@
       <c r="AG51" s="24">
         <v>2286396</v>
       </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH51" s="14">
+        <v>2086432</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>43938</v>
       </c>
@@ -26418,7 +26629,7 @@
       </c>
       <c r="C52" s="15">
         <f t="shared" si="2"/>
-        <v>2605114.5763954339</v>
+        <v>2377276.8523398754</v>
       </c>
       <c r="D52" s="24">
         <v>16686748</v>
@@ -26510,8 +26721,11 @@
       <c r="AG52" s="24">
         <v>2605115</v>
       </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH52" s="24">
+        <v>2377277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>43939</v>
       </c>
@@ -26521,7 +26735,7 @@
       </c>
       <c r="C53" s="15">
         <f t="shared" si="2"/>
-        <v>2968262.181531643</v>
+        <v>2708664.3481127024</v>
       </c>
       <c r="D53" s="24">
         <v>19684172</v>
@@ -26613,8 +26827,11 @@
       <c r="AG53" s="24">
         <v>2968262</v>
       </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH53" s="24">
+        <v>2708664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>43940</v>
       </c>
@@ -26624,7 +26841,7 @@
       </c>
       <c r="C54" s="15">
         <f t="shared" si="2"/>
-        <v>3382031.8147011199</v>
+        <v>3086246.578102747</v>
       </c>
       <c r="D54" s="24">
         <v>23220021</v>
@@ -26716,8 +26933,11 @@
       <c r="AG54" s="24">
         <v>3382032</v>
       </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH54" s="24">
+        <v>3086247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>43941</v>
       </c>
@@ -26727,7 +26947,7 @@
       </c>
       <c r="C55" s="15">
         <f t="shared" si="2"/>
-        <v>3853480.0823249361</v>
+        <v>3516462.9930938208</v>
       </c>
       <c r="D55" s="24">
         <v>27391011</v>
@@ -26819,8 +27039,11 @@
       <c r="AG55" s="24">
         <v>3853480</v>
       </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH55" s="24">
+        <v>3516463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>43942</v>
       </c>
@@ -26830,7 +27053,7 @@
       </c>
       <c r="C56" s="15">
         <f t="shared" si="2"/>
-        <v>4390647.2672219006</v>
+        <v>4006650.6900430433</v>
       </c>
       <c r="D56" s="24">
         <v>32311231</v>
@@ -26922,8 +27145,11 @@
       <c r="AG56" s="24">
         <v>4390647</v>
       </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH56" s="24">
+        <v>4006651</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>43943</v>
       </c>
@@ -26933,7 +27159,7 @@
       </c>
       <c r="C57" s="15">
         <f t="shared" si="2"/>
-        <v>5002694.4510719245</v>
+        <v>4565169.5421081567</v>
       </c>
       <c r="D57" s="24">
         <v>38115266</v>
@@ -27025,8 +27251,11 @@
       <c r="AG57" s="24">
         <v>5002694</v>
       </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH57" s="24">
+        <v>4565170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>43944</v>
       </c>
@@ -27036,7 +27265,7 @@
       </c>
       <c r="C58" s="15">
         <f t="shared" si="2"/>
-        <v>5700059.7514682971</v>
+        <v>5201544.771542863</v>
       </c>
       <c r="D58" s="24">
         <v>44961874</v>
@@ -27128,8 +27357,11 @@
       <c r="AG58" s="24">
         <v>5700060</v>
       </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH58" s="24">
+        <v>5201545</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>43945</v>
       </c>
@@ -27139,7 +27371,7 @@
       </c>
       <c r="C59" s="15">
         <f t="shared" si="2"/>
-        <v>6494636.3380931783</v>
+        <v>5926629.3969600592</v>
       </c>
       <c r="D59" s="24">
         <v>53038331</v>
@@ -27231,8 +27463,11 @@
       <c r="AG59" s="24">
         <v>6494636</v>
       </c>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH59" s="24">
+        <v>5926629</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>43946</v>
       </c>
@@ -27242,7 +27477,7 @@
       </c>
       <c r="C60" s="15">
         <f t="shared" si="2"/>
-        <v>7399975.263981225</v>
+        <v>6752789.3254089067</v>
       </c>
       <c r="D60" s="24">
         <v>62565555</v>
@@ -27334,8 +27569,11 @@
       <c r="AG60" s="24">
         <v>7399975</v>
       </c>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH60" s="24">
+        <v>6752789</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>43947</v>
       </c>
@@ -27345,7 +27583,7 @@
       </c>
       <c r="C61" s="15">
         <f t="shared" si="2"/>
-        <v>8431516.5710435137</v>
+        <v>7694114.2459061351</v>
       </c>
       <c r="D61" s="24">
         <v>73804144</v>
@@ -27437,8 +27675,11 @@
       <c r="AG61" s="24">
         <v>8431517</v>
       </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH61" s="24">
+        <v>7694114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>43948</v>
       </c>
@@ -27448,7 +27689,7 @@
       </c>
       <c r="C62" s="15">
         <f t="shared" si="2"/>
-        <v>9606852.6112253964</v>
+        <v>8766657.9210911468</v>
       </c>
       <c r="D62" s="24">
         <v>87061510</v>
@@ -27540,8 +27781,11 @@
       <c r="AG62" s="24">
         <v>9606853</v>
       </c>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH62" s="24">
+        <v>8766658</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>43949</v>
       </c>
@@ -27551,7 +27795,7 @@
       </c>
       <c r="C63" s="15">
         <f t="shared" si="2"/>
-        <v>10946028.074091289</v>
+        <v>9988711.9750428163</v>
       </c>
       <c r="D63" s="24">
         <v>102700284</v>
@@ -27643,8 +27887,11 @@
       <c r="AG63" s="24">
         <v>10946028</v>
       </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH63" s="24">
+        <v>9988712</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>43950</v>
       </c>
@@ -27654,7 +27901,7 @@
       </c>
       <c r="C64" s="15">
         <f t="shared" si="2"/>
-        <v>12471881.837636692</v>
+        <v>11381117.846553924</v>
       </c>
       <c r="D64" s="24">
         <v>121148236</v>
@@ -27746,8 +27993,11 @@
       <c r="AG64" s="24">
         <v>12471882</v>
       </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH64" s="24">
+        <v>11381118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>43951</v>
       </c>
@@ -27757,7 +28007,7 @@
       </c>
       <c r="C65" s="15">
         <f t="shared" si="2"/>
-        <v>14210436.472399162</v>
+        <v>12967622.228049377</v>
       </c>
       <c r="D65" s="24">
         <v>142909975</v>
@@ -27849,8 +28099,11 @@
       <c r="AG65" s="24">
         <v>14210436</v>
       </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH65" s="24">
+        <v>12967622</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>43952</v>
       </c>
@@ -27860,7 +28113,7 @@
       </c>
       <c r="C66" s="15">
         <f t="shared" si="2"/>
-        <v>16191342.04163992</v>
+        <v>14775282.051957404</v>
       </c>
       <c r="D66" s="24">
         <v>168580754</v>
@@ -27952,8 +28205,11 @@
       <c r="AG66" s="24">
         <v>16191342</v>
       </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH66" s="24">
+        <v>14775282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>43953</v>
       </c>
@@ -27963,7 +28219,7 @@
       </c>
       <c r="C67" s="15">
         <f t="shared" si="2"/>
-        <v>18448381.76635652</v>
+        <v>16834925.931346565</v>
       </c>
       <c r="D67" s="24">
         <v>198862749</v>
@@ -28055,8 +28311,11 @@
       <c r="AG67" s="24">
         <v>18448382</v>
       </c>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH67" s="24">
+        <v>16834926</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>43954</v>
       </c>
@@ -28066,7 +28325,7 @@
       </c>
       <c r="C68" s="15">
         <f t="shared" si="2"/>
-        <v>21020048.178956546</v>
+        <v>19181679.924436957</v>
       </c>
       <c r="D68" s="24">
         <v>234584270</v>
@@ -28158,8 +28417,11 @@
       <c r="AG68" s="24">
         <v>21020048</v>
       </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH68" s="24">
+        <v>19181680</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>43955</v>
       </c>
@@ -28169,7 +28431,7 @@
       </c>
       <c r="C69" s="15">
         <f t="shared" si="2"/>
-        <v>23950199.591566477</v>
+        <v>21855566.589601137</v>
       </c>
       <c r="D69" s="24">
         <v>276722413</v>
@@ -28261,8 +28523,11 @@
       <c r="AG69" s="24">
         <v>23950200</v>
       </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH69" s="24">
+        <v>21855567</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>43956</v>
       </c>
@@ -28272,7 +28537,7 @@
       </c>
       <c r="C70" s="15">
         <f t="shared" si="2"/>
-        <v>27288808.074670438</v>
+        <v>24902187.547398064</v>
       </c>
       <c r="D70" s="24">
         <v>326429789</v>
@@ -28364,8 +28629,11 @@
       <c r="AG70" s="24">
         <v>27288808</v>
       </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH70" s="24">
+        <v>24902188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>43957</v>
       </c>
@@ -28375,7 +28643,7 @@
       </c>
       <c r="C71" s="15">
         <f t="shared" si="2"/>
-        <v>31092811.702430256</v>
+        <v>28373501.190348431</v>
       </c>
       <c r="D71" s="24">
         <v>385066053</v>
@@ -28467,8 +28735,11 @@
       <c r="AG71" s="24">
         <v>31092812</v>
       </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH71" s="24">
+        <v>28373501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>43958</v>
       </c>
@@ -28478,7 +28749,7 @@
       </c>
       <c r="C72" s="15">
         <f t="shared" si="2"/>
-        <v>35427085.599247426</v>
+        <v>32328708.803850491</v>
       </c>
       <c r="D72" s="24">
         <v>454235091</v>
@@ -28570,8 +28841,11 @@
       <c r="AG72" s="24">
         <v>35427086</v>
       </c>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH72" s="24">
+        <v>32328709</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>43959</v>
       </c>
@@ -28581,7 +28855,7 @@
       </c>
       <c r="C73" s="15">
         <f t="shared" si="2"/>
-        <v>40365548.348215342</v>
+        <v>36835264.210526064</v>
       </c>
       <c r="D73" s="24">
         <v>535828895</v>
@@ -28673,8 +28947,11 @@
       <c r="AG73" s="24">
         <v>40365548</v>
       </c>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH73" s="24">
+        <v>36835264</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>43960</v>
       </c>
@@ -28684,7 +28961,7 @@
       </c>
       <c r="C74" s="15">
         <f t="shared" si="2"/>
-        <v>45992422.630630478</v>
+        <v>41970024.1569084</v>
       </c>
       <c r="D74" s="24">
         <v>632079315</v>
@@ -28776,8 +29053,11 @@
       <c r="AG74" s="24">
         <v>45992423</v>
       </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH74" s="24">
+        <v>41970024</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>43961</v>
       </c>
@@ -28787,7 +29067,7 @@
       </c>
       <c r="C75" s="15">
         <f t="shared" si="2"/>
-        <v>52403671.596054338</v>
+        <v>47820559.061664402</v>
       </c>
       <c r="D75" s="24">
         <v>745619104</v>
@@ -28879,8 +29159,11 @@
       <c r="AG75" s="24">
         <v>52403672</v>
       </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH75" s="24">
+        <v>47820559</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>43962</v>
       </c>
@@ -28890,7 +29173,7 @@
       </c>
       <c r="C76" s="15">
         <f t="shared" si="2"/>
-        <v>59708635.459403008</v>
+        <v>54486646.479418755</v>
       </c>
       <c r="D76" s="24">
         <v>879553933</v>
@@ -28982,8 +29265,11 @@
       <c r="AG76" s="24">
         <v>59708635</v>
       </c>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH76" s="24">
+        <v>54486646</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>43963</v>
       </c>
@@ -28993,7 +29279,7 @@
       </c>
       <c r="C77" s="15">
         <f t="shared" si="2"/>
-        <v>68031896.236299381</v>
+        <v>62081972.750358455</v>
       </c>
       <c r="D77" s="24">
         <v>1037547345</v>
@@ -29085,8 +29371,11 @@
       <c r="AG77" s="24">
         <v>68031896</v>
       </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH77" s="24">
+        <v>62081973</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>43964</v>
       </c>
@@ -29096,7 +29385,7 @@
       </c>
       <c r="C78" s="15">
         <f t="shared" si="2"/>
-        <v>77515402.418691993</v>
+        <v>70736071.856286585</v>
       </c>
       <c r="D78" s="24">
         <v>1223920959</v>
@@ -29188,8 +29477,11 @@
       <c r="AG78" s="24">
         <v>77515402</v>
       </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH78" s="24">
+        <v>70736072</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>43965</v>
       </c>
@@ -29199,7 +29491,7 @@
       </c>
       <c r="C79" s="15">
         <f t="shared" si="2"/>
-        <v>88320889.825877979</v>
+        <v>80596534.549215809</v>
       </c>
       <c r="D79" s="24">
         <v>1443772683</v>
@@ -29291,8 +29583,11 @@
       <c r="AG79" s="24">
         <v>88320890</v>
       </c>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH79" s="24">
+        <v>80596535</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <v>43966</v>
       </c>
@@ -29302,7 +29597,7 @@
       </c>
       <c r="C80" s="15">
         <f t="shared" si="2"/>
-        <v>100632639.91717149</v>
+        <v>91831525.427936673</v>
       </c>
       <c r="D80" s="24">
         <v>1703116156</v>
@@ -29394,8 +29689,11 @@
       <c r="AG80" s="24">
         <v>100632640</v>
       </c>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH80" s="24">
+        <v>91831525</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>43967</v>
       </c>
@@ -29405,7 +29703,7 @@
       </c>
       <c r="C81" s="15">
         <f t="shared" si="2"/>
-        <v>114660622.60767569</v>
+        <v>104632650.88987416</v>
       </c>
       <c r="D81" s="24">
         <v>2009045244</v>
@@ -29497,70 +29795,73 @@
       <c r="AG81" s="24">
         <v>114660623</v>
       </c>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH81" s="24">
+        <v>104632651</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" s="11"/>
       <c r="C82" s="15"/>
       <c r="D82" s="14"/>
       <c r="T82" s="14"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="C83" s="15"/>
       <c r="D83" s="14"/>
       <c r="T83" s="14"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" s="11"/>
       <c r="C84" s="15"/>
       <c r="D84" s="14"/>
       <c r="T84" s="14"/>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C85" s="15"/>
       <c r="T85" s="14"/>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C86" s="15"/>
       <c r="T86" s="14"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C87" s="15"/>
       <c r="T87" s="14"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C88" s="15"/>
       <c r="T88" s="14"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C89" s="15"/>
       <c r="T89" s="14"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C90" s="15"/>
       <c r="T90" s="14"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C91" s="15"/>
       <c r="T91" s="14"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C92" s="15"/>
       <c r="T92" s="14"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C93" s="15"/>
       <c r="T93" s="14"/>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C94" s="15"/>
       <c r="T94" s="14"/>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C95" s="15"/>
       <c r="T95" s="14"/>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C96" s="15"/>
       <c r="T96" s="14"/>
     </row>
@@ -29670,10 +29971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C248010-6C16-954B-BC86-379C97BD27B4}">
-  <dimension ref="A1:AU128"/>
+  <dimension ref="A1:AW128"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="AK71" sqref="AK71"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30457,7 +30758,7 @@
       </c>
       <c r="W48" s="89"/>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>43923</v>
       </c>
@@ -30532,7 +30833,7 @@
       </c>
       <c r="Y49" s="89"/>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>43924</v>
       </c>
@@ -30613,7 +30914,7 @@
       </c>
       <c r="AA50" s="89"/>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
         <v>43925</v>
       </c>
@@ -30700,7 +31001,7 @@
       </c>
       <c r="AC51" s="89"/>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>43926</v>
       </c>
@@ -30793,7 +31094,7 @@
       </c>
       <c r="AE52" s="89"/>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>43927</v>
       </c>
@@ -30892,7 +31193,7 @@
       </c>
       <c r="AG53" s="89"/>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
         <v>43928</v>
       </c>
@@ -30997,7 +31298,7 @@
       </c>
       <c r="AI54" s="89"/>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
         <v>43929</v>
       </c>
@@ -31108,7 +31409,7 @@
       </c>
       <c r="AK55" s="89"/>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
         <v>43930</v>
       </c>
@@ -31225,7 +31526,7 @@
       </c>
       <c r="AM56" s="89"/>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>43931</v>
       </c>
@@ -31348,7 +31649,7 @@
       </c>
       <c r="AO57" s="89"/>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
         <v>43932</v>
       </c>
@@ -31475,7 +31776,7 @@
       <c r="AP58" s="90"/>
       <c r="AQ58" s="89"/>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
         <v>43933</v>
       </c>
@@ -31604,7 +31905,7 @@
       </c>
       <c r="AQ59" s="89"/>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
         <v>43934</v>
       </c>
@@ -31739,7 +32040,7 @@
       </c>
       <c r="AS60" s="89"/>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
         <v>43935</v>
       </c>
@@ -31880,17 +32181,15 @@
       </c>
       <c r="AU61" s="89"/>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>43936</v>
       </c>
-      <c r="B62" s="49">
-        <f>B61*EXP( 0.045)</f>
-        <v>642141.85880792257</v>
-      </c>
-      <c r="C62" s="48">
-        <f>B62* 0.045</f>
-        <v>28896.383646356513</v>
+      <c r="B62" s="47">
+        <v>644089</v>
+      </c>
+      <c r="C62" s="52">
+        <v>28529</v>
       </c>
       <c r="D62" s="24">
         <v>6015290</v>
@@ -32024,18 +32323,22 @@
       <c r="AU62" s="14">
         <v>28896</v>
       </c>
-    </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV62" s="90">
+        <v>43936</v>
+      </c>
+      <c r="AW62" s="89"/>
+    </row>
+    <row r="63" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>43937</v>
       </c>
       <c r="B63" s="49">
         <f t="shared" ref="B63:B83" si="0">B62*EXP( 0.045)</f>
-        <v>671698.27432665671</v>
+        <v>673735.03826074558</v>
       </c>
       <c r="C63" s="48">
         <f t="shared" ref="C63:C83" si="1">B63* 0.045</f>
-        <v>30226.422344699549</v>
+        <v>30318.076721733549</v>
       </c>
       <c r="D63" s="24">
         <v>7451420</v>
@@ -32169,18 +32472,24 @@
       <c r="AU63" s="24">
         <v>30226</v>
       </c>
-    </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV63" s="14">
+        <v>673735</v>
+      </c>
+      <c r="AW63" s="14">
+        <v>30318</v>
+      </c>
+    </row>
+    <row r="64" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>43938</v>
       </c>
       <c r="B64" s="49">
         <f t="shared" si="0"/>
-        <v>702615.10839829093</v>
+        <v>704745.62021740526</v>
       </c>
       <c r="C64" s="48">
         <f t="shared" si="1"/>
-        <v>31617.679877923092</v>
+        <v>31713.552909783237</v>
       </c>
       <c r="D64" s="24">
         <v>9230421</v>
@@ -32314,18 +32623,24 @@
       <c r="AU64" s="24">
         <v>31618</v>
       </c>
-    </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV64" s="24">
+        <v>704746</v>
+      </c>
+      <c r="AW64" s="24">
+        <v>31714</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>43939</v>
       </c>
       <c r="B65" s="49">
         <f t="shared" si="0"/>
-        <v>734954.97817739542</v>
+        <v>737183.55289605376</v>
       </c>
       <c r="C65" s="48">
         <f t="shared" si="1"/>
-        <v>33072.974017982793</v>
+        <v>33173.259880322417</v>
       </c>
       <c r="D65" s="24">
         <v>11434152</v>
@@ -32459,18 +32774,24 @@
       <c r="AU65" s="24">
         <v>33073</v>
       </c>
-    </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV65" s="24">
+        <v>737184</v>
+      </c>
+      <c r="AW65" s="24">
+        <v>33173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>43940</v>
       </c>
       <c r="B66" s="49">
         <f t="shared" si="0"/>
-        <v>768783.38295215869</v>
+        <v>771114.53419576352</v>
       </c>
       <c r="C66" s="48">
         <f t="shared" si="1"/>
-        <v>34595.252232847139</v>
+        <v>34700.154038809356</v>
       </c>
       <c r="D66" s="24">
         <v>14164016</v>
@@ -32604,18 +32925,24 @@
       <c r="AU66" s="24">
         <v>34595</v>
       </c>
-    </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV66" s="24">
+        <v>771115</v>
+      </c>
+      <c r="AW66" s="24">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>43941</v>
       </c>
       <c r="B67" s="49">
         <f t="shared" si="0"/>
-        <v>804168.8368028301</v>
+        <v>806607.28594930167</v>
       </c>
       <c r="C67" s="48">
         <f t="shared" si="1"/>
-        <v>36187.597656127356</v>
+        <v>36297.327867718574</v>
       </c>
       <c r="D67" s="24">
         <v>17545625</v>
@@ -32749,18 +33076,24 @@
       <c r="AU67" s="24">
         <v>36188</v>
       </c>
-    </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV67" s="24">
+        <v>806607</v>
+      </c>
+      <c r="AW67" s="24">
+        <v>36297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>43942</v>
       </c>
       <c r="B68" s="49">
         <f t="shared" si="0"/>
-        <v>841183.00736614666</v>
+        <v>843733.69310832652</v>
       </c>
       <c r="C68" s="48">
         <f t="shared" si="1"/>
-        <v>37853.235331476601</v>
+        <v>37968.016189874696</v>
       </c>
       <c r="D68" s="24">
         <v>21734582</v>
@@ -32894,18 +33227,24 @@
       <c r="AU68" s="24">
         <v>37853</v>
       </c>
-    </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV68" s="24">
+        <v>843734</v>
+      </c>
+      <c r="AW68" s="24">
+        <v>37968</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>43943</v>
       </c>
       <c r="B69" s="49">
         <f t="shared" si="0"/>
-        <v>879900.86098678887</v>
+        <v>882568.94933498092</v>
       </c>
       <c r="C69" s="48">
         <f t="shared" si="1"/>
-        <v>39595.538744405501</v>
+        <v>39715.602720074137</v>
       </c>
       <c r="D69" s="24">
         <v>26923638</v>
@@ -33039,18 +33378,24 @@
       <c r="AU69" s="24">
         <v>39596</v>
       </c>
-    </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV69" s="24">
+        <v>882569</v>
+      </c>
+      <c r="AW69" s="24">
+        <v>39716</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>43944</v>
       </c>
       <c r="B70" s="49">
         <f t="shared" si="0"/>
-        <v>920400.8145498482</v>
+        <v>923191.7092947549</v>
       </c>
       <c r="C70" s="48">
         <f t="shared" si="1"/>
-        <v>41418.036654743169</v>
+        <v>41543.626918263966</v>
       </c>
       <c r="D70" s="24">
         <v>33351563</v>
@@ -33184,18 +33529,24 @@
       <c r="AU70" s="24">
         <v>41418</v>
       </c>
-    </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV70" s="24">
+        <v>923192</v>
+      </c>
+      <c r="AW70" s="24">
+        <v>41544</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>43945</v>
       </c>
       <c r="B71" s="49">
         <f t="shared" si="0"/>
-        <v>962764.89430181752</v>
+        <v>965684.24795906281</v>
       </c>
       <c r="C71" s="48">
         <f t="shared" si="1"/>
-        <v>43324.420243581786</v>
+        <v>43455.791158157823</v>
       </c>
       <c r="D71" s="24">
         <v>41314133</v>
@@ -33329,18 +33680,24 @@
       <c r="AU71" s="24">
         <v>43324</v>
       </c>
-    </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV71" s="24">
+        <v>965684</v>
+      </c>
+      <c r="AW71" s="24">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>43946</v>
       </c>
       <c r="B72" s="49">
         <f t="shared" si="0"/>
-        <v>1007078.9019817723</v>
+        <v>1010132.6272401772</v>
       </c>
       <c r="C72" s="48">
         <f t="shared" si="1"/>
-        <v>45318.550589179751</v>
+        <v>45455.968225807977</v>
       </c>
       <c r="D72" s="24">
         <v>51177738</v>
@@ -33474,18 +33831,24 @@
       <c r="AU72" s="24">
         <v>45319</v>
       </c>
-    </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV72" s="24">
+        <v>1010133</v>
+      </c>
+      <c r="AW72" s="24">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>43947</v>
       </c>
       <c r="B73" s="49">
         <f t="shared" si="0"/>
-        <v>1053432.5885992139</v>
+        <v>1056626.8702960124</v>
       </c>
       <c r="C73" s="48">
         <f t="shared" si="1"/>
-        <v>47404.466486964622</v>
+        <v>47548.209163320556</v>
       </c>
       <c r="D73" s="24">
         <v>63396245</v>
@@ -33619,18 +33982,24 @@
       <c r="AU73" s="24">
         <v>47404</v>
       </c>
-    </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV73" s="24">
+        <v>1056627</v>
+      </c>
+      <c r="AW73" s="24">
+        <v>47548</v>
+      </c>
+    </row>
+    <row r="74" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>43948</v>
       </c>
       <c r="B74" s="49">
         <f t="shared" si="0"/>
-        <v>1101919.8362105356</v>
+        <v>1105261.1438577832</v>
       </c>
       <c r="C74" s="48">
         <f t="shared" si="1"/>
-        <v>49586.392629474103</v>
+        <v>49736.751473600241</v>
       </c>
       <c r="D74" s="24">
         <v>78531878</v>
@@ -33764,18 +34133,24 @@
       <c r="AU74" s="24">
         <v>49586</v>
       </c>
-    </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV74" s="24">
+        <v>1105261</v>
+      </c>
+      <c r="AW74" s="24">
+        <v>49737</v>
+      </c>
+    </row>
+    <row r="75" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>43949</v>
       </c>
       <c r="B75" s="49">
         <f t="shared" si="0"/>
-        <v>1152638.8480622706</v>
+        <v>1156133.9489498176</v>
       </c>
       <c r="C75" s="48">
         <f t="shared" si="1"/>
-        <v>51868.748162802171</v>
+        <v>52026.027702741791</v>
       </c>
       <c r="D75" s="24">
         <v>97281091</v>
@@ -33909,18 +34284,24 @@
       <c r="AU75" s="24">
         <v>51869</v>
       </c>
-    </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV75" s="24">
+        <v>1156134</v>
+      </c>
+      <c r="AW75" s="24">
+        <v>52026</v>
+      </c>
+    </row>
+    <row r="76" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>43950</v>
       </c>
       <c r="B76" s="49">
         <f t="shared" si="0"/>
-        <v>1205692.3474862257</v>
+        <v>1209348.3203877914</v>
       </c>
       <c r="C76" s="48">
         <f t="shared" si="1"/>
-        <v>54256.155636880154</v>
+        <v>54420.674417450609</v>
       </c>
       <c r="D76" s="24">
         <v>120506614</v>
@@ -34054,18 +34435,24 @@
       <c r="AU76" s="24">
         <v>54256</v>
       </c>
-    </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV76" s="24">
+        <v>1209348</v>
+      </c>
+      <c r="AW76" s="24">
+        <v>54421</v>
+      </c>
+    </row>
+    <row r="77" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>43951</v>
       </c>
       <c r="B77" s="49">
         <f t="shared" si="0"/>
-        <v>1261187.7859493338</v>
+        <v>1265012.0354594428</v>
       </c>
       <c r="C77" s="48">
         <f t="shared" si="1"/>
-        <v>56753.450367720019</v>
+        <v>56925.54159567492</v>
       </c>
       <c r="D77" s="24">
         <v>149277149</v>
@@ -34199,18 +34586,24 @@
       <c r="AU77" s="24">
         <v>56753</v>
       </c>
-    </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV77" s="24">
+        <v>1265012</v>
+      </c>
+      <c r="AW77" s="24">
+        <v>56926</v>
+      </c>
+    </row>
+    <row r="78" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>43952</v>
       </c>
       <c r="B78" s="49">
         <f t="shared" si="0"/>
-        <v>1319237.5606795945</v>
+        <v>1323237.8322104109</v>
       </c>
       <c r="C78" s="48">
         <f t="shared" si="1"/>
-        <v>59365.690230581749</v>
+        <v>59545.702449468488</v>
       </c>
       <c r="D78" s="24">
         <v>184916549</v>
@@ -34344,18 +34737,24 @@
       <c r="AU78" s="24">
         <v>59366</v>
       </c>
-    </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV78" s="24">
+        <v>1323238</v>
+      </c>
+      <c r="AW78" s="24">
+        <v>59546</v>
+      </c>
+    </row>
+    <row r="79" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>43953</v>
       </c>
       <c r="B79" s="49">
         <f t="shared" si="0"/>
-        <v>1379959.2423088723</v>
+        <v>1384143.6377773059</v>
       </c>
       <c r="C79" s="48">
         <f t="shared" si="1"/>
-        <v>62098.165903899251</v>
+        <v>62286.463699978762</v>
       </c>
       <c r="D79" s="24">
         <v>229064732</v>
@@ -34489,18 +34888,24 @@
       <c r="AU79" s="24">
         <v>62098</v>
       </c>
-    </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV79" s="24">
+        <v>1384144</v>
+      </c>
+      <c r="AW79" s="24">
+        <v>62286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <v>43954</v>
       </c>
       <c r="B80" s="49">
         <f t="shared" si="0"/>
-        <v>1443475.8129936042</v>
+        <v>1447852.8072304616</v>
       </c>
       <c r="C80" s="48">
         <f t="shared" si="1"/>
-        <v>64956.411584712187</v>
+        <v>65153.376325370773</v>
       </c>
       <c r="D80" s="24">
         <v>283753141</v>
@@ -34634,18 +35039,24 @@
       <c r="AU80" s="24">
         <v>64956</v>
       </c>
-    </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV80" s="24">
+        <v>1447853</v>
+      </c>
+      <c r="AW80" s="24">
+        <v>65153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>43955</v>
       </c>
       <c r="B81" s="49">
         <f t="shared" si="0"/>
-        <v>1509915.9154956951</v>
+        <v>1514494.3734101078</v>
       </c>
       <c r="C81" s="48">
         <f t="shared" si="1"/>
-        <v>67946.216197306276</v>
+        <v>68152.246803454851</v>
       </c>
       <c r="D81" s="24">
         <v>351498217</v>
@@ -34779,18 +35190,24 @@
       <c r="AU81" s="24">
         <v>67946</v>
       </c>
-    </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV81" s="24">
+        <v>1514494</v>
+      </c>
+      <c r="AW81" s="24">
+        <v>68152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>43956</v>
       </c>
       <c r="B82" s="49">
         <f t="shared" si="0"/>
-        <v>1579414.113728073</v>
+        <v>1584203.3082619682</v>
       </c>
       <c r="C82" s="48">
         <f t="shared" si="1"/>
-        <v>71073.635117763275</v>
+        <v>71289.148871788566</v>
       </c>
       <c r="D82" s="24">
         <v>435417194</v>
@@ -34924,18 +35341,24 @@
       <c r="AU82" s="24">
         <v>71074</v>
       </c>
-    </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV82" s="24">
+        <v>1584203</v>
+      </c>
+      <c r="AW82" s="24">
+        <v>71289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>43957</v>
       </c>
       <c r="B83" s="49">
         <f t="shared" si="0"/>
-        <v>1652111.165292599</v>
+        <v>1657120.796201576</v>
       </c>
       <c r="C83" s="48">
         <f t="shared" si="1"/>
-        <v>74345.00243816695</v>
+        <v>74570.435829070921</v>
       </c>
       <c r="D83" s="24">
         <v>539371535</v>
@@ -35069,55 +35492,61 @@
       <c r="AU83" s="24">
         <v>74345</v>
       </c>
-    </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV83" s="24">
+        <v>1657121</v>
+      </c>
+      <c r="AW83" s="24">
+        <v>74570</v>
+      </c>
+    </row>
+    <row r="84" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A84" s="11"/>
       <c r="B84" s="47"/>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
       <c r="B85" s="47"/>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A86" s="11"/>
       <c r="B86" s="47"/>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A87" s="11"/>
       <c r="B87" s="47"/>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A88" s="11"/>
       <c r="B88" s="47"/>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A89" s="11"/>
       <c r="B89" s="47"/>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A90" s="11"/>
       <c r="B90" s="47"/>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A91" s="11"/>
       <c r="B91" s="47"/>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A92" s="11"/>
       <c r="B92" s="47"/>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A93" s="11"/>
       <c r="B93" s="47"/>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A94" s="11"/>
       <c r="B94" s="47"/>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A95" s="11"/>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A96" s="11"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
@@ -35217,8 +35646,9 @@
       <c r="A128" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="AT61:AU61"/>
+    <mergeCell ref="AV62:AW62"/>
     <mergeCell ref="X49:Y49"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="F40:G40"/>
@@ -35252,8 +35682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DF60C3-BEC7-A941-96A4-57B239A15712}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35598,7 +36028,7 @@
         <v>316</v>
       </c>
       <c r="D21" s="69">
-        <f t="shared" ref="D21:D45" si="1">C21/B21</f>
+        <f t="shared" ref="D21:D46" si="1">C21/B21</f>
         <v>1.2202656780970034E-2</v>
       </c>
       <c r="H21" s="11">
@@ -36202,7 +36632,7 @@
         <v>74</v>
       </c>
       <c r="L41" s="16">
-        <f t="shared" ref="L41:L44" si="2">I41*EXP(J41)</f>
+        <f t="shared" ref="L41:L45" si="2">I41*EXP(J41)</f>
         <v>537879.05200578982</v>
       </c>
     </row>
@@ -36313,24 +36743,46 @@
         <f t="shared" si="1"/>
         <v>4.2429701931628996E-2</v>
       </c>
-      <c r="H45" s="11" t="s">
-        <v>98</v>
+      <c r="H45" s="11">
+        <v>43935</v>
       </c>
       <c r="I45" s="47">
         <v>613886</v>
       </c>
+      <c r="J45" s="69">
+        <v>4.8028000000000001E-2</v>
+      </c>
       <c r="K45" t="s">
         <v>74</v>
       </c>
-      <c r="L45" s="16"/>
+      <c r="L45" s="16">
+        <f t="shared" si="2"/>
+        <v>644089.21115994989</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="69"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="47"/>
+      <c r="A46" s="11">
+        <v>43936</v>
+      </c>
+      <c r="B46" s="47">
+        <v>644089</v>
+      </c>
+      <c r="C46" s="52">
+        <v>26047</v>
+      </c>
+      <c r="D46" s="69">
+        <f t="shared" si="1"/>
+        <v>4.0440063407386248E-2</v>
+      </c>
+      <c r="H46" s="11">
+        <v>43936</v>
+      </c>
+      <c r="I46" s="47">
+        <v>644089</v>
+      </c>
+      <c r="K46" t="s">
+        <v>74</v>
+      </c>
       <c r="L46" s="16"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -36387,8 +36839,8 @@
   <dimension ref="A1:AF133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38703,7 +39155,9 @@
       <c r="A86" s="11">
         <v>43936</v>
       </c>
-      <c r="B86" s="47"/>
+      <c r="B86" s="47">
+        <v>28379</v>
+      </c>
       <c r="D86" s="48">
         <f>B85*EXP(0.05)</f>
         <v>28450.54968122434</v>
@@ -38799,11 +39253,11 @@
       </c>
       <c r="B87" s="47">
         <f t="shared" ref="B85:B125" si="5">D87</f>
-        <v>0</v>
+        <v>29834.02244405519</v>
       </c>
       <c r="D87" s="48">
         <f t="shared" ref="D87:D133" si="6">B86*EXP(0.05)</f>
-        <v>0</v>
+        <v>29834.02244405519</v>
       </c>
       <c r="E87" s="36">
         <v>131714.16329999999</v>
@@ -38896,11 +39350,11 @@
       </c>
       <c r="B88" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>31363.645484068809</v>
       </c>
       <c r="D88" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>31363.645484068809</v>
       </c>
       <c r="E88" s="36">
         <v>157564.38130000001</v>
@@ -38993,11 +39447,11 @@
       </c>
       <c r="B89" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>32971.693974385955</v>
       </c>
       <c r="D89" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>32971.693974385955</v>
       </c>
       <c r="E89" s="36">
         <v>188487.96239999999</v>
@@ -39090,11 +39544,11 @@
       </c>
       <c r="B90" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>34662.188873827472</v>
       </c>
       <c r="D90" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>34662.188873827472</v>
       </c>
       <c r="E90" s="36">
         <v>225480.6047</v>
@@ -39187,11 +39641,11 @@
       </c>
       <c r="B91" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>36439.357300181429</v>
       </c>
       <c r="D91" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>36439.357300181429</v>
       </c>
       <c r="E91" s="36">
         <v>269733.42190000002</v>
@@ -39284,11 +39738,11 @@
       </c>
       <c r="B92" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>38307.643100199406</v>
       </c>
       <c r="D92" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>38307.643100199406</v>
       </c>
       <c r="E92" s="36">
         <v>322671.29580000002</v>
@@ -39381,11 +39835,11 @@
       </c>
       <c r="B93" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>40271.717961528062</v>
       </c>
       <c r="D93" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>40271.717961528062</v>
       </c>
       <c r="E93" s="36">
         <v>385998.75530000002</v>
@@ -39478,11 +39932,11 @@
       </c>
       <c r="B94" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>42336.493094361627</v>
       </c>
       <c r="D94" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>42336.493094361627</v>
       </c>
       <c r="E94" s="36">
         <v>461754.8603</v>
@@ -39575,11 +40029,11 @@
       </c>
       <c r="B95" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>44507.131512025524</v>
       </c>
       <c r="D95" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>44507.131512025524</v>
       </c>
       <c r="E95" s="36">
         <v>552378.85640000005</v>
@@ -39672,11 +40126,11 @@
       </c>
       <c r="B96" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>46789.060941198964</v>
       </c>
       <c r="D96" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>46789.060941198964</v>
       </c>
       <c r="E96" s="36">
         <v>660788.71539999999</v>
@@ -39769,11 +40223,11 @@
       </c>
       <c r="B97" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>49187.987394058844</v>
       </c>
       <c r="D97" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>49187.987394058844</v>
       </c>
       <c r="E97" s="36">
         <v>790475.09039999999</v>
@@ -39866,11 +40320,11 @@
       </c>
       <c r="B98" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>51709.909436282294</v>
       </c>
       <c r="D98" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>51709.909436282294</v>
       </c>
       <c r="E98" s="36">
         <v>945613.70970000001</v>
@@ -39963,11 +40417,11 @@
       </c>
       <c r="B99" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>54361.133186585401</v>
       </c>
       <c r="D99" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>54361.133186585401</v>
       </c>
       <c r="E99" s="36">
         <v>1131199.83</v>
@@ -40060,11 +40514,11 @@
       </c>
       <c r="B100" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>57148.288085304703</v>
       </c>
       <c r="D100" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>57148.288085304703</v>
       </c>
       <c r="E100" s="36">
         <v>1353209.077</v>
@@ -40157,11 +40611,11 @@
       </c>
       <c r="B101" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>60078.343471451153</v>
       </c>
       <c r="D101" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>60078.343471451153</v>
       </c>
       <c r="E101" s="36">
         <v>1618789.8529999999</v>
@@ -40254,11 +40708,11 @@
       </c>
       <c r="B102" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>63158.626009687803</v>
       </c>
       <c r="D102" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>63158.626009687803</v>
       </c>
       <c r="E102" s="36">
         <v>1936493.5049999999</v>
@@ -40351,11 +40805,11 @@
       </c>
       <c r="B103" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>66396.838010807769</v>
       </c>
       <c r="D103" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>66396.838010807769</v>
       </c>
       <c r="E103" s="36">
         <v>2316549.6660000002</v>
@@ -40448,11 +40902,11 @@
       </c>
       <c r="B104" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>69801.076691523151</v>
       </c>
       <c r="D104" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>69801.076691523151</v>
       </c>
       <c r="E104" s="36">
         <v>2771195.64</v>
@@ -40545,11 +40999,11 @@
       </c>
       <c r="B105" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>73379.854421724478</v>
       </c>
       <c r="D105" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>73379.854421724478</v>
       </c>
       <c r="E105" s="36">
         <v>3315070.4190000002</v>
@@ -40642,11 +41096,11 @@
       </c>
       <c r="B106" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>77142.120009839331</v>
       </c>
       <c r="D106" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>77142.120009839331</v>
       </c>
       <c r="E106" s="36">
         <v>3965686.0469999998</v>
@@ -40739,11 +41193,11 @@
       </c>
       <c r="B107" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>81097.281079514622</v>
       </c>
       <c r="D107" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>81097.281079514622</v>
       </c>
       <c r="E107" s="36">
         <v>4743991.4809999997</v>
@@ -40836,11 +41290,11 @@
       </c>
       <c r="B108" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>85255.227593575939</v>
       </c>
       <c r="D108" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>85255.227593575939</v>
       </c>
       <c r="E108" s="36">
         <v>5675047.1169999996</v>
@@ -40933,11 +41387,11 @@
       </c>
       <c r="B109" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>89626.356584086039</v>
       </c>
       <c r="D109" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>89626.356584086039</v>
       </c>
       <c r="E109" s="36">
         <v>6788831.7070000004</v>
@@ -41030,11 +41484,11 @@
       </c>
       <c r="B110" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>94221.598150340622</v>
       </c>
       <c r="D110" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>94221.598150340622</v>
       </c>
       <c r="E110" s="36">
         <v>8121207.6289999997</v>
@@ -41127,11 +41581,11 @@
       </c>
       <c r="B111" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>99052.442789809749</v>
       </c>
       <c r="D111" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>99052.442789809749</v>
       </c>
       <c r="E111" s="36">
         <v>9715075.6129999999</v>
@@ -41224,11 +41678,11 @@
       </c>
       <c r="B112" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>104130.9701303667</v>
       </c>
       <c r="D112" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>104130.9701303667</v>
       </c>
       <c r="E112" s="36">
         <v>11621756.08</v>
@@ -41321,11 +41775,11 @@
       </c>
       <c r="B113" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>109469.87913564961</v>
       </c>
       <c r="D113" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>109469.87913564961</v>
       </c>
       <c r="E113" s="36">
         <v>13902641.609999999</v>
@@ -41418,11 +41872,11 @@
       </c>
       <c r="B114" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>115082.51985908521</v>
       </c>
       <c r="D114" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>115082.51985908521</v>
       </c>
       <c r="E114" s="36">
         <v>16631173.67</v>
@@ -41515,11 +41969,11 @@
       </c>
       <c r="B115" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>120982.92682597607</v>
       </c>
       <c r="D115" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>120982.92682597607</v>
       </c>
       <c r="E115" s="36">
         <v>19895207.350000001</v>
@@ -41612,11 +42066,11 @@
       </c>
       <c r="B116" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>127185.85412712417</v>
       </c>
       <c r="D116" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>127185.85412712417</v>
       </c>
       <c r="E116" s="36">
         <v>23799840.190000001</v>
@@ -41709,11 +42163,11 @@
       </c>
       <c r="B117" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>133706.81231174289</v>
       </c>
       <c r="D117" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>133706.81231174289</v>
       </c>
       <c r="E117" s="36">
         <v>28470796.16</v>
@@ -41806,11 +42260,11 @@
       </c>
       <c r="B118" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>140562.10717190924</v>
       </c>
       <c r="D118" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>140562.10717190924</v>
       </c>
       <c r="E118" s="36">
         <v>34058473.829999998</v>
@@ -41903,11 +42357,11 @@
       </c>
       <c r="B119" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>147768.88051553722</v>
       </c>
       <c r="D119" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>147768.88051553722</v>
       </c>
       <c r="E119" s="36">
         <v>40742788.960000001</v>
@@ -42000,11 +42454,11 @@
       </c>
       <c r="B120" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>155345.15302982653</v>
       </c>
       <c r="D120" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>155345.15302982653</v>
       </c>
       <c r="E120" s="36">
         <v>48738967.590000004</v>
@@ -42097,11 +42551,11 @@
       </c>
       <c r="B121" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>163309.86934236699</v>
       </c>
       <c r="D121" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>163309.86934236699</v>
       </c>
       <c r="E121" s="36">
         <v>58304476.009999998</v>
@@ -42194,11 +42648,11 @@
       </c>
       <c r="B122" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>171682.94539257541</v>
       </c>
       <c r="D122" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>171682.94539257541</v>
       </c>
       <c r="E122" s="36">
         <v>69747310.859999999</v>
@@ -42291,11 +42745,11 @@
       </c>
       <c r="B123" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180485.31823191783</v>
       </c>
       <c r="D123" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>180485.31823191783</v>
       </c>
       <c r="E123" s="36">
         <v>83435916.150000006</v>
@@ -42388,11 +42842,11 @@
       </c>
       <c r="B124" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>189738.99837744387</v>
       </c>
       <c r="D124" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>189738.99837744387</v>
       </c>
       <c r="E124" s="36">
         <v>99811046.739999995</v>
@@ -42485,11 +42939,11 @@
       </c>
       <c r="B125" s="47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>199467.12484954408</v>
       </c>
       <c r="D125" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>199467.12484954408</v>
       </c>
       <c r="E125" s="36">
         <v>119399960</v>
@@ -42582,11 +43036,11 @@
       </c>
       <c r="B126" s="47">
         <f t="shared" ref="B126:B133" si="7">D126</f>
-        <v>0</v>
+        <v>209694.02303155349</v>
       </c>
       <c r="D126" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>209694.02303155349</v>
       </c>
       <c r="E126" s="36">
         <v>142833392.80000001</v>
@@ -42679,11 +43133,11 @@
       </c>
       <c r="B127" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>220445.26549588048</v>
       </c>
       <c r="D127" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>220445.26549588048</v>
       </c>
       <c r="E127" s="36">
         <v>170865870.5</v>
@@ -42776,11 +43230,11 @@
       </c>
       <c r="B128" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>231747.735948758</v>
       </c>
       <c r="D128" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>231747.735948758</v>
       </c>
       <c r="E128" s="36">
         <v>204400001.59999999</v>
@@ -42873,11 +43327,11 @@
       </c>
       <c r="B129" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>243629.69645351215</v>
       </c>
       <c r="D129" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>243629.69645351215</v>
       </c>
       <c r="E129" s="36">
         <v>244515540.19999999</v>
@@ -42970,11 +43424,11 @@
       </c>
       <c r="B130" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>256120.85810044166</v>
       </c>
       <c r="D130" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>256120.85810044166</v>
       </c>
       <c r="E130" s="36">
         <v>292504153.30000001</v>
@@ -43067,11 +43521,11 @@
       </c>
       <c r="B131" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>269252.45530001941</v>
       </c>
       <c r="D131" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>269252.45530001941</v>
       </c>
       <c r="E131" s="36">
         <v>349911010.30000001</v>
@@ -43164,11 +43618,11 @@
       </c>
       <c r="B132" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>283057.32388518786</v>
       </c>
       <c r="D132" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>283057.32388518786</v>
       </c>
       <c r="E132" s="36">
         <v>418584535.5</v>
@@ -43261,11 +43715,11 @@
       </c>
       <c r="B133" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>297569.9832180448</v>
       </c>
       <c r="D133" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>297569.9832180448</v>
       </c>
       <c r="E133" s="36">
         <v>500735924.80000001</v>
@@ -43367,11 +43821,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE7191-96E7-3B4B-B5CF-F14CB9DCB66F}">
-  <dimension ref="A1:AS133"/>
+  <dimension ref="A1:AU133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45251,7 +45705,7 @@
       </c>
       <c r="AI80" s="89"/>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>43931</v>
       </c>
@@ -45367,7 +45821,7 @@
       </c>
       <c r="AK81" s="89"/>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>43932</v>
       </c>
@@ -45489,7 +45943,7 @@
       </c>
       <c r="AM82" s="89"/>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>43933</v>
       </c>
@@ -45617,7 +46071,7 @@
       </c>
       <c r="AO83" s="89"/>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>43934</v>
       </c>
@@ -45762,7 +46216,7 @@
       </c>
       <c r="AQ84" s="89"/>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>43935</v>
       </c>
@@ -45902,16 +46356,18 @@
       </c>
       <c r="AS85" s="89"/>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>43936</v>
       </c>
-      <c r="B86" s="49">
-        <f t="shared" ref="B85:B131" si="11">D86</f>
-        <v>28450.54968122434</v>
+      <c r="B86" s="47">
+        <v>28379</v>
+      </c>
+      <c r="C86" s="85">
+        <v>1070</v>
       </c>
       <c r="D86" s="45">
-        <f t="shared" ref="D86:D133" si="12">B85*EXP(0.05)</f>
+        <f t="shared" ref="D86:D133" si="11">B85*EXP(0.05)</f>
         <v>28450.54968122434</v>
       </c>
       <c r="E86" s="45">
@@ -46041,22 +46497,26 @@
       <c r="AS86" s="14">
         <v>1138</v>
       </c>
-    </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT86" s="90">
+        <v>43936</v>
+      </c>
+      <c r="AU86" s="89"/>
+    </row>
+    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>43937</v>
       </c>
       <c r="B87" s="49">
+        <f t="shared" ref="B85:B131" si="12">D87</f>
+        <v>29834.02244405519</v>
+      </c>
+      <c r="D87" s="45">
         <f t="shared" si="11"/>
-        <v>29909.240555881257</v>
-      </c>
-      <c r="D87" s="45">
-        <f t="shared" si="12"/>
-        <v>29909.240555881257</v>
+        <v>29834.02244405519</v>
       </c>
       <c r="E87" s="45">
         <f t="shared" ref="E87:E133" si="13">D87*0.04</f>
-        <v>1196.3696222352503</v>
+        <v>1193.3608977622077</v>
       </c>
       <c r="F87" s="24">
         <v>279438</v>
@@ -46181,22 +46641,28 @@
       <c r="AS87" s="24">
         <v>1196</v>
       </c>
-    </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT87" s="14">
+        <v>29834</v>
+      </c>
+      <c r="AU87" s="14">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>43938</v>
       </c>
       <c r="B88" s="49">
+        <f t="shared" si="12"/>
+        <v>31363.645484068809</v>
+      </c>
+      <c r="D88" s="45">
         <f t="shared" si="11"/>
-        <v>31442.720110955535</v>
-      </c>
-      <c r="D88" s="45">
-        <f t="shared" si="12"/>
-        <v>31442.720110955535</v>
+        <v>31363.645484068809</v>
       </c>
       <c r="E88" s="45">
         <f t="shared" si="13"/>
-        <v>1257.7088044382215</v>
+        <v>1254.5458193627524</v>
       </c>
       <c r="F88" s="24">
         <v>341887</v>
@@ -46321,22 +46787,28 @@
       <c r="AS88" s="24">
         <v>1258</v>
       </c>
-    </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT88" s="24">
+        <v>31364</v>
+      </c>
+      <c r="AU88" s="24">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <v>43939</v>
       </c>
       <c r="B89" s="49">
+        <f t="shared" si="12"/>
+        <v>32971.693974385955</v>
+      </c>
+      <c r="D89" s="45">
         <f t="shared" si="11"/>
-        <v>33054.822844088689</v>
-      </c>
-      <c r="D89" s="45">
-        <f t="shared" si="12"/>
-        <v>33054.822844088689</v>
+        <v>32971.693974385955</v>
       </c>
       <c r="E89" s="45">
         <f t="shared" si="13"/>
-        <v>1322.1929137635475</v>
+        <v>1318.8677589754382</v>
       </c>
       <c r="F89" s="24">
         <v>418293</v>
@@ -46461,22 +46933,28 @@
       <c r="AS89" s="24">
         <v>1322</v>
       </c>
-    </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT89" s="24">
+        <v>32972</v>
+      </c>
+      <c r="AU89" s="24">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>43940</v>
       </c>
       <c r="B90" s="49">
+        <f t="shared" si="12"/>
+        <v>34662.188873827472</v>
+      </c>
+      <c r="D90" s="45">
         <f t="shared" si="11"/>
-        <v>34749.579851820366</v>
-      </c>
-      <c r="D90" s="45">
-        <f t="shared" si="12"/>
-        <v>34749.579851820366</v>
+        <v>34662.188873827472</v>
       </c>
       <c r="E90" s="45">
         <f t="shared" si="13"/>
-        <v>1389.9831940728147</v>
+        <v>1386.4875549530989</v>
       </c>
       <c r="F90" s="24">
         <v>511773</v>
@@ -46601,22 +47079,28 @@
       <c r="AS90" s="24">
         <v>1390</v>
       </c>
-    </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT90" s="24">
+        <v>34662</v>
+      </c>
+      <c r="AU90" s="24">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <v>43941</v>
       </c>
       <c r="B91" s="49">
+        <f t="shared" si="12"/>
+        <v>36439.357300181429</v>
+      </c>
+      <c r="D91" s="45">
         <f t="shared" si="11"/>
-        <v>36531.228909429396</v>
-      </c>
-      <c r="D91" s="45">
-        <f t="shared" si="12"/>
-        <v>36531.228909429396</v>
+        <v>36439.357300181429</v>
       </c>
       <c r="E91" s="45">
         <f t="shared" si="13"/>
-        <v>1461.249156377176</v>
+        <v>1457.5742920072571</v>
       </c>
       <c r="F91" s="24">
         <v>626145</v>
@@ -46741,22 +47225,28 @@
       <c r="AS91" s="24">
         <v>1461</v>
       </c>
-    </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT91" s="24">
+        <v>36439</v>
+      </c>
+      <c r="AU91" s="24">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
         <v>43942</v>
       </c>
       <c r="B92" s="49">
+        <f t="shared" si="12"/>
+        <v>38307.643100199406</v>
+      </c>
+      <c r="D92" s="45">
         <f t="shared" si="11"/>
-        <v>38404.225067579348</v>
-      </c>
-      <c r="D92" s="45">
-        <f t="shared" si="12"/>
-        <v>38404.225067579348</v>
+        <v>38307.643100199406</v>
       </c>
       <c r="E92" s="45">
         <f t="shared" si="13"/>
-        <v>1536.1690027031739</v>
+        <v>1532.3057240079763</v>
       </c>
       <c r="F92" s="24">
         <v>766076</v>
@@ -46881,22 +47371,28 @@
       <c r="AS92" s="24">
         <v>1536</v>
       </c>
-    </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT92" s="24">
+        <v>38308</v>
+      </c>
+      <c r="AU92" s="24">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>43943</v>
       </c>
       <c r="B93" s="49">
+        <f t="shared" si="12"/>
+        <v>40271.717961528062</v>
+      </c>
+      <c r="D93" s="45">
         <f t="shared" si="11"/>
-        <v>40373.251792265728</v>
-      </c>
-      <c r="D93" s="45">
-        <f t="shared" si="12"/>
-        <v>40373.251792265728</v>
+        <v>40271.717961528062</v>
       </c>
       <c r="E93" s="45">
         <f t="shared" si="13"/>
-        <v>1614.9300716906291</v>
+        <v>1610.8687184611226</v>
       </c>
       <c r="F93" s="24">
         <v>937279</v>
@@ -47021,22 +47517,28 @@
       <c r="AS93" s="24">
         <v>1615</v>
       </c>
-    </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT93" s="24">
+        <v>40272</v>
+      </c>
+      <c r="AU93" s="24">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="94" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>43944</v>
       </c>
       <c r="B94" s="49">
+        <f t="shared" si="12"/>
+        <v>42336.493094361627</v>
+      </c>
+      <c r="D94" s="45">
         <f t="shared" si="11"/>
-        <v>42443.232675920473</v>
-      </c>
-      <c r="D94" s="45">
-        <f t="shared" si="12"/>
-        <v>42443.232675920473</v>
+        <v>42336.493094361627</v>
       </c>
       <c r="E94" s="45">
         <f t="shared" si="13"/>
-        <v>1697.7293070368189</v>
+        <v>1693.4597237744651</v>
       </c>
       <c r="F94" s="24">
         <v>1146743</v>
@@ -47161,22 +47663,28 @@
       <c r="AS94" s="24">
         <v>1698</v>
       </c>
-    </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT94" s="24">
+        <v>42336</v>
+      </c>
+      <c r="AU94" s="24">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>43945</v>
       </c>
       <c r="B95" s="49">
+        <f t="shared" si="12"/>
+        <v>44507.131512025524</v>
+      </c>
+      <c r="D95" s="45">
         <f t="shared" si="11"/>
-        <v>44619.34374895761</v>
-      </c>
-      <c r="D95" s="45">
-        <f t="shared" si="12"/>
-        <v>44619.34374895761</v>
+        <v>44507.131512025524</v>
       </c>
       <c r="E95" s="45">
         <f t="shared" si="13"/>
-        <v>1784.7737499583045</v>
+        <v>1780.2852604810209</v>
       </c>
       <c r="F95" s="24">
         <v>1403019</v>
@@ -47301,22 +47809,28 @@
       <c r="AS95" s="24">
         <v>1785</v>
       </c>
-    </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT95" s="24">
+        <v>44507</v>
+      </c>
+      <c r="AU95" s="24">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
         <v>43946</v>
       </c>
       <c r="B96" s="49">
+        <f t="shared" si="12"/>
+        <v>46789.060941198964</v>
+      </c>
+      <c r="D96" s="45">
         <f t="shared" si="11"/>
-        <v>46907.026422545365</v>
-      </c>
-      <c r="D96" s="45">
-        <f t="shared" si="12"/>
-        <v>46907.026422545365</v>
+        <v>46789.060941198964</v>
       </c>
       <c r="E96" s="45">
         <f t="shared" si="13"/>
-        <v>1876.2810569018147</v>
+        <v>1871.5624376479586</v>
       </c>
       <c r="F96" s="24">
         <v>1716566</v>
@@ -47441,22 +47955,28 @@
       <c r="AS96" s="24">
         <v>1876</v>
       </c>
-    </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT96" s="24">
+        <v>46789</v>
+      </c>
+      <c r="AU96" s="24">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A97" s="11">
         <v>43947</v>
       </c>
       <c r="B97" s="49">
+        <f t="shared" si="12"/>
+        <v>49187.987394058844</v>
+      </c>
+      <c r="D97" s="45">
         <f t="shared" si="11"/>
-        <v>49312.0010949684</v>
-      </c>
-      <c r="D97" s="45">
-        <f t="shared" si="12"/>
-        <v>49312.0010949684</v>
+        <v>49187.987394058844</v>
       </c>
       <c r="E97" s="45">
         <f t="shared" si="13"/>
-        <v>1972.480043798736</v>
+        <v>1967.5194957623537</v>
       </c>
       <c r="F97" s="24">
         <v>2100186</v>
@@ -47581,22 +48101,28 @@
       <c r="AS97" s="24">
         <v>1972</v>
       </c>
-    </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT97" s="24">
+        <v>49188</v>
+      </c>
+      <c r="AU97" s="24">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
         <v>43948</v>
       </c>
       <c r="B98" s="49">
+        <f t="shared" si="12"/>
+        <v>51709.909436282294</v>
+      </c>
+      <c r="D98" s="45">
         <f t="shared" si="11"/>
-        <v>51840.28145560313</v>
-      </c>
-      <c r="D98" s="45">
-        <f t="shared" si="12"/>
-        <v>51840.28145560313</v>
+        <v>51709.909436282294</v>
       </c>
       <c r="E98" s="45">
         <f t="shared" si="13"/>
-        <v>2073.6112582241253</v>
+        <v>2068.3963774512918</v>
       </c>
       <c r="F98" s="24">
         <v>2569538</v>
@@ -47721,22 +48247,28 @@
       <c r="AS98" s="24">
         <v>2074</v>
       </c>
-    </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT98" s="24">
+        <v>51710</v>
+      </c>
+      <c r="AU98" s="24">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
         <v>43949</v>
       </c>
       <c r="B99" s="49">
+        <f t="shared" si="12"/>
+        <v>54361.133186585401</v>
+      </c>
+      <c r="D99" s="45">
         <f t="shared" si="11"/>
-        <v>54498.189522273577</v>
-      </c>
-      <c r="D99" s="45">
-        <f t="shared" si="12"/>
-        <v>54498.189522273577</v>
+        <v>54361.133186585401</v>
       </c>
       <c r="E99" s="45">
         <f t="shared" si="13"/>
-        <v>2179.9275808909433</v>
+        <v>2174.4453274634161</v>
       </c>
       <c r="F99" s="24">
         <v>3143780</v>
@@ -47861,22 +48393,28 @@
       <c r="AS99" s="24">
         <v>2180</v>
       </c>
-    </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT99" s="24">
+        <v>54361</v>
+      </c>
+      <c r="AU99" s="24">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A100" s="11">
         <v>43950</v>
       </c>
       <c r="B100" s="49">
+        <f t="shared" si="12"/>
+        <v>57148.288085304703</v>
+      </c>
+      <c r="D100" s="45">
         <f t="shared" si="11"/>
-        <v>57292.371449588893</v>
-      </c>
-      <c r="D100" s="45">
-        <f t="shared" si="12"/>
-        <v>57292.371449588893</v>
+        <v>57148.288085304703</v>
       </c>
       <c r="E100" s="45">
         <f t="shared" si="13"/>
-        <v>2291.6948579835557</v>
+        <v>2285.9315234121882</v>
       </c>
       <c r="F100" s="24">
         <v>3846355</v>
@@ -48001,22 +48539,28 @@
       <c r="AS100" s="24">
         <v>2292</v>
       </c>
-    </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT100" s="24">
+        <v>57148</v>
+      </c>
+      <c r="AU100" s="24">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
         <v>43951</v>
       </c>
       <c r="B101" s="49">
+        <f t="shared" si="12"/>
+        <v>60078.343471451153</v>
+      </c>
+      <c r="D101" s="45">
         <f t="shared" si="11"/>
-        <v>60229.814147791738</v>
-      </c>
-      <c r="D101" s="45">
-        <f t="shared" si="12"/>
-        <v>60229.814147791738</v>
+        <v>60078.343471451153</v>
       </c>
       <c r="E101" s="45">
         <f t="shared" si="13"/>
-        <v>2409.1925659116696</v>
+        <v>2403.1337388580464</v>
       </c>
       <c r="F101" s="24">
         <v>4705942</v>
@@ -48141,22 +48685,28 @@
       <c r="AS101" s="24">
         <v>2409</v>
       </c>
-    </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT101" s="24">
+        <v>60078</v>
+      </c>
+      <c r="AU101" s="24">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A102" s="11">
         <v>43952</v>
       </c>
       <c r="B102" s="49">
+        <f t="shared" si="12"/>
+        <v>63158.626009687803</v>
+      </c>
+      <c r="D102" s="45">
         <f t="shared" si="11"/>
-        <v>63317.862753673187</v>
-      </c>
-      <c r="D102" s="45">
-        <f t="shared" si="12"/>
-        <v>63317.862753673187</v>
+        <v>63158.626009687803</v>
       </c>
       <c r="E102" s="45">
         <f t="shared" si="13"/>
-        <v>2532.7145101469278</v>
+        <v>2526.3450403875122</v>
       </c>
       <c r="F102" s="24">
         <v>5757631</v>
@@ -48281,22 +48831,28 @@
       <c r="AS102" s="24">
         <v>2533</v>
       </c>
-    </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT102" s="24">
+        <v>63159</v>
+      </c>
+      <c r="AU102" s="24">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A103" s="11">
         <v>43953</v>
       </c>
       <c r="B103" s="49">
+        <f t="shared" si="12"/>
+        <v>66396.838010807769</v>
+      </c>
+      <c r="D103" s="45">
         <f t="shared" si="11"/>
-        <v>66564.238997240638</v>
-      </c>
-      <c r="D103" s="45">
-        <f t="shared" si="12"/>
-        <v>66564.238997240638</v>
+        <v>66396.838010807769</v>
       </c>
       <c r="E103" s="45">
         <f t="shared" si="13"/>
-        <v>2662.5695598896255</v>
+        <v>2655.8735204323107</v>
       </c>
       <c r="F103" s="24">
         <v>7044351</v>
@@ -48421,22 +48977,28 @@
       <c r="AS103" s="24">
         <v>2663</v>
       </c>
-    </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT103" s="24">
+        <v>66397</v>
+      </c>
+      <c r="AU103" s="24">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A104" s="11">
         <v>43954</v>
       </c>
       <c r="B104" s="49">
+        <f t="shared" si="12"/>
+        <v>69801.076691523151</v>
+      </c>
+      <c r="D104" s="45">
         <f t="shared" si="11"/>
-        <v>69977.060510064868</v>
-      </c>
-      <c r="D104" s="45">
-        <f t="shared" si="12"/>
-        <v>69977.060510064868</v>
+        <v>69801.076691523151</v>
       </c>
       <c r="E104" s="45">
         <f t="shared" si="13"/>
-        <v>2799.0824204025948</v>
+        <v>2792.0430676609262</v>
       </c>
       <c r="F104" s="24">
         <v>8618629</v>
@@ -48561,22 +49123,28 @@
       <c r="AS104" s="24">
         <v>2799</v>
       </c>
-    </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT104" s="24">
+        <v>69801</v>
+      </c>
+      <c r="AU104" s="24">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A105" s="11">
         <v>43955</v>
       </c>
       <c r="B105" s="49">
+        <f t="shared" si="12"/>
+        <v>73379.854421724478</v>
+      </c>
+      <c r="D105" s="45">
         <f t="shared" si="11"/>
-        <v>73564.861123587281</v>
-      </c>
-      <c r="D105" s="45">
-        <f t="shared" si="12"/>
-        <v>73564.861123587281</v>
+        <v>73379.854421724478</v>
       </c>
       <c r="E105" s="45">
         <f t="shared" si="13"/>
-        <v>2942.5944449434915</v>
+        <v>2935.194176868979</v>
       </c>
       <c r="F105" s="24">
         <v>10544728</v>
@@ -48701,22 +49269,28 @@
       <c r="AS105" s="24">
         <v>2943</v>
       </c>
-    </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT105" s="24">
+        <v>73380</v>
+      </c>
+      <c r="AU105" s="24">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A106" s="11">
         <v>43956</v>
       </c>
       <c r="B106" s="49">
+        <f t="shared" si="12"/>
+        <v>77142.120009839331</v>
+      </c>
+      <c r="D106" s="45">
         <f t="shared" si="11"/>
-        <v>77336.612208143561</v>
-      </c>
-      <c r="D106" s="45">
-        <f t="shared" si="12"/>
-        <v>77336.612208143561</v>
+        <v>77142.120009839331</v>
       </c>
       <c r="E106" s="45">
         <f t="shared" si="13"/>
-        <v>3093.4644883257424</v>
+        <v>3085.6848003935734</v>
       </c>
       <c r="F106" s="24">
         <v>12901274</v>
@@ -48841,22 +49415,28 @@
       <c r="AS106" s="24">
         <v>3093</v>
       </c>
-    </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT106" s="24">
+        <v>77142</v>
+      </c>
+      <c r="AU106" s="24">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A107" s="11">
         <v>43957</v>
       </c>
       <c r="B107" s="49">
+        <f t="shared" si="12"/>
+        <v>81097.281079514622</v>
+      </c>
+      <c r="D107" s="45">
         <f t="shared" si="11"/>
-        <v>81301.745106062488</v>
-      </c>
-      <c r="D107" s="45">
-        <f t="shared" si="12"/>
-        <v>81301.745106062488</v>
+        <v>81097.281079514622</v>
       </c>
       <c r="E107" s="45">
         <f t="shared" si="13"/>
-        <v>3252.0698042424997</v>
+        <v>3243.8912431805848</v>
       </c>
       <c r="F107" s="24">
         <v>15784462</v>
@@ -48981,22 +49561,28 @@
       <c r="AS107" s="24">
         <v>3252</v>
       </c>
-    </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT107" s="24">
+        <v>81097</v>
+      </c>
+      <c r="AU107" s="24">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A108" s="11">
         <v>43958</v>
       </c>
       <c r="B108" s="49">
+        <f t="shared" si="12"/>
+        <v>85255.227593575939</v>
+      </c>
+      <c r="D108" s="45">
         <f t="shared" si="11"/>
-        <v>85470.174714934372</v>
-      </c>
-      <c r="D108" s="45">
-        <f t="shared" si="12"/>
-        <v>85470.174714934372</v>
+        <v>85255.227593575939</v>
       </c>
       <c r="E108" s="45">
         <f t="shared" si="13"/>
-        <v>3418.806988597375</v>
+        <v>3410.2091037430378</v>
       </c>
       <c r="F108" s="24">
         <v>19311988</v>
@@ -49121,22 +49707,28 @@
       <c r="AS108" s="24">
         <v>3419</v>
       </c>
-    </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT108" s="24">
+        <v>85255</v>
+      </c>
+      <c r="AU108" s="24">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A109" s="11">
         <v>43959</v>
       </c>
       <c r="B109" s="49">
+        <f t="shared" si="12"/>
+        <v>89626.356584086039</v>
+      </c>
+      <c r="D109" s="45">
         <f t="shared" si="11"/>
-        <v>89852.324280019398</v>
-      </c>
-      <c r="D109" s="45">
-        <f t="shared" si="12"/>
-        <v>89852.324280019398</v>
+        <v>89626.356584086039</v>
       </c>
       <c r="E109" s="45">
         <f t="shared" si="13"/>
-        <v>3594.092971200776</v>
+        <v>3585.0542633634418</v>
       </c>
       <c r="F109" s="24">
         <v>23627849</v>
@@ -49261,22 +49853,28 @@
       <c r="AS109" s="24">
         <v>3594</v>
       </c>
-    </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT109" s="24">
+        <v>89626</v>
+      </c>
+      <c r="AU109" s="24">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A110" s="11">
         <v>43960</v>
       </c>
       <c r="B110" s="49">
+        <f t="shared" si="12"/>
+        <v>94221.598150340622</v>
+      </c>
+      <c r="D110" s="45">
         <f t="shared" si="11"/>
-        <v>94459.151457790038</v>
-      </c>
-      <c r="D110" s="45">
-        <f t="shared" si="12"/>
-        <v>94459.151457790038</v>
+        <v>94221.598150340622</v>
       </c>
       <c r="E110" s="45">
         <f t="shared" si="13"/>
-        <v>3778.3660583116016</v>
+        <v>3768.8639260136251</v>
       </c>
       <c r="F110" s="24">
         <v>28908222</v>
@@ -49401,22 +49999,28 @@
       <c r="AS110" s="24">
         <v>3778</v>
       </c>
-    </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT110" s="24">
+        <v>94222</v>
+      </c>
+      <c r="AU110" s="24">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A111" s="11">
         <v>43961</v>
       </c>
       <c r="B111" s="49">
+        <f t="shared" si="12"/>
+        <v>99052.442789809749</v>
+      </c>
+      <c r="D111" s="45">
         <f t="shared" si="11"/>
-        <v>99302.175715779857</v>
-      </c>
-      <c r="D111" s="45">
-        <f t="shared" si="12"/>
-        <v>99302.175715779857</v>
+        <v>99052.442789809749</v>
       </c>
       <c r="E111" s="45">
         <f t="shared" si="13"/>
-        <v>3972.0870286311942</v>
+        <v>3962.0977115923902</v>
       </c>
       <c r="F111" s="24">
         <v>35368658</v>
@@ -49541,22 +50145,28 @@
       <c r="AS111" s="24">
         <v>3972</v>
       </c>
-    </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT111" s="24">
+        <v>99052</v>
+      </c>
+      <c r="AU111" s="24">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A112" s="11">
         <v>43962</v>
       </c>
       <c r="B112" s="49">
+        <f t="shared" si="12"/>
+        <v>104130.9701303667</v>
+      </c>
+      <c r="D112" s="45">
         <f t="shared" si="11"/>
-        <v>104393.50713725248</v>
-      </c>
-      <c r="D112" s="45">
-        <f t="shared" si="12"/>
-        <v>104393.50713725248</v>
+        <v>104130.9701303667</v>
       </c>
       <c r="E112" s="45">
         <f t="shared" si="13"/>
-        <v>4175.7402854900993</v>
+        <v>4165.238805214668</v>
       </c>
       <c r="F112" s="24">
         <v>43272878</v>
@@ -49681,22 +50291,28 @@
       <c r="AS112" s="24">
         <v>4176</v>
       </c>
-    </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT112" s="24">
+        <v>104131</v>
+      </c>
+      <c r="AU112" s="24">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A113" s="11">
         <v>43963</v>
       </c>
       <c r="B113" s="49">
+        <f t="shared" si="12"/>
+        <v>109469.87913564961</v>
+      </c>
+      <c r="D113" s="45">
         <f t="shared" si="11"/>
-        <v>109745.87670271772</v>
-      </c>
-      <c r="D113" s="45">
-        <f t="shared" si="12"/>
-        <v>109745.87670271772</v>
+        <v>109469.87913564961</v>
       </c>
       <c r="E113" s="45">
         <f t="shared" si="13"/>
-        <v>4389.8350681087095</v>
+        <v>4378.7951654259841</v>
       </c>
       <c r="F113" s="24">
         <v>52943539</v>
@@ -49821,22 +50437,28 @@
       <c r="AS113" s="24">
         <v>4390</v>
       </c>
-    </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT113" s="24">
+        <v>109470</v>
+      </c>
+      <c r="AU113" s="24">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A114" s="11">
         <v>43964</v>
       </c>
       <c r="B114" s="49">
+        <f t="shared" si="12"/>
+        <v>115082.51985908521</v>
+      </c>
+      <c r="D114" s="45">
         <f t="shared" si="11"/>
-        <v>115372.66812401402</v>
-      </c>
-      <c r="D114" s="45">
-        <f t="shared" si="12"/>
-        <v>115372.66812401402</v>
+        <v>115082.51985908521</v>
       </c>
       <c r="E114" s="45">
         <f t="shared" si="13"/>
-        <v>4614.9067249605605</v>
+        <v>4603.3007943634084</v>
       </c>
       <c r="F114" s="24">
         <v>64775410</v>
@@ -49961,22 +50583,28 @@
       <c r="AS114" s="24">
         <v>4615</v>
       </c>
-    </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT114" s="24">
+        <v>115083</v>
+      </c>
+      <c r="AU114" s="24">
+        <v>4603</v>
+      </c>
+    </row>
+    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A115" s="11">
         <v>43965</v>
       </c>
       <c r="B115" s="49">
+        <f t="shared" si="12"/>
+        <v>120982.92682597607</v>
+      </c>
+      <c r="D115" s="45">
         <f t="shared" si="11"/>
-        <v>121287.95131055938</v>
-      </c>
-      <c r="D115" s="45">
-        <f t="shared" si="12"/>
-        <v>121287.95131055938</v>
+        <v>120982.92682597607</v>
       </c>
       <c r="E115" s="45">
         <f t="shared" si="13"/>
-        <v>4851.5180524223751</v>
+        <v>4839.317073039043</v>
       </c>
       <c r="F115" s="24">
         <v>79251477</v>
@@ -50101,22 +50729,28 @@
       <c r="AS115" s="24">
         <v>4852</v>
       </c>
-    </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT115" s="24">
+        <v>120983</v>
+      </c>
+      <c r="AU115" s="24">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A116" s="11">
         <v>43966</v>
       </c>
       <c r="B116" s="49">
+        <f t="shared" si="12"/>
+        <v>127185.85412712417</v>
+      </c>
+      <c r="D116" s="45">
         <f t="shared" si="11"/>
-        <v>127506.51755145359</v>
-      </c>
-      <c r="D116" s="45">
-        <f t="shared" si="12"/>
-        <v>127506.51755145359</v>
+        <v>127185.85412712417</v>
       </c>
       <c r="E116" s="45">
         <f t="shared" si="13"/>
-        <v>5100.2607020581436</v>
+        <v>5087.4341650849665</v>
       </c>
       <c r="F116" s="24">
         <v>96962669</v>
@@ -50241,22 +50875,28 @@
       <c r="AS116" s="24">
         <v>5100</v>
       </c>
-    </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT116" s="24">
+        <v>127186</v>
+      </c>
+      <c r="AU116" s="24">
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="117" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A117" s="11">
         <v>43967</v>
       </c>
       <c r="B117" s="49">
+        <f t="shared" si="12"/>
+        <v>133706.81231174289</v>
+      </c>
+      <c r="D117" s="45">
         <f t="shared" si="11"/>
-        <v>134043.91650140539</v>
-      </c>
-      <c r="D117" s="45">
-        <f t="shared" si="12"/>
-        <v>134043.91650140539</v>
+        <v>133706.81231174289</v>
       </c>
       <c r="E117" s="45">
         <f t="shared" si="13"/>
-        <v>5361.7566600562159</v>
+        <v>5348.2724924697159</v>
       </c>
       <c r="F117" s="24">
         <v>118631975</v>
@@ -50381,22 +51021,28 @@
       <c r="AS117" s="24">
         <v>5362</v>
       </c>
-    </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT117" s="24">
+        <v>133707</v>
+      </c>
+      <c r="AU117" s="24">
+        <v>5348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A118" s="11">
         <v>43968</v>
       </c>
       <c r="B118" s="49">
+        <f t="shared" si="12"/>
+        <v>140562.10717190924</v>
+      </c>
+      <c r="D118" s="45">
         <f t="shared" si="11"/>
-        <v>140916.49506296866</v>
-      </c>
-      <c r="D118" s="45">
-        <f t="shared" si="12"/>
-        <v>140916.49506296866</v>
+        <v>140562.10717190924</v>
       </c>
       <c r="E118" s="45">
         <f t="shared" si="13"/>
-        <v>5636.6598025187468</v>
+        <v>5622.4842868763699</v>
       </c>
       <c r="F118" s="24">
         <v>145143956</v>
@@ -50521,22 +51167,28 @@
       <c r="AS118" s="24">
         <v>5637</v>
       </c>
-    </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT118" s="24">
+        <v>140562</v>
+      </c>
+      <c r="AU118" s="24">
+        <v>5622</v>
+      </c>
+    </row>
+    <row r="119" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A119" s="11">
         <v>43969</v>
       </c>
       <c r="B119" s="49">
+        <f t="shared" si="12"/>
+        <v>147768.88051553722</v>
+      </c>
+      <c r="D119" s="45">
         <f t="shared" si="11"/>
-        <v>148141.43826231366</v>
-      </c>
-      <c r="D119" s="45">
-        <f t="shared" si="12"/>
-        <v>148141.43826231366</v>
+        <v>147768.88051553722</v>
       </c>
       <c r="E119" s="45">
         <f t="shared" si="13"/>
-        <v>5925.6575304925464</v>
+        <v>5910.7552206214887</v>
       </c>
       <c r="F119" s="24">
         <v>177580860</v>
@@ -50661,22 +51313,28 @@
       <c r="AS119" s="24">
         <v>5926</v>
       </c>
-    </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT119" s="24">
+        <v>147769</v>
+      </c>
+      <c r="AU119" s="24">
+        <v>5911</v>
+      </c>
+    </row>
+    <row r="120" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A120" s="11">
         <v>43970</v>
       </c>
       <c r="B120" s="49">
+        <f t="shared" si="12"/>
+        <v>155345.15302982653</v>
+      </c>
+      <c r="D120" s="45">
         <f t="shared" si="11"/>
-        <v>155736.81222074357</v>
-      </c>
-      <c r="D120" s="45">
-        <f t="shared" si="12"/>
-        <v>155736.81222074357</v>
+        <v>155345.15302982653</v>
       </c>
       <c r="E120" s="45">
         <f t="shared" si="13"/>
-        <v>6229.4724888297424</v>
+        <v>6213.8061211930617</v>
       </c>
       <c r="F120" s="24">
         <v>217266792</v>
@@ -50801,22 +51459,28 @@
       <c r="AS120" s="24">
         <v>6229</v>
       </c>
-    </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT120" s="24">
+        <v>155345</v>
+      </c>
+      <c r="AU120" s="24">
+        <v>6214</v>
+      </c>
+    </row>
+    <row r="121" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A121" s="11">
         <v>43971</v>
       </c>
       <c r="B121" s="49">
+        <f t="shared" si="12"/>
+        <v>163309.86934236699</v>
+      </c>
+      <c r="D121" s="45">
         <f t="shared" si="11"/>
-        <v>163721.60932940809</v>
-      </c>
-      <c r="D121" s="45">
-        <f t="shared" si="12"/>
-        <v>163721.60932940809</v>
+        <v>163309.86934236699</v>
       </c>
       <c r="E121" s="45">
         <f t="shared" si="13"/>
-        <v>6548.8643731763241</v>
+        <v>6532.3947736946793</v>
       </c>
       <c r="F121" s="24">
         <v>265821772</v>
@@ -50941,22 +51605,28 @@
       <c r="AS121" s="24">
         <v>6549</v>
       </c>
-    </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT121" s="24">
+        <v>163310</v>
+      </c>
+      <c r="AU121" s="24">
+        <v>6532</v>
+      </c>
+    </row>
+    <row r="122" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A122" s="11">
         <v>43972</v>
       </c>
       <c r="B122" s="49">
+        <f t="shared" si="12"/>
+        <v>171682.94539257541</v>
+      </c>
+      <c r="D122" s="45">
         <f t="shared" si="11"/>
-        <v>172115.79574017395</v>
-      </c>
-      <c r="D122" s="45">
-        <f t="shared" si="12"/>
-        <v>172115.79574017395</v>
+        <v>171682.94539257541</v>
       </c>
       <c r="E122" s="45">
         <f t="shared" si="13"/>
-        <v>6884.6318296069585</v>
+        <v>6867.3178157030161</v>
       </c>
       <c r="F122" s="24">
         <v>325227863</v>
@@ -51081,22 +51751,28 @@
       <c r="AS122" s="24">
         <v>6885</v>
       </c>
-    </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT122" s="24">
+        <v>171683</v>
+      </c>
+      <c r="AU122" s="24">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="123" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A123" s="11">
         <v>43973</v>
       </c>
       <c r="B123" s="49">
+        <f t="shared" si="12"/>
+        <v>180485.31823191783</v>
+      </c>
+      <c r="D123" s="45">
         <f t="shared" si="11"/>
-        <v>180940.36129140449</v>
-      </c>
-      <c r="D123" s="45">
-        <f t="shared" si="12"/>
-        <v>180940.36129140449</v>
+        <v>180485.31823191783</v>
       </c>
       <c r="E123" s="45">
         <f t="shared" si="13"/>
-        <v>7237.6144516561799</v>
+        <v>7219.4127292767134</v>
       </c>
       <c r="F123" s="24">
         <v>397910081</v>
@@ -51221,22 +51897,28 @@
       <c r="AS123" s="24">
         <v>7238</v>
       </c>
-    </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT123" s="24">
+        <v>180485</v>
+      </c>
+      <c r="AU123" s="24">
+        <v>7219</v>
+      </c>
+    </row>
+    <row r="124" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A124" s="11">
         <v>43974</v>
       </c>
       <c r="B124" s="49">
+        <f t="shared" si="12"/>
+        <v>189738.99837744387</v>
+      </c>
+      <c r="D124" s="45">
         <f t="shared" si="11"/>
-        <v>190217.37199348872</v>
-      </c>
-      <c r="D124" s="45">
-        <f t="shared" si="12"/>
-        <v>190217.37199348872</v>
+        <v>189738.99837744387</v>
       </c>
       <c r="E124" s="45">
         <f t="shared" si="13"/>
-        <v>7608.6948797395489</v>
+        <v>7589.5599350977554</v>
       </c>
       <c r="F124" s="24">
         <v>486835388</v>
@@ -51361,22 +52043,28 @@
       <c r="AS124" s="24">
         <v>7609</v>
       </c>
-    </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT124" s="24">
+        <v>189739</v>
+      </c>
+      <c r="AU124" s="24">
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="125" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A125" s="11">
         <v>43975</v>
       </c>
       <c r="B125" s="49">
+        <f t="shared" si="12"/>
+        <v>199467.12484954408</v>
+      </c>
+      <c r="D125" s="45">
         <f t="shared" si="11"/>
-        <v>199970.0252053609</v>
-      </c>
-      <c r="D125" s="45">
-        <f t="shared" si="12"/>
-        <v>199970.0252053609</v>
+        <v>199467.12484954408</v>
       </c>
       <c r="E125" s="45">
         <f t="shared" si="13"/>
-        <v>7998.8010082144365</v>
+        <v>7978.684993981763</v>
       </c>
       <c r="F125" s="24">
         <v>595633803</v>
@@ -51501,22 +52189,28 @@
       <c r="AS125" s="24">
         <v>7999</v>
       </c>
-    </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT125" s="24">
+        <v>199467</v>
+      </c>
+      <c r="AU125" s="24">
+        <v>7979</v>
+      </c>
+    </row>
+    <row r="126" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A126" s="11">
         <v>43976</v>
       </c>
       <c r="B126" s="49">
+        <f t="shared" si="12"/>
+        <v>209694.02303155349</v>
+      </c>
+      <c r="D126" s="45">
         <f t="shared" si="11"/>
-        <v>210222.70763998094</v>
-      </c>
-      <c r="D126" s="45">
-        <f t="shared" si="12"/>
-        <v>210222.70763998094</v>
+        <v>209694.02303155349</v>
       </c>
       <c r="E126" s="45">
         <f t="shared" si="13"/>
-        <v>8408.9083055992378</v>
+        <v>8387.7609212621392</v>
       </c>
       <c r="F126" s="24">
         <v>728746586</v>
@@ -51641,22 +52335,28 @@
       <c r="AS126" s="24">
         <v>8409</v>
       </c>
-    </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT126" s="24">
+        <v>209694</v>
+      </c>
+      <c r="AU126" s="24">
+        <v>8388</v>
+      </c>
+    </row>
+    <row r="127" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A127" s="11">
         <v>43977</v>
       </c>
       <c r="B127" s="49">
+        <f t="shared" si="12"/>
+        <v>220445.26549588048</v>
+      </c>
+      <c r="D127" s="45">
         <f t="shared" si="11"/>
-        <v>221001.05634381916</v>
-      </c>
-      <c r="D127" s="45">
-        <f t="shared" si="12"/>
-        <v>221001.05634381916</v>
+        <v>220445.26549588048</v>
       </c>
       <c r="E127" s="45">
         <f t="shared" si="13"/>
-        <v>8840.0422537527666</v>
+        <v>8817.8106198352198</v>
       </c>
       <c r="F127" s="24">
         <v>891607536</v>
@@ -51781,22 +52481,28 @@
       <c r="AS127" s="24">
         <v>8840</v>
       </c>
-    </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT127" s="24">
+        <v>220445</v>
+      </c>
+      <c r="AU127" s="24">
+        <v>8818</v>
+      </c>
+    </row>
+    <row r="128" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A128" s="11">
         <v>43978</v>
       </c>
       <c r="B128" s="49">
+        <f t="shared" si="12"/>
+        <v>231747.735948758</v>
+      </c>
+      <c r="D128" s="45">
         <f t="shared" si="11"/>
-        <v>232332.02280282625</v>
-      </c>
-      <c r="D128" s="45">
-        <f t="shared" si="12"/>
-        <v>232332.02280282625</v>
+        <v>231747.735948758</v>
       </c>
       <c r="E128" s="45">
         <f t="shared" si="13"/>
-        <v>9293.2809121130504</v>
+        <v>9269.9094379503204</v>
       </c>
       <c r="F128" s="24">
         <v>1090864798</v>
@@ -51921,22 +52627,28 @@
       <c r="AS128" s="24">
         <v>9293</v>
       </c>
-    </row>
-    <row r="129" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT128" s="24">
+        <v>231748</v>
+      </c>
+      <c r="AU128" s="24">
+        <v>9270</v>
+      </c>
+    </row>
+    <row r="129" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A129" s="11">
         <v>43979</v>
       </c>
       <c r="B129" s="49">
+        <f t="shared" si="12"/>
+        <v>243629.69645351215</v>
+      </c>
+      <c r="D129" s="45">
         <f t="shared" si="11"/>
-        <v>244243.94033518658</v>
-      </c>
-      <c r="D129" s="45">
-        <f t="shared" si="12"/>
-        <v>244243.94033518658</v>
+        <v>243629.69645351215</v>
       </c>
       <c r="E129" s="45">
         <f t="shared" si="13"/>
-        <v>9769.7576134074625</v>
+        <v>9745.1878581404872</v>
       </c>
       <c r="F129" s="24">
         <v>1334652254</v>
@@ -52061,22 +52773,28 @@
       <c r="AS129" s="24">
         <v>9770</v>
       </c>
-    </row>
-    <row r="130" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT129" s="24">
+        <v>243630</v>
+      </c>
+      <c r="AU129" s="24">
+        <v>9745</v>
+      </c>
+    </row>
+    <row r="130" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A130" s="11">
         <v>43980</v>
       </c>
       <c r="B130" s="49">
+        <f t="shared" si="12"/>
+        <v>256120.85810044166</v>
+      </c>
+      <c r="D130" s="45">
         <f t="shared" si="11"/>
-        <v>256766.5949393718</v>
-      </c>
-      <c r="D130" s="45">
-        <f t="shared" si="12"/>
-        <v>256766.5949393718</v>
+        <v>256120.85810044166</v>
       </c>
       <c r="E130" s="45">
         <f t="shared" si="13"/>
-        <v>10270.663797574873</v>
+        <v>10244.834324017667</v>
       </c>
       <c r="F130" s="24">
         <v>1632921553</v>
@@ -52201,22 +52919,28 @@
       <c r="AS130" s="24">
         <v>10271</v>
       </c>
-    </row>
-    <row r="131" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT130" s="24">
+        <v>256121</v>
+      </c>
+      <c r="AU130" s="24">
+        <v>10245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A131" s="11">
         <v>43981</v>
       </c>
       <c r="B131" s="49">
+        <f t="shared" si="12"/>
+        <v>269252.45530001941</v>
+      </c>
+      <c r="D131" s="45">
         <f t="shared" si="11"/>
-        <v>269931.29977465188</v>
-      </c>
-      <c r="D131" s="45">
-        <f t="shared" si="12"/>
-        <v>269931.29977465188</v>
+        <v>269252.45530001941</v>
       </c>
       <c r="E131" s="45">
         <f t="shared" si="13"/>
-        <v>10797.251990986075</v>
+        <v>10770.098212000777</v>
       </c>
       <c r="F131" s="24">
         <v>1997848346</v>
@@ -52341,22 +53065,28 @@
       <c r="AS131" s="24">
         <v>10797</v>
       </c>
-    </row>
-    <row r="132" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT131" s="24">
+        <v>269252</v>
+      </c>
+      <c r="AU131" s="24">
+        <v>10770</v>
+      </c>
+    </row>
+    <row r="132" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A132" s="11">
         <v>43982</v>
       </c>
       <c r="B132" s="49">
         <f t="shared" ref="B132:B133" si="14">D132</f>
-        <v>283770.9734603035</v>
+        <v>283057.32388518786</v>
       </c>
       <c r="D132" s="45">
-        <f t="shared" si="12"/>
-        <v>283770.9734603035</v>
+        <f t="shared" si="11"/>
+        <v>283057.32388518786</v>
       </c>
       <c r="E132" s="45">
         <f t="shared" si="13"/>
-        <v>11350.83893841214</v>
+        <v>11322.292955407514</v>
       </c>
       <c r="F132" s="24">
         <v>2444329310</v>
@@ -52481,22 +53211,28 @@
       <c r="AS132" s="24">
         <v>11351</v>
       </c>
-    </row>
-    <row r="133" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AT132" s="24">
+        <v>283057</v>
+      </c>
+      <c r="AU132" s="24">
+        <v>11322</v>
+      </c>
+    </row>
+    <row r="133" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A133" s="11">
         <v>43983</v>
       </c>
       <c r="B133" s="49">
         <f t="shared" si="14"/>
-        <v>298320.22238930489</v>
+        <v>297569.9832180448</v>
       </c>
       <c r="D133" s="45">
-        <f t="shared" si="12"/>
-        <v>298320.22238930489</v>
+        <f t="shared" si="11"/>
+        <v>297569.9832180448</v>
       </c>
       <c r="E133" s="45">
         <f t="shared" si="13"/>
-        <v>11932.808895572196</v>
+        <v>11902.799328721792</v>
       </c>
       <c r="F133" s="24">
         <v>2990590245</v>
@@ -52621,10 +53357,17 @@
       <c r="AS133" s="24">
         <v>11933</v>
       </c>
+      <c r="AT133" s="24">
+        <v>297570</v>
+      </c>
+      <c r="AU133" s="24">
+        <v>11903</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="AR85:AS85"/>
+    <mergeCell ref="AT86:AU86"/>
     <mergeCell ref="P71:Q71"/>
     <mergeCell ref="R72:S72"/>
     <mergeCell ref="T73:U73"/>
@@ -52655,8 +53398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7825246-1241-3F47-832C-582FA2484A07}">
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52679,7 +53422,7 @@
         <v>74</v>
       </c>
       <c r="E1" s="16">
-        <f t="shared" ref="E1:E44" si="0">B1*EXP(C1)</f>
+        <f t="shared" ref="E1:E45" si="0">B1*EXP(C1)</f>
         <v>26.524102033815545</v>
       </c>
       <c r="H1" s="20"/>
@@ -53806,11 +54549,11 @@
         <v>14018</v>
       </c>
       <c r="M35" s="16">
-        <f t="shared" ref="M35:M45" si="3">L35-L34</f>
+        <f t="shared" ref="M35:M46" si="3">L35-L34</f>
         <v>1469</v>
       </c>
       <c r="N35" s="41">
-        <f t="shared" ref="N35:N45" si="4">M35/M34</f>
+        <f t="shared" ref="N35:N46" si="4">M35/M34</f>
         <v>1.1603475513428121</v>
       </c>
     </row>
@@ -54117,8 +54860,15 @@
       <c r="B45" s="47">
         <v>27063</v>
       </c>
+      <c r="C45" s="67">
+        <v>4.7489999999999997E-2</v>
+      </c>
       <c r="D45" t="s">
         <v>74</v>
+      </c>
+      <c r="E45" s="16">
+        <f t="shared" si="0"/>
+        <v>28379.228347242901</v>
       </c>
       <c r="K45" s="11">
         <v>43935</v>
@@ -54136,8 +54886,29 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="11">
+        <v>43936</v>
+      </c>
+      <c r="B46" s="47">
+        <v>28379</v>
+      </c>
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K46" s="11">
+        <v>43936</v>
+      </c>
+      <c r="L46" s="47">
+        <v>28379</v>
+      </c>
+      <c r="M46" s="16">
+        <f t="shared" si="3"/>
+        <v>1316</v>
+      </c>
+      <c r="N46" s="41">
+        <f t="shared" si="4"/>
+        <v>0.95155459146782362</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
@@ -54739,11 +55510,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA40CCA-C389-C042-8A50-528E4E4EFC4E}">
-  <dimension ref="A1:AA140"/>
+  <dimension ref="A1:AB140"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -56381,7 +57152,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
         <v>43934</v>
       </c>
@@ -56462,7 +57233,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" s="11">
         <v>43935</v>
       </c>
@@ -56546,9 +57317,12 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="11">
         <v>43936</v>
+      </c>
+      <c r="B83" s="20">
+        <v>8447</v>
       </c>
       <c r="C83" s="17">
         <f t="shared" si="7"/>
@@ -56626,18 +57400,17 @@
       <c r="AA83" s="14">
         <v>8445</v>
       </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="11">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" s="11">
         <v>43937</v>
       </c>
-      <c r="B84" s="20">
-        <f t="shared" ref="B84:B127" si="8">C84</f>
-        <v>0</v>
-      </c>
       <c r="C84" s="17">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8969.3333086686525</v>
       </c>
       <c r="D84" s="33">
         <v>2369436</v>
@@ -56711,13 +57484,16 @@
       <c r="AA84" s="24">
         <v>8967</v>
       </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="14">
+        <v>8969</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>43938</v>
       </c>
       <c r="B85" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B84:B127" si="8">C85</f>
         <v>0</v>
       </c>
       <c r="C85" s="17">
@@ -56796,8 +57572,11 @@
       <c r="AA85" s="24">
         <v>9522</v>
       </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="24">
+        <v>9524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>43939</v>
       </c>
@@ -56881,8 +57660,11 @@
       <c r="AA86" s="24">
         <v>10111</v>
       </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="24">
+        <v>10113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>43940</v>
       </c>
@@ -56966,8 +57748,11 @@
       <c r="AA87" s="24">
         <v>10736</v>
       </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="24">
+        <v>10738</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" s="11">
         <v>43941</v>
       </c>
@@ -57051,8 +57836,11 @@
       <c r="AA88" s="24">
         <v>11400</v>
       </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="24">
+        <v>11402</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" s="11">
         <v>43942</v>
       </c>
@@ -57136,8 +57924,11 @@
       <c r="AA89" s="24">
         <v>12104</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="24">
+        <v>12107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>43943</v>
       </c>
@@ -57221,8 +58012,11 @@
       <c r="AA90" s="24">
         <v>12853</v>
       </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="24">
+        <v>12856</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <v>43944</v>
       </c>
@@ -57273,8 +58067,11 @@
       <c r="AA91" s="24">
         <v>13648</v>
       </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="24">
+        <v>13651</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" s="11">
         <v>43945</v>
       </c>
@@ -57325,8 +58122,11 @@
       <c r="AA92" s="24">
         <v>14492</v>
       </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="24">
+        <v>14495</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>43946</v>
       </c>
@@ -57377,8 +58177,11 @@
       <c r="AA93" s="24">
         <v>15388</v>
       </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="24">
+        <v>15391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>43947</v>
       </c>
@@ -57429,8 +58232,11 @@
       <c r="AA94" s="24">
         <v>16339</v>
       </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="24">
+        <v>16343</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>43948</v>
       </c>
@@ -57481,8 +58287,11 @@
       <c r="AA95" s="24">
         <v>17350</v>
       </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="24">
+        <v>17354</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" s="11">
         <v>43949</v>
       </c>
@@ -57533,8 +58342,11 @@
       <c r="AA96" s="24">
         <v>18423</v>
       </c>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="24">
+        <v>18427</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" s="11">
         <v>43950</v>
       </c>
@@ -57585,8 +58397,11 @@
       <c r="AA97" s="24">
         <v>19562</v>
       </c>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="24">
+        <v>19566</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" s="11">
         <v>43951</v>
       </c>
@@ -57637,8 +58452,11 @@
       <c r="AA98" s="24">
         <v>20771</v>
       </c>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="24">
+        <v>20776</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" s="11">
         <v>43952</v>
       </c>
@@ -57689,8 +58507,11 @@
       <c r="AA99" s="24">
         <v>22056</v>
       </c>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="24">
+        <v>22061</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" s="11">
         <v>43953</v>
       </c>
@@ -57741,8 +58562,11 @@
       <c r="AA100" s="24">
         <v>23420</v>
       </c>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="24">
+        <v>23425</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
         <v>43954</v>
       </c>
@@ -57793,8 +58617,11 @@
       <c r="AA101" s="24">
         <v>24868</v>
       </c>
-    </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="24">
+        <v>24874</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" s="11">
         <v>43955</v>
       </c>
@@ -57845,8 +58672,11 @@
       <c r="AA102" s="24">
         <v>26406</v>
       </c>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB102" s="24">
+        <v>26412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" s="11">
         <v>43956</v>
       </c>
@@ -57897,8 +58727,11 @@
       <c r="AA103" s="24">
         <v>28038</v>
       </c>
-    </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB103" s="24">
+        <v>28045</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" s="11">
         <v>43957</v>
       </c>
@@ -57949,8 +58782,11 @@
       <c r="AA104" s="24">
         <v>29772</v>
       </c>
-    </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB104" s="24">
+        <v>29779</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" s="11">
         <v>43958</v>
       </c>
@@ -58001,8 +58837,11 @@
       <c r="AA105" s="24">
         <v>31613</v>
       </c>
-    </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB105" s="24">
+        <v>31621</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" s="11">
         <v>43959</v>
       </c>
@@ -58053,8 +58892,11 @@
       <c r="AA106" s="24">
         <v>33568</v>
       </c>
-    </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB106" s="24">
+        <v>33576</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" s="11">
         <v>43960</v>
       </c>
@@ -58105,8 +58947,11 @@
       <c r="AA107" s="24">
         <v>35644</v>
       </c>
-    </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB107" s="24">
+        <v>35652</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" s="11">
         <v>43961</v>
       </c>
@@ -58157,8 +59002,11 @@
       <c r="AA108" s="24">
         <v>37848</v>
       </c>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB108" s="24">
+        <v>37857</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" s="11">
         <v>43962</v>
       </c>
@@ -58209,8 +59057,11 @@
       <c r="AA109" s="24">
         <v>40188</v>
       </c>
-    </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB109" s="24">
+        <v>40198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" s="11">
         <v>43963</v>
       </c>
@@ -58261,8 +59112,11 @@
       <c r="AA110" s="24">
         <v>42673</v>
       </c>
-    </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB110" s="24">
+        <v>42683</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" s="11">
         <v>43964</v>
       </c>
@@ -58313,8 +59167,11 @@
       <c r="AA111" s="24">
         <v>45312</v>
       </c>
-    </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB111" s="24">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" s="11">
         <v>43965</v>
       </c>
@@ -58365,8 +59222,11 @@
       <c r="AA112" s="24">
         <v>48114</v>
       </c>
-    </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB112" s="24">
+        <v>48125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113" s="11">
         <v>43966</v>
       </c>
@@ -58417,8 +59277,11 @@
       <c r="AA113" s="24">
         <v>51089</v>
       </c>
-    </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB113" s="24">
+        <v>51101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114" s="11">
         <v>43967</v>
       </c>
@@ -58469,8 +59332,11 @@
       <c r="AA114" s="24">
         <v>54248</v>
       </c>
-    </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB114" s="24">
+        <v>54261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115" s="11">
         <v>43968</v>
       </c>
@@ -58521,8 +59387,11 @@
       <c r="AA115" s="24">
         <v>57603</v>
       </c>
-    </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB115" s="24">
+        <v>57617</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116" s="11">
         <v>43969</v>
       </c>
@@ -58573,8 +59442,11 @@
       <c r="AA116" s="24">
         <v>61165</v>
       </c>
-    </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB116" s="24">
+        <v>61179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117" s="11">
         <v>43970</v>
       </c>
@@ -58625,8 +59497,11 @@
       <c r="AA117" s="24">
         <v>64947</v>
       </c>
-    </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB117" s="24">
+        <v>64963</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118" s="11">
         <v>43971</v>
       </c>
@@ -58677,8 +59552,11 @@
       <c r="AA118" s="24">
         <v>68963</v>
       </c>
-    </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB118" s="24">
+        <v>68980</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119" s="11">
         <v>43972</v>
       </c>
@@ -58729,8 +59607,11 @@
       <c r="AA119" s="24">
         <v>73228</v>
       </c>
-    </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB119" s="24">
+        <v>73245</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A120" s="11">
         <v>43973</v>
       </c>
@@ -58781,8 +59662,11 @@
       <c r="AA120" s="24">
         <v>77756</v>
       </c>
-    </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB120" s="24">
+        <v>77774</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121" s="11">
         <v>43974</v>
       </c>
@@ -58833,8 +59717,11 @@
       <c r="AA121" s="24">
         <v>82564</v>
       </c>
-    </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB121" s="24">
+        <v>82584</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122" s="11">
         <v>43975</v>
       </c>
@@ -58885,8 +59772,11 @@
       <c r="AA122" s="24">
         <v>87670</v>
       </c>
-    </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB122" s="24">
+        <v>87690</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" s="11">
         <v>43976</v>
       </c>
@@ -58937,8 +59827,11 @@
       <c r="AA123" s="24">
         <v>93091</v>
       </c>
-    </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB123" s="24">
+        <v>93113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124" s="11">
         <v>43977</v>
       </c>
@@ -58989,8 +59882,11 @@
       <c r="AA124" s="24">
         <v>98847</v>
       </c>
-    </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB124" s="24">
+        <v>98871</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125" s="11">
         <v>43978</v>
       </c>
@@ -59041,8 +59937,11 @@
       <c r="AA125" s="24">
         <v>104959</v>
       </c>
-    </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB125" s="24">
+        <v>104984</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126" s="11">
         <v>43979</v>
       </c>
@@ -59093,8 +59992,11 @@
       <c r="AA126" s="24">
         <v>111450</v>
       </c>
-    </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB126" s="24">
+        <v>111476</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127" s="11">
         <v>43980</v>
       </c>
@@ -59145,8 +60047,11 @@
       <c r="AA127" s="24">
         <v>118342</v>
       </c>
-    </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB127" s="24">
+        <v>118370</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128" s="11">
         <v>43981</v>
       </c>
@@ -59197,8 +60102,11 @@
       <c r="AA128" s="24">
         <v>125659</v>
       </c>
-    </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB128" s="24">
+        <v>125689</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129" s="11">
         <v>43982</v>
       </c>
@@ -59249,8 +60157,11 @@
       <c r="AA129" s="24">
         <v>133430</v>
       </c>
-    </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB129" s="24">
+        <v>133461</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130" s="11">
         <v>43983</v>
       </c>
@@ -59301,8 +60212,11 @@
       <c r="AA130" s="24">
         <v>141681</v>
       </c>
-    </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB130" s="24">
+        <v>141714</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131" s="11">
         <v>43984</v>
       </c>
@@ -59353,8 +60267,11 @@
       <c r="AA131" s="24">
         <v>150442</v>
       </c>
-    </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB131" s="24">
+        <v>150477</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A132" s="11">
         <v>43985</v>
       </c>
@@ -59405,36 +60322,39 @@
       <c r="AA132" s="24">
         <v>159744</v>
       </c>
-    </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB132" s="24">
+        <v>159782</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133" s="11"/>
       <c r="C133" s="29"/>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A134" s="11"/>
       <c r="C134" s="29"/>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135" s="11"/>
       <c r="C135" s="29"/>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136" s="11"/>
       <c r="C136" s="29"/>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137" s="11"/>
       <c r="C137" s="29"/>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A138" s="11"/>
       <c r="C138" s="29"/>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139" s="11"/>
       <c r="C139" s="29"/>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A140" s="11"/>
       <c r="C140" s="29"/>
     </row>

--- a/COVID-19.xlsx
+++ b/COVID-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothycomeau/Dropbox/Covid-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF207CB6-0680-2F41-9541-ECF328F092BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F9FC3F-A0A1-BF46-A8CE-48B2CDBC6D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7120" yWindow="5420" windowWidth="28400" windowHeight="14820" firstSheet="1" activeTab="9" xr2:uid="{A5CB126D-F2C1-CC4E-886A-16083F7D0908}"/>
+    <workbookView xWindow="6500" yWindow="2220" windowWidth="28400" windowHeight="14820" firstSheet="2" activeTab="5" xr2:uid="{A5CB126D-F2C1-CC4E-886A-16083F7D0908}"/>
   </bookViews>
   <sheets>
     <sheet name="World" sheetId="1" r:id="rId1"/>
@@ -20013,7 +20013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15537FA-A914-8447-94D5-3E0CD69DDCA2}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
@@ -23338,8 +23338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A86A38-08EC-FA44-A810-5EDDE230B175}">
   <dimension ref="A1:BE28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI28" sqref="AI28"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23450,7 +23450,7 @@
       <c r="AH1" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AI1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AJ1" s="1" t="s">
@@ -30389,8 +30389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C248010-6C16-954B-BC86-379C97BD27B4}">
   <dimension ref="A1:AY128"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="AX30" sqref="AX30"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44376,9 +44376,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE7191-96E7-3B4B-B5CF-F14CB9DCB66F}">
   <dimension ref="A1:AW133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR74" sqref="AR74"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -56468,9 +56468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA40CCA-C389-C042-8A50-528E4E4EFC4E}">
   <dimension ref="A1:AC140"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC85" sqref="AC85"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
